--- a/log/lqr_steering_speed/MoscowRaceway_errors.xlsx
+++ b/log/lqr_steering_speed/MoscowRaceway_errors.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>-5.737962160105994E-06</v>
+        <v>-5.737962160100107E-06</v>
       </c>
       <c r="B10">
         <v>-1.709999999999212E-05</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>-1.582099422758761E-05</v>
+        <v>-1.582099422757584E-05</v>
       </c>
       <c r="B26">
         <v>-3.820000000009927E-05</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.0007000167197724449</v>
+        <v>0.0007000167197724567</v>
       </c>
       <c r="B39">
         <v>0.0008536628582547223</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>9.332208081878482E-05</v>
+        <v>9.332208081880846E-05</v>
       </c>
       <c r="B49">
         <v>0.0002191942933063018</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>0.002091515694068195</v>
+        <v>0.002091515694068416</v>
       </c>
       <c r="B90">
         <v>0.005235998802598729</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>-0.0004832430840259826</v>
+        <v>-0.0004832430840259827</v>
       </c>
       <c r="B248">
         <v>-0.005614934936423843</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318">
-        <v>0.02428110034206955</v>
+        <v>0.02428110034206911</v>
       </c>
       <c r="B318">
         <v>-0.005697014032982839</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403">
-        <v>0.0954951727959063</v>
+        <v>0.09549517279590632</v>
       </c>
       <c r="B403">
         <v>-0.05478924717664135</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418">
-        <v>0.09637251265326002</v>
+        <v>0.09637251265326001</v>
       </c>
       <c r="B418">
         <v>-0.1034772828897168</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419">
-        <v>0.09643865360743822</v>
+        <v>0.09643865360743821</v>
       </c>
       <c r="B419">
         <v>-0.09055318906676035</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430">
-        <v>0.1089315123325197</v>
+        <v>0.1089315123325198</v>
       </c>
       <c r="B430">
         <v>-0.07355718499481689</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431">
-        <v>0.1087420604994518</v>
+        <v>0.1087420604994517</v>
       </c>
       <c r="B431">
         <v>-0.08155364718382119</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448">
-        <v>0.09053446623025627</v>
+        <v>0.09053446623025628</v>
       </c>
       <c r="B448">
         <v>-0.1044649794646841</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>0.08705662565309888</v>
+        <v>0.08705662565309889</v>
       </c>
       <c r="B451">
         <v>-0.1046613350553351</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>0.08432897448668089</v>
+        <v>0.0843289744866809</v>
       </c>
       <c r="B455">
         <v>-0.08728237686749285</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>0.08391415385218778</v>
+        <v>0.0839141538521878</v>
       </c>
       <c r="B456">
         <v>-0.08954672638393957</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457">
-        <v>0.08322599508709724</v>
+        <v>0.08322599508709726</v>
       </c>
       <c r="B457">
         <v>-0.07726126949869139</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>0.0821143346496136</v>
+        <v>0.08211433464961358</v>
       </c>
       <c r="B463">
         <v>-0.06002707659767426</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>0.0443013205803605</v>
+        <v>0.04430132058036051</v>
       </c>
       <c r="B498">
         <v>-0.0205498783532132</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>0.04293244004325461</v>
+        <v>0.04293244004325482</v>
       </c>
       <c r="B502">
         <v>-0.0212930811652341</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>0.04077221543053716</v>
+        <v>0.04077221543053717</v>
       </c>
       <c r="B504">
         <v>-0.02354470708357193</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508">
-        <v>0.03606319625040115</v>
+        <v>0.03606319625040116</v>
       </c>
       <c r="B508">
         <v>-0.02981435443102765</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524">
-        <v>0.02307422528303062</v>
+        <v>0.02307422528303061</v>
       </c>
       <c r="B524">
         <v>-0.03430213521903314</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531">
-        <v>0.02797301177114762</v>
+        <v>0.02797301177114763</v>
       </c>
       <c r="B531">
         <v>-0.006721408598854506</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534">
-        <v>0.03019492958795741</v>
+        <v>0.03019492958795742</v>
       </c>
       <c r="B534">
         <v>-0.002273931972988308</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535">
-        <v>0.03024129793055521</v>
+        <v>0.0302412979305552</v>
       </c>
       <c r="B535">
         <v>-0.00685046938352718</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547">
-        <v>0.02829077737381688</v>
+        <v>0.02829077737381689</v>
       </c>
       <c r="B547">
         <v>-0.02955249220059963</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560">
-        <v>0.04256736630595631</v>
+        <v>0.0425673663059563</v>
       </c>
       <c r="B560">
         <v>-0.04010367424368377</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>0.05234030147791596</v>
+        <v>0.05234030147791595</v>
       </c>
       <c r="B564">
         <v>-0.01586494086052292</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>0.06568354899380981</v>
+        <v>0.06568354899380979</v>
       </c>
       <c r="B572">
         <v>-0.01179116502515942</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>0.06909428676165101</v>
+        <v>0.069094286761651</v>
       </c>
       <c r="B580">
         <v>-0.06546384330092891</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
-        <v>0.07047457269738747</v>
+        <v>0.07047457269738748</v>
       </c>
       <c r="B582">
         <v>-0.06004696306778534</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585">
-        <v>0.07304317211830146</v>
+        <v>0.07304317211830147</v>
       </c>
       <c r="B585">
         <v>-0.06417021231295683</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>0.07785846658754095</v>
+        <v>0.07785846658754096</v>
       </c>
       <c r="B589">
         <v>-0.07528100493252676</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>0.09092882157112403</v>
+        <v>0.09092882157112404</v>
       </c>
       <c r="B603">
         <v>-0.06112150009481088</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607">
-        <v>0.09353253852287835</v>
+        <v>0.09353253852287834</v>
       </c>
       <c r="B607">
         <v>-0.07651067065524009</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611">
-        <v>0.09590069698271048</v>
+        <v>0.09590069698271046</v>
       </c>
       <c r="B611">
         <v>-0.09056215893800479</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612">
-        <v>0.09693774846912045</v>
+        <v>0.09693774846912044</v>
       </c>
       <c r="B612">
         <v>-0.05827183107910239</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615">
-        <v>0.09911920193241586</v>
+        <v>0.09911920193241587</v>
       </c>
       <c r="B615">
         <v>-0.05732653278352284</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623">
-        <v>0.1004018637685819</v>
+        <v>0.100401863768582</v>
       </c>
       <c r="B623">
         <v>-0.09418868258562441</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634">
-        <v>0.09794400320334354</v>
+        <v>0.09794400320334355</v>
       </c>
       <c r="B634">
         <v>-0.1130056868084712</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637">
-        <v>0.09602260007222702</v>
+        <v>0.096022600072227</v>
       </c>
       <c r="B637">
         <v>-0.1100992084388275</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642">
-        <v>0.09224747478587325</v>
+        <v>0.09224747478587324</v>
       </c>
       <c r="B642">
         <v>-0.09119177248682631</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643">
-        <v>0.09133399232034758</v>
+        <v>0.09133399232034757</v>
       </c>
       <c r="B643">
         <v>-0.1006396081747236</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644">
-        <v>0.09006167230889731</v>
+        <v>0.09006167230889732</v>
       </c>
       <c r="B644">
         <v>-0.07528801299985721</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647">
-        <v>0.08600563597802199</v>
+        <v>0.08600563597802198</v>
       </c>
       <c r="B647">
         <v>-0.1060705737675343</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649">
-        <v>0.08445751724551812</v>
+        <v>0.0844575172455181</v>
       </c>
       <c r="B649">
         <v>-0.0906033729446154</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652">
-        <v>0.08118205544706708</v>
+        <v>0.08118205544706709</v>
       </c>
       <c r="B652">
         <v>-0.08356726335671372</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655">
-        <v>0.07719934944187026</v>
+        <v>0.07719934944187028</v>
       </c>
       <c r="B655">
         <v>-0.07769435942731118</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656">
-        <v>0.07531640844385373</v>
+        <v>0.07531640844385375</v>
       </c>
       <c r="B656">
         <v>-0.08742429610687275</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665">
-        <v>0.06266935623501807</v>
+        <v>0.06266935623501806</v>
       </c>
       <c r="B665">
         <v>-0.06832564470953706</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667">
-        <v>0.06014606360317039</v>
+        <v>0.06014606360317038</v>
       </c>
       <c r="B667">
         <v>-0.08149528590454658</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681">
-        <v>0.0482600997666363</v>
+        <v>0.04826009976663629</v>
       </c>
       <c r="B681">
         <v>-0.0323392231665407</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="929" spans="1:2">
       <c r="A929">
-        <v>-0.03763852625765747</v>
+        <v>-0.03763852625765746</v>
       </c>
       <c r="B929">
         <v>0.04890061371150267</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="942" spans="1:2">
       <c r="A942">
-        <v>-0.04037816458639068</v>
+        <v>-0.04037816458639067</v>
       </c>
       <c r="B942">
         <v>0.03829116737094385</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="964" spans="1:2">
       <c r="A964">
-        <v>-0.04391282107808286</v>
+        <v>-0.04391282107808287</v>
       </c>
       <c r="B964">
         <v>0.03700736473598809</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="969" spans="1:2">
       <c r="A969">
-        <v>-0.04142684255288007</v>
+        <v>-0.04142684255288006</v>
       </c>
       <c r="B969">
         <v>0.03479709494239991</v>
@@ -8215,7 +8215,7 @@
     </row>
     <row r="983" spans="1:2">
       <c r="A983">
-        <v>-0.04494031677068619</v>
+        <v>-0.04494031677068618</v>
       </c>
       <c r="B983">
         <v>0.02874844476498817</v>
@@ -8263,7 +8263,7 @@
     </row>
     <row r="989" spans="1:2">
       <c r="A989">
-        <v>-0.04783284742835306</v>
+        <v>-0.04783284742835305</v>
       </c>
       <c r="B989">
         <v>0.01616082977069544</v>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003">
-        <v>-0.04633341227354415</v>
+        <v>-0.04633341227354416</v>
       </c>
       <c r="B1003">
         <v>0.02610068119952436</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004">
-        <v>-0.0460809635862061</v>
+        <v>-0.04608096358620611</v>
       </c>
       <c r="B1004">
         <v>0.03587036974289193</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006">
-        <v>-0.0453242260816244</v>
+        <v>-0.04532422608162439</v>
       </c>
       <c r="B1006">
         <v>0.02283681423995532</v>
@@ -8431,7 +8431,7 @@
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010">
-        <v>-0.04363435234306965</v>
+        <v>-0.04363435234306964</v>
       </c>
       <c r="B1010">
         <v>0.02999433548078612</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029">
-        <v>-0.04265952215634721</v>
+        <v>-0.0426595221563472</v>
       </c>
       <c r="B1029">
         <v>0.02745408719836684</v>
@@ -8599,7 +8599,7 @@
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031">
-        <v>-0.04192508859697376</v>
+        <v>-0.04192508859697377</v>
       </c>
       <c r="B1031">
         <v>0.008481301043170131</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033">
-        <v>-0.04303992243038708</v>
+        <v>-0.04303992243038707</v>
       </c>
       <c r="B1033">
         <v>0.02739101596876159</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035">
-        <v>-0.04216322366897033</v>
+        <v>-0.04216322366897034</v>
       </c>
       <c r="B1035">
         <v>0.009197658984222645</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044">
-        <v>-0.0399285298374892</v>
+        <v>-0.03992852983748921</v>
       </c>
       <c r="B1044">
         <v>0.02840285418542132</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047">
-        <v>-0.04073825607024249</v>
+        <v>-0.0407382560702425</v>
       </c>
       <c r="B1047">
         <v>0.01576307130922494</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051">
-        <v>-0.04201695810835387</v>
+        <v>-0.04201695810835386</v>
       </c>
       <c r="B1051">
         <v>0.01372130861375664</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060">
-        <v>-0.04389655838272925</v>
+        <v>-0.04389655838272924</v>
       </c>
       <c r="B1060">
         <v>0.02583521738778227</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064">
-        <v>-0.04356626560526374</v>
+        <v>-0.04356626560526373</v>
       </c>
       <c r="B1064">
         <v>0.02995472629758167</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070">
-        <v>-0.04367184968134469</v>
+        <v>-0.04367184968134468</v>
       </c>
       <c r="B1070">
         <v>0.00874240968888973</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076">
-        <v>-0.04390745257480953</v>
+        <v>-0.04390745257480952</v>
       </c>
       <c r="B1076">
         <v>0.03646563775164102</v>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078">
-        <v>-0.04361552029666323</v>
+        <v>-0.04361552029666322</v>
       </c>
       <c r="B1078">
         <v>0.01156813432145132</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080">
-        <v>-0.04220459726764814</v>
+        <v>-0.04220459726764813</v>
       </c>
       <c r="B1080">
         <v>0.04171491975573849</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084">
-        <v>-0.04130933054937846</v>
+        <v>-0.04130933054937847</v>
       </c>
       <c r="B1084">
         <v>0.04350523329211775</v>
@@ -9063,7 +9063,7 @@
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089">
-        <v>-0.04323113818969855</v>
+        <v>-0.04323113818969856</v>
       </c>
       <c r="B1089">
         <v>-0.009388875853050926</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091">
-        <v>-0.04548757747401759</v>
+        <v>-0.04548757747401758</v>
       </c>
       <c r="B1091">
         <v>0.01784769122411678</v>
@@ -9095,7 +9095,7 @@
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093">
-        <v>-0.04687975653430852</v>
+        <v>-0.04687975653430853</v>
       </c>
       <c r="B1093">
         <v>-0.02082927017585234</v>
@@ -9127,7 +9127,7 @@
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097">
-        <v>-0.05053914285613494</v>
+        <v>-0.05053914285613495</v>
       </c>
       <c r="B1097">
         <v>-0.03064198129918649</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109">
-        <v>-0.04445757542744093</v>
+        <v>-0.04445757542744094</v>
       </c>
       <c r="B1109">
         <v>-0.01926760902679536</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113">
-        <v>-0.04277439430069845</v>
+        <v>-0.04277439430069844</v>
       </c>
       <c r="B1113">
         <v>0.06053632207882975</v>
@@ -9263,7 +9263,7 @@
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114">
-        <v>-0.04394958789583854</v>
+        <v>-0.04394958789583853</v>
       </c>
       <c r="B1114">
         <v>-0.002176797329049407</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116">
-        <v>-0.04415836160369659</v>
+        <v>-0.04415836160369658</v>
       </c>
       <c r="B1116">
         <v>0.03628947132355842</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120">
-        <v>-0.04650717811537379</v>
+        <v>-0.0465071781153738</v>
       </c>
       <c r="B1120">
         <v>0.0255936251373341</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123">
-        <v>-0.0490940795898635</v>
+        <v>-0.04909407958986351</v>
       </c>
       <c r="B1123">
         <v>-0.001282933912753137</v>
@@ -9367,7 +9367,7 @@
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127">
-        <v>-0.052239384592946</v>
+        <v>-0.05223938459294599</v>
       </c>
       <c r="B1127">
         <v>-0.008266766545867554</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132">
-        <v>-0.0511216561834161</v>
+        <v>-0.05112165618341611</v>
       </c>
       <c r="B1132">
         <v>0.01540294843072321</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="1230" spans="1:2">
       <c r="A1230">
-        <v>-0.01710112553810657</v>
+        <v>-0.01710112553810656</v>
       </c>
       <c r="B1230">
         <v>0.01275457355208953</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237">
-        <v>-0.01932788465117433</v>
+        <v>-0.01932788465117432</v>
       </c>
       <c r="B1237">
         <v>0.003155716435707667</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="1252" spans="1:2">
       <c r="A1252">
-        <v>-0.01954617959878933</v>
+        <v>-0.01954617959878932</v>
       </c>
       <c r="B1252">
         <v>0.006409766797012661</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="1262" spans="1:2">
       <c r="A1262">
-        <v>-0.01515769210447443</v>
+        <v>-0.01515769210447442</v>
       </c>
       <c r="B1262">
         <v>0.01685400737589404</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="1269" spans="1:2">
       <c r="A1269">
-        <v>-0.01080477940043818</v>
+        <v>-0.01080477940043817</v>
       </c>
       <c r="B1269">
         <v>0.02186541669594977</v>
@@ -11375,7 +11375,7 @@
     </row>
     <row r="1378" spans="1:2">
       <c r="A1378">
-        <v>0.0501032914617185</v>
+        <v>0.05010329146171851</v>
       </c>
       <c r="B1378">
         <v>-0.02764195058049701</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="1380" spans="1:2">
       <c r="A1380">
-        <v>0.05414019811892483</v>
+        <v>0.05414019811892482</v>
       </c>
       <c r="B1380">
         <v>0.01333288059643367</v>
@@ -11431,7 +11431,7 @@
     </row>
     <row r="1385" spans="1:2">
       <c r="A1385">
-        <v>0.05709488777131043</v>
+        <v>0.05709488777131042</v>
       </c>
       <c r="B1385">
         <v>-0.003550957721210057</v>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="1387" spans="1:2">
       <c r="A1387">
-        <v>0.05575406387920201</v>
+        <v>0.055754063879202</v>
       </c>
       <c r="B1387">
         <v>0.03328728734451536</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389">
-        <v>0.05587575078332437</v>
+        <v>0.05587575078332436</v>
       </c>
       <c r="B1389">
         <v>-0.01193883438802912</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417">
-        <v>0.04645495507983859</v>
+        <v>0.04645495507983858</v>
       </c>
       <c r="B1417">
         <v>-0.007579326774544981</v>
@@ -11695,7 +11695,7 @@
     </row>
     <row r="1418" spans="1:2">
       <c r="A1418">
-        <v>0.04586317575975148</v>
+        <v>0.04586317575975149</v>
       </c>
       <c r="B1418">
         <v>-0.02238633998238271</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="1420" spans="1:2">
       <c r="A1420">
-        <v>0.04174979522393138</v>
+        <v>0.04174979522393137</v>
       </c>
       <c r="B1420">
         <v>-0.05380632831456156</v>
@@ -11783,7 +11783,7 @@
     </row>
     <row r="1429" spans="1:2">
       <c r="A1429">
-        <v>0.03116209709355018</v>
+        <v>0.03116209709355017</v>
       </c>
       <c r="B1429">
         <v>-0.01313015005456863</v>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430">
-        <v>0.03147878175197093</v>
+        <v>0.03147878175197094</v>
       </c>
       <c r="B1430">
         <v>-0.02330408000037032</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448">
-        <v>0.02608731925648465</v>
+        <v>0.02608731925648464</v>
       </c>
       <c r="B1448">
         <v>-0.009355976489438422</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="1481" spans="1:2">
       <c r="A1481">
-        <v>0.009025916927456218</v>
+        <v>0.00902591692745622</v>
       </c>
       <c r="B1481">
         <v>-0.006317616016815908</v>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505">
-        <v>0.008913245450855575</v>
+        <v>0.008913245450855577</v>
       </c>
       <c r="B1505">
         <v>-0.00206560967660252</v>
@@ -12407,7 +12407,7 @@
     </row>
     <row r="1507" spans="1:2">
       <c r="A1507">
-        <v>0.008747932177725468</v>
+        <v>0.008747932177725466</v>
       </c>
       <c r="B1507">
         <v>-0.01088621316936633</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508">
-        <v>0.008583098546847082</v>
+        <v>0.008583098546847081</v>
       </c>
       <c r="B1508">
         <v>-0.01462210797505348</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510">
-        <v>0.008017681472731858</v>
+        <v>0.008017681472731859</v>
       </c>
       <c r="B1510">
         <v>-0.009223070974445857</v>
@@ -12439,7 +12439,7 @@
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511">
-        <v>0.008055380702118711</v>
+        <v>0.00805538070211871</v>
       </c>
       <c r="B1511">
         <v>-0.012389749215032</v>
@@ -12495,7 +12495,7 @@
     </row>
     <row r="1518" spans="1:2">
       <c r="A1518">
-        <v>0.009838784645083257</v>
+        <v>0.009838784645083256</v>
       </c>
       <c r="B1518">
         <v>-0.005065404122146067</v>
@@ -12623,7 +12623,7 @@
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534">
-        <v>0.01257512702298645</v>
+        <v>0.01257512702298644</v>
       </c>
       <c r="B1534">
         <v>-0.006365032201996357</v>
@@ -12727,7 +12727,7 @@
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547">
-        <v>0.00596133998149608</v>
+        <v>0.005961339981496081</v>
       </c>
       <c r="B1547">
         <v>-0.01851117294268567</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563">
-        <v>-0.006629967699974164</v>
+        <v>-0.006629967699974165</v>
       </c>
       <c r="B1563">
         <v>-0.02037272862606221</v>
@@ -12863,7 +12863,7 @@
     </row>
     <row r="1564" spans="1:2">
       <c r="A1564">
-        <v>-0.007590438939728565</v>
+        <v>-0.007590438939728566</v>
       </c>
       <c r="B1564">
         <v>-0.01542860335921148</v>
@@ -13007,7 +13007,7 @@
     </row>
     <row r="1582" spans="1:2">
       <c r="A1582">
-        <v>-0.0259278899557102</v>
+        <v>-0.02592788995571019</v>
       </c>
       <c r="B1582">
         <v>0.004796694949344538</v>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="1588" spans="1:2">
       <c r="A1588">
-        <v>-0.03076258074259609</v>
+        <v>-0.0307625807425961</v>
       </c>
       <c r="B1588">
         <v>0.01511118537104172</v>
@@ -13239,7 +13239,7 @@
     </row>
     <row r="1611" spans="1:2">
       <c r="A1611">
-        <v>-0.03565159986959051</v>
+        <v>-0.0356515998695905</v>
       </c>
       <c r="B1611">
         <v>0.03427761702224696</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="1614" spans="1:2">
       <c r="A1614">
-        <v>-0.03438472116278332</v>
+        <v>-0.03438472116278331</v>
       </c>
       <c r="B1614">
         <v>0.03583605424390957</v>
@@ -13271,7 +13271,7 @@
     </row>
     <row r="1615" spans="1:2">
       <c r="A1615">
-        <v>-0.03442022445553516</v>
+        <v>-0.03442022445553517</v>
       </c>
       <c r="B1615">
         <v>0.03871681579857356</v>
@@ -13319,7 +13319,7 @@
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621">
-        <v>-0.03359187818868927</v>
+        <v>-0.03359187818868928</v>
       </c>
       <c r="B1621">
         <v>0.03276798145630799</v>
@@ -13327,7 +13327,7 @@
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622">
-        <v>-0.03337969613179065</v>
+        <v>-0.03337969613179064</v>
       </c>
       <c r="B1622">
         <v>0.03473332520267292</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="1624" spans="1:2">
       <c r="A1624">
-        <v>-0.03320557011598467</v>
+        <v>-0.03320557011598468</v>
       </c>
       <c r="B1624">
         <v>0.02915245479669615</v>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="1630" spans="1:2">
       <c r="A1630">
-        <v>-0.03255965540454569</v>
+        <v>-0.0325596554045457</v>
       </c>
       <c r="B1630">
         <v>0.02249204261414395</v>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="1632" spans="1:2">
       <c r="A1632">
-        <v>-0.03226007137211188</v>
+        <v>-0.03226007137211189</v>
       </c>
       <c r="B1632">
         <v>0.01823779971432415</v>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="1638" spans="1:2">
       <c r="A1638">
-        <v>-0.03172715431358074</v>
+        <v>-0.03172715431358073</v>
       </c>
       <c r="B1638">
         <v>0.01498732023898697</v>
@@ -13511,7 +13511,7 @@
     </row>
     <row r="1645" spans="1:2">
       <c r="A1645">
-        <v>-0.03108890804924127</v>
+        <v>-0.03108890804924126</v>
       </c>
       <c r="B1645">
         <v>0.01589892320263875</v>
@@ -13655,7 +13655,7 @@
     </row>
     <row r="1663" spans="1:2">
       <c r="A1663">
-        <v>-0.02375512038705407</v>
+        <v>-0.02375512038705406</v>
       </c>
       <c r="B1663">
         <v>0.02191021770630419</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="1680" spans="1:2">
       <c r="A1680">
-        <v>-0.01471820035289218</v>
+        <v>-0.01471820035289219</v>
       </c>
       <c r="B1680">
         <v>0.009420268282878119</v>
@@ -13799,7 +13799,7 @@
     </row>
     <row r="1681" spans="1:2">
       <c r="A1681">
-        <v>-0.01425895250732835</v>
+        <v>-0.01425895250732834</v>
       </c>
       <c r="B1681">
         <v>0.008480043238953794</v>
@@ -13807,7 +13807,7 @@
     </row>
     <row r="1682" spans="1:2">
       <c r="A1682">
-        <v>-0.01345134349584065</v>
+        <v>-0.01345134349584064</v>
       </c>
       <c r="B1682">
         <v>0.008578650099712704</v>
@@ -13839,7 +13839,7 @@
     </row>
     <row r="1686" spans="1:2">
       <c r="A1686">
-        <v>-0.008617967410684151</v>
+        <v>-0.008617967410684152</v>
       </c>
       <c r="B1686">
         <v>0.01258018225105273</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="1688" spans="1:2">
       <c r="A1688">
-        <v>-0.005997620985405451</v>
+        <v>-0.00599762098540545</v>
       </c>
       <c r="B1688">
         <v>0.01529988626065215</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="1696" spans="1:2">
       <c r="A1696">
-        <v>-0.0006409081194521331</v>
+        <v>-0.0006409081194521332</v>
       </c>
       <c r="B1696">
         <v>0.009235862257098049</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713">
-        <v>0.003359054463814585</v>
+        <v>0.003359054463814586</v>
       </c>
       <c r="B1713">
         <v>-0.002654910259324073</v>
@@ -14095,7 +14095,7 @@
     </row>
     <row r="1718" spans="1:2">
       <c r="A1718">
-        <v>0.006119785953254206</v>
+        <v>0.006119785953254207</v>
       </c>
       <c r="B1718">
         <v>0.005796429680449577</v>
@@ -14103,7 +14103,7 @@
     </row>
     <row r="1719" spans="1:2">
       <c r="A1719">
-        <v>0.006473232043415486</v>
+        <v>0.006473232043415485</v>
       </c>
       <c r="B1719">
         <v>0.005100654137735638</v>
@@ -14175,7 +14175,7 @@
     </row>
     <row r="1728" spans="1:2">
       <c r="A1728">
-        <v>0.0006590973105159123</v>
+        <v>0.0006590973105159124</v>
       </c>
       <c r="B1728">
         <v>-0.002330214661404373</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="1733" spans="1:2">
       <c r="A1733">
-        <v>-0.005504273445895082</v>
+        <v>-0.005504273445895083</v>
       </c>
       <c r="B1733">
         <v>-0.008959639739199332</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="1738" spans="1:2">
       <c r="A1738">
-        <v>-0.01229695948106368</v>
+        <v>-0.01229695948106367</v>
       </c>
       <c r="B1738">
         <v>-0.01106857457489285</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749">
-        <v>-0.02279749574000296</v>
+        <v>-0.02279749574000297</v>
       </c>
       <c r="B1749">
         <v>0.004788111642376691</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759">
-        <v>-0.03392837867220733</v>
+        <v>-0.03392837867220732</v>
       </c>
       <c r="B1759">
         <v>0.01688026365093576</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="1764" spans="1:2">
       <c r="A1764">
-        <v>-0.0383922925564612</v>
+        <v>-0.03839229255646121</v>
       </c>
       <c r="B1764">
         <v>0.02259921544935883</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="1789" spans="1:2">
       <c r="A1789">
-        <v>-0.062626027754103</v>
+        <v>-0.06262602775410302</v>
       </c>
       <c r="B1789">
         <v>0.03321236256419002</v>
@@ -14775,7 +14775,7 @@
     </row>
     <row r="1803" spans="1:2">
       <c r="A1803">
-        <v>-0.06645876488164061</v>
+        <v>-0.0664587648816406</v>
       </c>
       <c r="B1803">
         <v>0.06981441529142884</v>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="1804" spans="1:2">
       <c r="A1804">
-        <v>-0.06583013586708325</v>
+        <v>-0.06583013586708326</v>
       </c>
       <c r="B1804">
         <v>0.06351424424761198</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="1805" spans="1:2">
       <c r="A1805">
-        <v>-0.06611228948967499</v>
+        <v>-0.06611228948967497</v>
       </c>
       <c r="B1805">
         <v>0.07071478264691944</v>
@@ -14863,7 +14863,7 @@
     </row>
     <row r="1814" spans="1:2">
       <c r="A1814">
-        <v>-0.07099413948692931</v>
+        <v>-0.0709941394869293</v>
       </c>
       <c r="B1814">
         <v>0.05439732053349333</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="1821" spans="1:2">
       <c r="A1821">
-        <v>-0.0743606073036932</v>
+        <v>-0.07436060730369322</v>
       </c>
       <c r="B1821">
         <v>0.0544178304578038</v>
@@ -15055,7 +15055,7 @@
     </row>
     <row r="1838" spans="1:2">
       <c r="A1838">
-        <v>-0.05700886744831754</v>
+        <v>-0.05700886744831753</v>
       </c>
       <c r="B1838">
         <v>0.07171283962553998</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="1849" spans="1:2">
       <c r="A1849">
-        <v>-0.06013937928277391</v>
+        <v>-0.06013937928277392</v>
       </c>
       <c r="B1849">
         <v>0.03805771438025785</v>
@@ -15231,7 +15231,7 @@
     </row>
     <row r="1860" spans="1:2">
       <c r="A1860">
-        <v>-0.04776771181447148</v>
+        <v>-0.04776771181447149</v>
       </c>
       <c r="B1860">
         <v>0.04881551331059208</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="1862" spans="1:2">
       <c r="A1862">
-        <v>-0.04599602464557849</v>
+        <v>-0.0459960246455785</v>
       </c>
       <c r="B1862">
         <v>0.04795216635301713</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="1864" spans="1:2">
       <c r="A1864">
-        <v>-0.04442134111964111</v>
+        <v>-0.04442134111964601</v>
       </c>
       <c r="B1864">
         <v>0.05471873269063288</v>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="1870" spans="1:2">
       <c r="A1870">
-        <v>-0.04036068626923163</v>
+        <v>-0.04036068626923164</v>
       </c>
       <c r="B1870">
         <v>0.04668457343327859</v>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="1874" spans="1:2">
       <c r="A1874">
-        <v>-0.03726623023832897</v>
+        <v>-0.03726623023832896</v>
       </c>
       <c r="B1874">
         <v>0.04845359093271062</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="1877" spans="1:2">
       <c r="A1877">
-        <v>-0.03498282079087267</v>
+        <v>-0.03498282079087268</v>
       </c>
       <c r="B1877">
         <v>0.04055338195101976</v>
@@ -15383,7 +15383,7 @@
     </row>
     <row r="1879" spans="1:2">
       <c r="A1879">
-        <v>-0.0332391251065904</v>
+        <v>-0.03323912510659039</v>
       </c>
       <c r="B1879">
         <v>0.04506024109563933</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="1880" spans="1:2">
       <c r="A1880">
-        <v>-0.0323973746620376</v>
+        <v>-0.03239737466203759</v>
       </c>
       <c r="B1880">
         <v>0.04061635883560699</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="1884" spans="1:2">
       <c r="A1884">
-        <v>-0.02853987968226367</v>
+        <v>-0.02853987968226368</v>
       </c>
       <c r="B1884">
         <v>0.04310791344848575</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="1885" spans="1:2">
       <c r="A1885">
-        <v>-0.02771289810907129</v>
+        <v>-0.0277128981090713</v>
       </c>
       <c r="B1885">
         <v>0.03887496454324735</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="1904" spans="1:2">
       <c r="A1904">
-        <v>-0.02649805502873166</v>
+        <v>-0.02649805502873165</v>
       </c>
       <c r="B1904">
         <v>0.01328830897595568</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="1907" spans="1:2">
       <c r="A1907">
-        <v>-0.02573985903499081</v>
+        <v>-0.0257398590349908</v>
       </c>
       <c r="B1907">
         <v>0.01179448366010449</v>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="1918" spans="1:2">
       <c r="A1918">
-        <v>-0.0192641041490309</v>
+        <v>-0.01926410414903091</v>
       </c>
       <c r="B1918">
         <v>0.02757952326884006</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="1941" spans="1:2">
       <c r="A1941">
-        <v>-0.009234448307999556</v>
+        <v>-0.009234448307999554</v>
       </c>
       <c r="B1941">
         <v>0.0219592000741633</v>
@@ -15911,7 +15911,7 @@
     </row>
     <row r="1945" spans="1:2">
       <c r="A1945">
-        <v>-0.007716969343608559</v>
+        <v>-0.007716969343608558</v>
       </c>
       <c r="B1945">
         <v>0.01761468290077772</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="1950" spans="1:2">
       <c r="A1950">
-        <v>-0.008190630123434624</v>
+        <v>-0.008190630123434626</v>
       </c>
       <c r="B1950">
         <v>0.006294367002535051</v>
@@ -15967,7 +15967,7 @@
     </row>
     <row r="1952" spans="1:2">
       <c r="A1952">
-        <v>-0.008897432066013979</v>
+        <v>-0.008897432066013978</v>
       </c>
       <c r="B1952">
         <v>0.001165449635324833</v>
@@ -16015,7 +16015,7 @@
     </row>
     <row r="1958" spans="1:2">
       <c r="A1958">
-        <v>-0.006615739265148817</v>
+        <v>-0.006615739265148818</v>
       </c>
       <c r="B1958">
         <v>-0.001037787565129733</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="1968" spans="1:2">
       <c r="A1968">
-        <v>0.004991564535173397</v>
+        <v>0.004991564535173398</v>
       </c>
       <c r="B1968">
         <v>0.01386822609878369</v>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="1969" spans="1:2">
       <c r="A1969">
-        <v>0.005674808602898571</v>
+        <v>0.005674808602898572</v>
       </c>
       <c r="B1969">
         <v>0.01272009785525263</v>
@@ -16159,7 +16159,7 @@
     </row>
     <row r="1976" spans="1:2">
       <c r="A1976">
-        <v>0.0089967881838591</v>
+        <v>0.008996788183859102</v>
       </c>
       <c r="B1976">
         <v>0.004491299289927309</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="1987" spans="1:2">
       <c r="A1987">
-        <v>0.01211773309249307</v>
+        <v>0.01211773309249308</v>
       </c>
       <c r="B1987">
         <v>-0.009479691131654366</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="1995" spans="1:2">
       <c r="A1995">
-        <v>0.01265031348782436</v>
+        <v>0.01265031348782437</v>
       </c>
       <c r="B1995">
         <v>-0.01848817498254274</v>
@@ -16527,7 +16527,7 @@
     </row>
     <row r="2022" spans="1:2">
       <c r="A2022">
-        <v>0.03296686898398241</v>
+        <v>0.0329668689839824</v>
       </c>
       <c r="B2022">
         <v>-0.005869881070122318</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="2030" spans="1:2">
       <c r="A2030">
-        <v>0.02998383145803017</v>
+        <v>0.02998383145803018</v>
       </c>
       <c r="B2030">
         <v>-0.033636811986967</v>
@@ -16759,7 +16759,7 @@
     </row>
     <row r="2051" spans="1:2">
       <c r="A2051">
-        <v>0.04233557303523393</v>
+        <v>0.04233557303523394</v>
       </c>
       <c r="B2051">
         <v>-0.01895348395543506</v>
@@ -16815,7 +16815,7 @@
     </row>
     <row r="2058" spans="1:2">
       <c r="A2058">
-        <v>0.04838182406149232</v>
+        <v>0.04838182406149231</v>
       </c>
       <c r="B2058">
         <v>-0.01605826820434597</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="2059" spans="1:2">
       <c r="A2059">
-        <v>0.04853196434050134</v>
+        <v>0.04853196434050133</v>
       </c>
       <c r="B2059">
         <v>-0.02247266537208992</v>
@@ -16863,7 +16863,7 @@
     </row>
     <row r="2064" spans="1:2">
       <c r="A2064">
-        <v>0.04833620648262331</v>
+        <v>0.0483362064826233</v>
       </c>
       <c r="B2064">
         <v>-0.03669353231279437</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="2070" spans="1:2">
       <c r="A2070">
-        <v>0.04766150929224704</v>
+        <v>0.04766150929224703</v>
       </c>
       <c r="B2070">
         <v>-0.04441846234802638</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="2073" spans="1:2">
       <c r="A2073">
-        <v>0.04909139975680416</v>
+        <v>0.04909139975680415</v>
       </c>
       <c r="B2073">
         <v>-0.0482276596468334</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="2074" spans="1:2">
       <c r="A2074">
-        <v>0.04964350165511409</v>
+        <v>0.0496435016551141</v>
       </c>
       <c r="B2074">
         <v>-0.05304593004409242</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="2079" spans="1:2">
       <c r="A2079">
-        <v>0.05078482697094394</v>
+        <v>0.05078482697094393</v>
       </c>
       <c r="B2079">
         <v>-0.05549389399830407</v>
@@ -17127,7 +17127,7 @@
     </row>
     <row r="2097" spans="1:2">
       <c r="A2097">
-        <v>0.05890359717194227</v>
+        <v>0.05890359717194228</v>
       </c>
       <c r="B2097">
         <v>-0.05232116460640235</v>
@@ -17255,7 +17255,7 @@
     </row>
     <row r="2113" spans="1:2">
       <c r="A2113">
-        <v>0.02816806861533434</v>
+        <v>0.02816806861533433</v>
       </c>
       <c r="B2113">
         <v>-0.1037000307719165</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="2115" spans="1:2">
       <c r="A2115">
-        <v>0.02534077229872393</v>
+        <v>0.02534077229872394</v>
       </c>
       <c r="B2115">
         <v>-0.09910137572202871</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="2135" spans="1:2">
       <c r="A2135">
-        <v>-0.02241918046450004</v>
+        <v>-0.02241918046450003</v>
       </c>
       <c r="B2135">
         <v>-0.02913575880741215</v>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="2142" spans="1:2">
       <c r="A2142">
-        <v>-0.05003732013819452</v>
+        <v>-0.05003732013819451</v>
       </c>
       <c r="B2142">
         <v>-0.0149670708898193</v>
@@ -17511,7 +17511,7 @@
     </row>
     <row r="2145" spans="1:2">
       <c r="A2145">
-        <v>-0.05948984163407872</v>
+        <v>-0.05948984163407871</v>
       </c>
       <c r="B2145">
         <v>-0.009855484049854368</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="2148" spans="1:2">
       <c r="A2148">
-        <v>-0.06866882633225424</v>
+        <v>-0.06866882633225423</v>
       </c>
       <c r="B2148">
         <v>-0.005384321402177594</v>
@@ -17551,7 +17551,7 @@
     </row>
     <row r="2150" spans="1:2">
       <c r="A2150">
-        <v>-0.07526819122197231</v>
+        <v>-0.07526819122197233</v>
       </c>
       <c r="B2150">
         <v>0.02917118212934211</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="2156" spans="1:2">
       <c r="A2156">
-        <v>-0.09138441433507233</v>
+        <v>-0.09138441433507231</v>
       </c>
       <c r="B2156">
         <v>0.04517376836614817</v>
@@ -17607,7 +17607,7 @@
     </row>
     <row r="2157" spans="1:2">
       <c r="A2157">
-        <v>-0.09230842515386009</v>
+        <v>-0.09230842515386008</v>
       </c>
       <c r="B2157">
         <v>0.06538919066030591</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="2161" spans="1:2">
       <c r="A2161">
-        <v>-0.0966117524973224</v>
+        <v>-0.09661175249732241</v>
       </c>
       <c r="B2161">
         <v>0.05678684179976523</v>
@@ -17743,7 +17743,7 @@
     </row>
     <row r="2174" spans="1:2">
       <c r="A2174">
-        <v>-0.09663532111842735</v>
+        <v>-0.09663532111842736</v>
       </c>
       <c r="B2174">
         <v>0.1088047088447053</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="2179" spans="1:2">
       <c r="A2179">
-        <v>-0.09445509825586307</v>
+        <v>-0.09445509825586305</v>
       </c>
       <c r="B2179">
         <v>0.1163721241120705</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="2189" spans="1:2">
       <c r="A2189">
-        <v>-0.07712268646687387</v>
+        <v>-0.07712268646687385</v>
       </c>
       <c r="B2189">
         <v>0.1046562656843726</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="2192" spans="1:2">
       <c r="A2192">
-        <v>-0.06852220437490625</v>
+        <v>-0.06852220437490623</v>
       </c>
       <c r="B2192">
         <v>0.10227085353814</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="2198" spans="1:2">
       <c r="A2198">
-        <v>-0.05461119312411014</v>
+        <v>-0.05461119312411013</v>
       </c>
       <c r="B2198">
         <v>0.0849859405500073</v>
@@ -18119,7 +18119,7 @@
     </row>
     <row r="2221" spans="1:2">
       <c r="A2221">
-        <v>0.008894849243465976</v>
+        <v>0.008894849243465978</v>
       </c>
       <c r="B2221">
         <v>0.03647843956240937</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="2240" spans="1:2">
       <c r="A2240">
-        <v>0.04162816664915707</v>
+        <v>0.04162816664915706</v>
       </c>
       <c r="B2240">
         <v>-0.01229432584090562</v>
@@ -18303,7 +18303,7 @@
     </row>
     <row r="2244" spans="1:2">
       <c r="A2244">
-        <v>0.05001530598183439</v>
+        <v>0.05001530598183438</v>
       </c>
       <c r="B2244">
         <v>-0.02059967480118097</v>
@@ -18319,7 +18319,7 @@
     </row>
     <row r="2246" spans="1:2">
       <c r="A2246">
-        <v>0.05426329782113437</v>
+        <v>0.05426329782113438</v>
       </c>
       <c r="B2246">
         <v>-0.004962337833524177</v>
@@ -18327,7 +18327,7 @@
     </row>
     <row r="2247" spans="1:2">
       <c r="A2247">
-        <v>0.0557519854533412</v>
+        <v>0.05575198545334121</v>
       </c>
       <c r="B2247">
         <v>-0.01947714075915563</v>
@@ -18343,7 +18343,7 @@
     </row>
     <row r="2249" spans="1:2">
       <c r="A2249">
-        <v>0.05985881038411975</v>
+        <v>0.05985881038411976</v>
       </c>
       <c r="B2249">
         <v>-0.001533091987268254</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="2257" spans="1:2">
       <c r="A2257">
-        <v>0.07246551352615085</v>
+        <v>0.07246551352615087</v>
       </c>
       <c r="B2257">
         <v>-0.03171800501914968</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="2260" spans="1:2">
       <c r="A2260">
-        <v>0.07581872328220246</v>
+        <v>0.07581872328220245</v>
       </c>
       <c r="B2260">
         <v>-0.03323757191234566</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="2265" spans="1:2">
       <c r="A2265">
-        <v>0.07811690709575328</v>
+        <v>0.07811690709575327</v>
       </c>
       <c r="B2265">
         <v>-0.07432420336307377</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="2276" spans="1:2">
       <c r="A2276">
-        <v>0.08589847311357988</v>
+        <v>0.0858984731135799</v>
       </c>
       <c r="B2276">
         <v>-0.05125951535677986</v>
@@ -18567,7 +18567,7 @@
     </row>
     <row r="2277" spans="1:2">
       <c r="A2277">
-        <v>0.08713788301066315</v>
+        <v>0.08713788301066316</v>
       </c>
       <c r="B2277">
         <v>-0.06622837269130066</v>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="2279" spans="1:2">
       <c r="A2279">
-        <v>0.0872610694580975</v>
+        <v>0.08726106945809749</v>
       </c>
       <c r="B2279">
         <v>-0.09461620782584212</v>
@@ -18615,7 +18615,7 @@
     </row>
     <row r="2283" spans="1:2">
       <c r="A2283">
-        <v>0.08792873775964273</v>
+        <v>0.08792873775964274</v>
       </c>
       <c r="B2283">
         <v>-0.05687560210520104</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="2284" spans="1:2">
       <c r="A2284">
-        <v>0.0878443985180747</v>
+        <v>0.08784439851807471</v>
       </c>
       <c r="B2284">
         <v>-0.07195310861054516</v>
@@ -18687,7 +18687,7 @@
     </row>
     <row r="2292" spans="1:2">
       <c r="A2292">
-        <v>0.0807266937690047</v>
+        <v>0.08072669376900468</v>
       </c>
       <c r="B2292">
         <v>-0.09172283914384671</v>
@@ -18695,7 +18695,7 @@
     </row>
     <row r="2293" spans="1:2">
       <c r="A2293">
-        <v>0.07935603093671827</v>
+        <v>0.07935603093671828</v>
       </c>
       <c r="B2293">
         <v>-0.1026438764714235</v>
@@ -18767,7 +18767,7 @@
     </row>
     <row r="2302" spans="1:2">
       <c r="A2302">
-        <v>0.07237818953363029</v>
+        <v>0.0723781895336303</v>
       </c>
       <c r="B2302">
         <v>-0.07293170996987586</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="2307" spans="1:2">
       <c r="A2307">
-        <v>0.0657302450462071</v>
+        <v>0.06573024504620711</v>
       </c>
       <c r="B2307">
         <v>-0.08264736789846028</v>
@@ -18863,7 +18863,7 @@
     </row>
     <row r="2314" spans="1:2">
       <c r="A2314">
-        <v>0.05449332195342171</v>
+        <v>0.05449332195342172</v>
       </c>
       <c r="B2314">
         <v>-0.07793111835838751</v>
@@ -18903,7 +18903,7 @@
     </row>
     <row r="2319" spans="1:2">
       <c r="A2319">
-        <v>0.04859063315963818</v>
+        <v>0.04859063315963819</v>
       </c>
       <c r="B2319">
         <v>-0.05067897537146893</v>
@@ -18975,7 +18975,7 @@
     </row>
     <row r="2328" spans="1:2">
       <c r="A2328">
-        <v>0.04501315009703705</v>
+        <v>0.04501315009703704</v>
       </c>
       <c r="B2328">
         <v>-0.0382242758526945</v>
@@ -19039,7 +19039,7 @@
     </row>
     <row r="2336" spans="1:2">
       <c r="A2336">
-        <v>0.04049043025350927</v>
+        <v>0.04049043025350928</v>
       </c>
       <c r="B2336">
         <v>-0.03351031447986186</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="2338" spans="1:2">
       <c r="A2338">
-        <v>0.03914252837333601</v>
+        <v>0.03914252837333602</v>
       </c>
       <c r="B2338">
         <v>-0.02357714469008476</v>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="2341" spans="1:2">
       <c r="A2341">
-        <v>0.03588024916167322</v>
+        <v>0.03588024916167323</v>
       </c>
       <c r="B2341">
         <v>-0.02302823542679011</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="2352" spans="1:2">
       <c r="A2352">
-        <v>0.0270305687265412</v>
+        <v>0.02703056872654119</v>
       </c>
       <c r="B2352">
         <v>-0.02590696216147137</v>
@@ -19207,7 +19207,7 @@
     </row>
     <row r="2357" spans="1:2">
       <c r="A2357">
-        <v>0.02439662862070838</v>
+        <v>0.02439662862070837</v>
       </c>
       <c r="B2357">
         <v>-0.02904559254962535</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="2400" spans="1:2">
       <c r="A2400">
-        <v>0.02263277168336893</v>
+        <v>0.02263277168336894</v>
       </c>
       <c r="B2400">
         <v>0.003969608714810668</v>
@@ -19631,7 +19631,7 @@
     </row>
     <row r="2410" spans="1:2">
       <c r="A2410">
-        <v>0.02571171072841217</v>
+        <v>0.02571171072841218</v>
       </c>
       <c r="B2410">
         <v>-0.003362318076586046</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="2414" spans="1:2">
       <c r="A2414">
-        <v>0.02708950635577478</v>
+        <v>0.02708950635577479</v>
       </c>
       <c r="B2414">
         <v>-0.01203717020728723</v>
@@ -19775,7 +19775,7 @@
     </row>
     <row r="2428" spans="1:2">
       <c r="A2428">
-        <v>0.03119810099012617</v>
+        <v>0.03119810099012618</v>
       </c>
       <c r="B2428">
         <v>-0.01025787110817067</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="2433" spans="1:2">
       <c r="A2433">
-        <v>0.03465661449849702</v>
+        <v>0.03465661449849703</v>
       </c>
       <c r="B2433">
         <v>-0.02691100541150915</v>
@@ -19847,7 +19847,7 @@
     </row>
     <row r="2437" spans="1:2">
       <c r="A2437">
-        <v>0.03904656729410969</v>
+        <v>0.03904656729410968</v>
       </c>
       <c r="B2437">
         <v>-0.03076068087979911</v>
@@ -19855,7 +19855,7 @@
     </row>
     <row r="2438" spans="1:2">
       <c r="A2438">
-        <v>0.04048665608315852</v>
+        <v>0.04048665608315851</v>
       </c>
       <c r="B2438">
         <v>-0.009933636706952687</v>
@@ -19895,7 +19895,7 @@
     </row>
     <row r="2443" spans="1:2">
       <c r="A2443">
-        <v>0.04649077605626058</v>
+        <v>0.04649077605626057</v>
       </c>
       <c r="B2443">
         <v>-0.02552518186926678</v>
@@ -19951,7 +19951,7 @@
     </row>
     <row r="2450" spans="1:2">
       <c r="A2450">
-        <v>0.05090618433172997</v>
+        <v>0.05090618433172996</v>
       </c>
       <c r="B2450">
         <v>-0.04243438312163583</v>
@@ -19959,7 +19959,7 @@
     </row>
     <row r="2451" spans="1:2">
       <c r="A2451">
-        <v>0.05200606429928224</v>
+        <v>0.05200606429928225</v>
       </c>
       <c r="B2451">
         <v>-0.02043383481325201</v>
@@ -19983,7 +19983,7 @@
     </row>
     <row r="2454" spans="1:2">
       <c r="A2454">
-        <v>0.05379772815466466</v>
+        <v>0.05379772815466467</v>
       </c>
       <c r="B2454">
         <v>-0.02153351354581901</v>
@@ -20031,7 +20031,7 @@
     </row>
     <row r="2460" spans="1:2">
       <c r="A2460">
-        <v>0.05801834886102085</v>
+        <v>0.05801834886102084</v>
       </c>
       <c r="B2460">
         <v>-0.05629918594370231</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="2465" spans="1:2">
       <c r="A2465">
-        <v>0.06204803921629655</v>
+        <v>0.06204803921629654</v>
       </c>
       <c r="B2465">
         <v>-0.04123489085338505</v>
@@ -20079,7 +20079,7 @@
     </row>
     <row r="2466" spans="1:2">
       <c r="A2466">
-        <v>0.0623769696428252</v>
+        <v>0.06237696964282521</v>
       </c>
       <c r="B2466">
         <v>-0.05366346119668908</v>
@@ -20159,7 +20159,7 @@
     </row>
     <row r="2476" spans="1:2">
       <c r="A2476">
-        <v>0.07418810425784847</v>
+        <v>0.07418810425784846</v>
       </c>
       <c r="B2476">
         <v>-0.04482749521829543</v>
@@ -20519,7 +20519,7 @@
     </row>
     <row r="2521" spans="1:2">
       <c r="A2521">
-        <v>0.05287164787252839</v>
+        <v>0.05287164787252838</v>
       </c>
       <c r="B2521">
         <v>-0.0608916672474642</v>
@@ -20775,7 +20775,7 @@
     </row>
     <row r="2553" spans="1:2">
       <c r="A2553">
-        <v>0.01901249511962932</v>
+        <v>0.01901249511962933</v>
       </c>
       <c r="B2553">
         <v>-0.0352611835716905</v>
@@ -21543,7 +21543,7 @@
     </row>
     <row r="2649" spans="1:2">
       <c r="A2649">
-        <v>-0.07734733258693718</v>
+        <v>-0.07734733258693717</v>
       </c>
       <c r="B2649">
         <v>0.04670021824663184</v>
@@ -21583,7 +21583,7 @@
     </row>
     <row r="2654" spans="1:2">
       <c r="A2654">
-        <v>-0.08140947239131247</v>
+        <v>-0.08140947239131245</v>
       </c>
       <c r="B2654">
         <v>0.02457819046166243</v>
@@ -21679,7 +21679,7 @@
     </row>
     <row r="2666" spans="1:2">
       <c r="A2666">
-        <v>-0.09177715847957166</v>
+        <v>-0.09177715847957167</v>
       </c>
       <c r="B2666">
         <v>0.06789943278450483</v>
@@ -21767,7 +21767,7 @@
     </row>
     <row r="2677" spans="1:2">
       <c r="A2677">
-        <v>-0.0884764441998887</v>
+        <v>-0.08847644419988872</v>
       </c>
       <c r="B2677">
         <v>0.106133348069851</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="2679" spans="1:2">
       <c r="A2679">
-        <v>-0.08826815278505523</v>
+        <v>-0.08826815278505525</v>
       </c>
       <c r="B2679">
         <v>0.08981539926548843</v>
@@ -21823,7 +21823,7 @@
     </row>
     <row r="2684" spans="1:2">
       <c r="A2684">
-        <v>-0.08368453580399124</v>
+        <v>-0.08368453580399123</v>
       </c>
       <c r="B2684">
         <v>0.1124821403904166</v>
@@ -21831,7 +21831,7 @@
     </row>
     <row r="2685" spans="1:2">
       <c r="A2685">
-        <v>-0.0836886825301548</v>
+        <v>-0.08368868253015481</v>
       </c>
       <c r="B2685">
         <v>0.08319137527786324</v>
@@ -22159,7 +22159,7 @@
     </row>
     <row r="2726" spans="1:2">
       <c r="A2726">
-        <v>-0.04038964547971648</v>
+        <v>-0.04038964547971647</v>
       </c>
       <c r="B2726">
         <v>0.04390465149114053</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="2728" spans="1:2">
       <c r="A2728">
-        <v>-0.03793418299572528</v>
+        <v>-0.03793418299572527</v>
       </c>
       <c r="B2728">
         <v>0.03800868082019715</v>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="2736" spans="1:2">
       <c r="A2736">
-        <v>-0.02578676910989047</v>
+        <v>-0.02578676910989046</v>
       </c>
       <c r="B2736">
         <v>0.0442362068743245</v>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="2737" spans="1:2">
       <c r="A2737">
-        <v>-0.02422745105659957</v>
+        <v>-0.02422745105659956</v>
       </c>
       <c r="B2737">
         <v>0.04001424823751121</v>
@@ -22423,7 +22423,7 @@
     </row>
     <row r="2759" spans="1:2">
       <c r="A2759">
-        <v>-0.007599197597971402</v>
+        <v>-0.007599197597971403</v>
       </c>
       <c r="B2759">
         <v>0.01376869861232688</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="2760" spans="1:2">
       <c r="A2760">
-        <v>-0.006803457421709581</v>
+        <v>-0.00680345742170958</v>
       </c>
       <c r="B2760">
         <v>0.01118839975610753</v>
@@ -22471,7 +22471,7 @@
     </row>
     <row r="2765" spans="1:2">
       <c r="A2765">
-        <v>-0.0008106491524705081</v>
+        <v>-0.000810649152470508</v>
       </c>
       <c r="B2765">
         <v>0.01761077694668156</v>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="2778" spans="1:2">
       <c r="A2778">
-        <v>0.006084394952720302</v>
+        <v>0.006084394952720301</v>
       </c>
       <c r="B2778">
         <v>0.002204298112830294</v>
@@ -22631,7 +22631,7 @@
     </row>
     <row r="2785" spans="1:2">
       <c r="A2785">
-        <v>0.01260141721620572</v>
+        <v>0.01260141721620573</v>
       </c>
       <c r="B2785">
         <v>0.004305036461550227</v>
@@ -22639,7 +22639,7 @@
     </row>
     <row r="2786" spans="1:2">
       <c r="A2786">
-        <v>0.01386611553706925</v>
+        <v>0.01386611553706926</v>
       </c>
       <c r="B2786">
         <v>-0.00254811602271543</v>
@@ -22879,7 +22879,7 @@
     </row>
     <row r="2816" spans="1:2">
       <c r="A2816">
-        <v>0.02143714214939851</v>
+        <v>0.02143714214939852</v>
       </c>
       <c r="B2816">
         <v>0.00814366831961344</v>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="2832" spans="1:2">
       <c r="A2832">
-        <v>0.03467157788058003</v>
+        <v>0.03467157788058004</v>
       </c>
       <c r="B2832">
         <v>0.0401238762367031</v>
@@ -23015,7 +23015,7 @@
     </row>
     <row r="2833" spans="1:2">
       <c r="A2833">
-        <v>0.03557505699859909</v>
+        <v>0.03557505699859908</v>
       </c>
       <c r="B2833">
         <v>0.02443711842441409</v>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="2836" spans="1:2">
       <c r="A2836">
-        <v>0.03513769234545379</v>
+        <v>0.03513769234545378</v>
       </c>
       <c r="B2836">
         <v>0.03899879838017917</v>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="2853" spans="1:2">
       <c r="A2853">
-        <v>0.03282185560893787</v>
+        <v>0.03282185560893786</v>
       </c>
       <c r="B2853">
         <v>0.03294636638714099</v>
@@ -23431,7 +23431,7 @@
     </row>
     <row r="2885" spans="1:2">
       <c r="A2885">
-        <v>0.03222985166694292</v>
+        <v>0.03222985166694291</v>
       </c>
       <c r="B2885">
         <v>-0.01828102482475824</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="2886" spans="1:2">
       <c r="A2886">
-        <v>0.03152829457972214</v>
+        <v>0.03152829457972215</v>
       </c>
       <c r="B2886">
         <v>-0.03630094252960614</v>
@@ -23551,7 +23551,7 @@
     </row>
     <row r="2900" spans="1:2">
       <c r="A2900">
-        <v>0.03011665610437095</v>
+        <v>0.03011665610437094</v>
       </c>
       <c r="B2900">
         <v>-0.02746435100941369</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="2911" spans="1:2">
       <c r="A2911">
-        <v>0.02403655005926973</v>
+        <v>0.02403655005926974</v>
       </c>
       <c r="B2911">
         <v>0.003281307474852113</v>
@@ -23743,7 +23743,7 @@
     </row>
     <row r="2924" spans="1:2">
       <c r="A2924">
-        <v>0.01447794645059524</v>
+        <v>0.01447794645059525</v>
       </c>
       <c r="B2924">
         <v>0.004667524663657829</v>
@@ -24007,7 +24007,7 @@
     </row>
     <row r="2957" spans="1:2">
       <c r="A2957">
-        <v>0.009294300898401549</v>
+        <v>0.009294300898401548</v>
       </c>
       <c r="B2957">
         <v>0.001885669037244853</v>
@@ -24119,7 +24119,7 @@
     </row>
     <row r="2971" spans="1:2">
       <c r="A2971">
-        <v>0.006807238515476209</v>
+        <v>0.006807238515476208</v>
       </c>
       <c r="B2971">
         <v>-0.01290433008059733</v>
@@ -24127,7 +24127,7 @@
     </row>
     <row r="2972" spans="1:2">
       <c r="A2972">
-        <v>0.005960712056571138</v>
+        <v>0.005960712056571137</v>
       </c>
       <c r="B2972">
         <v>-0.0008214980432459384</v>
@@ -24135,7 +24135,7 @@
     </row>
     <row r="2973" spans="1:2">
       <c r="A2973">
-        <v>0.005526151149854864</v>
+        <v>0.005526151149854863</v>
       </c>
       <c r="B2973">
         <v>-0.006677998329341683</v>
@@ -24183,7 +24183,7 @@
     </row>
     <row r="2979" spans="1:2">
       <c r="A2979">
-        <v>0.005592487302334849</v>
+        <v>0.005592487302334848</v>
       </c>
       <c r="B2979">
         <v>-0.01180503196353566</v>
@@ -24207,7 +24207,7 @@
     </row>
     <row r="2982" spans="1:2">
       <c r="A2982">
-        <v>0.006819868121377163</v>
+        <v>0.006819868121377164</v>
       </c>
       <c r="B2982">
         <v>-0.004671668281253538</v>
@@ -24255,7 +24255,7 @@
     </row>
     <row r="2988" spans="1:2">
       <c r="A2988">
-        <v>0.008947135476883587</v>
+        <v>0.008947135476883585</v>
       </c>
       <c r="B2988">
         <v>-0.004041268350331251</v>
@@ -24527,7 +24527,7 @@
     </row>
     <row r="3022" spans="1:2">
       <c r="A3022">
-        <v>0.009262782854778577</v>
+        <v>0.009262782854778578</v>
       </c>
       <c r="B3022">
         <v>-0.003186380551015056</v>
@@ -24543,7 +24543,7 @@
     </row>
     <row r="3024" spans="1:2">
       <c r="A3024">
-        <v>0.00899385770248127</v>
+        <v>0.008993857702481269</v>
       </c>
       <c r="B3024">
         <v>-0.002056181865022211</v>
@@ -24575,7 +24575,7 @@
     </row>
     <row r="3028" spans="1:2">
       <c r="A3028">
-        <v>0.006381806748448553</v>
+        <v>0.006381806748448552</v>
       </c>
       <c r="B3028">
         <v>-0.005550005205511965</v>
@@ -24583,7 +24583,7 @@
     </row>
     <row r="3029" spans="1:2">
       <c r="A3029">
-        <v>0.00535220045544087</v>
+        <v>0.005352200455440871</v>
       </c>
       <c r="B3029">
         <v>-0.007550857924908172</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="3034" spans="1:2">
       <c r="A3034">
-        <v>0.0005676943101944797</v>
+        <v>0.0005676943101944798</v>
       </c>
       <c r="B3034">
         <v>-0.01356977907662316</v>
@@ -24679,7 +24679,7 @@
     </row>
     <row r="3041" spans="1:2">
       <c r="A3041">
-        <v>-0.0003387541797290998</v>
+        <v>-0.0003387541797290997</v>
       </c>
       <c r="B3041">
         <v>-0.005440594699098966</v>
@@ -24895,7 +24895,7 @@
     </row>
     <row r="3068" spans="1:2">
       <c r="A3068">
-        <v>0.0002415845944919586</v>
+        <v>0.0002415845944919585</v>
       </c>
       <c r="B3068">
         <v>0.009832656704013232</v>
@@ -24967,7 +24967,7 @@
     </row>
     <row r="3077" spans="1:2">
       <c r="A3077">
-        <v>0.001164999618303524</v>
+        <v>0.001164999618303523</v>
       </c>
       <c r="B3077">
         <v>0.007224028786169789</v>
@@ -24999,7 +24999,7 @@
     </row>
     <row r="3081" spans="1:2">
       <c r="A3081">
-        <v>0.003297059634277986</v>
+        <v>0.003297059634277985</v>
       </c>
       <c r="B3081">
         <v>0.004060726652257429</v>
@@ -25215,7 +25215,7 @@
     </row>
     <row r="3108" spans="1:2">
       <c r="A3108">
-        <v>0.02610024682499339</v>
+        <v>0.0261002468249934</v>
       </c>
       <c r="B3108">
         <v>-0.02600919366495003</v>
@@ -25343,7 +25343,7 @@
     </row>
     <row r="3124" spans="1:2">
       <c r="A3124">
-        <v>0.03617354129986065</v>
+        <v>0.03617354129986064</v>
       </c>
       <c r="B3124">
         <v>-0.04082980743363152</v>
@@ -25359,7 +25359,7 @@
     </row>
     <row r="3126" spans="1:2">
       <c r="A3126">
-        <v>0.0381723639600553</v>
+        <v>0.03817236396005529</v>
       </c>
       <c r="B3126">
         <v>-0.02863457747438547</v>
@@ -25543,7 +25543,7 @@
     </row>
     <row r="3149" spans="1:2">
       <c r="A3149">
-        <v>0.05305585312263752</v>
+        <v>0.05305585312263753</v>
       </c>
       <c r="B3149">
         <v>-0.0219840038000978</v>
@@ -25575,7 +25575,7 @@
     </row>
     <row r="3153" spans="1:2">
       <c r="A3153">
-        <v>0.05529825227786482</v>
+        <v>0.05529825227786481</v>
       </c>
       <c r="B3153">
         <v>-0.0303623972639846</v>
@@ -25655,7 +25655,7 @@
     </row>
     <row r="3163" spans="1:2">
       <c r="A3163">
-        <v>0.05866200582421771</v>
+        <v>0.05866200582421772</v>
       </c>
       <c r="B3163">
         <v>-0.03054559667099666</v>
@@ -25703,7 +25703,7 @@
     </row>
     <row r="3169" spans="1:2">
       <c r="A3169">
-        <v>0.06132086262661074</v>
+        <v>0.06132086262661075</v>
       </c>
       <c r="B3169">
         <v>-0.01291636505770377</v>
@@ -25759,7 +25759,7 @@
     </row>
     <row r="3176" spans="1:2">
       <c r="A3176">
-        <v>0.06566473513472806</v>
+        <v>0.06566473513472808</v>
       </c>
       <c r="B3176">
         <v>-0.006117192517981707</v>
@@ -25775,7 +25775,7 @@
     </row>
     <row r="3178" spans="1:2">
       <c r="A3178">
-        <v>0.0690100564454299</v>
+        <v>0.06901005644542992</v>
       </c>
       <c r="B3178">
         <v>-0.03556557361008839</v>
@@ -25799,7 +25799,7 @@
     </row>
     <row r="3181" spans="1:2">
       <c r="A3181">
-        <v>0.07081017941044451</v>
+        <v>0.0708101794104445</v>
       </c>
       <c r="B3181">
         <v>-0.02609990072022317</v>
@@ -25823,7 +25823,7 @@
     </row>
     <row r="3184" spans="1:2">
       <c r="A3184">
-        <v>0.0711079764068609</v>
+        <v>0.07110797640686091</v>
       </c>
       <c r="B3184">
         <v>-0.01848988161123444</v>
@@ -25831,7 +25831,7 @@
     </row>
     <row r="3185" spans="1:2">
       <c r="A3185">
-        <v>0.07142268578534847</v>
+        <v>0.07142268578534845</v>
       </c>
       <c r="B3185">
         <v>-0.03739442065063248</v>
@@ -27055,7 +27055,7 @@
     </row>
     <row r="3338" spans="1:2">
       <c r="A3338">
-        <v>-0.03331025062459526</v>
+        <v>-0.03331025062459527</v>
       </c>
       <c r="B3338">
         <v>-0.007330967305521519</v>
@@ -27191,7 +27191,7 @@
     </row>
     <row r="3355" spans="1:2">
       <c r="A3355">
-        <v>-0.04946728208270593</v>
+        <v>-0.04946728208270592</v>
       </c>
       <c r="B3355">
         <v>0.02856892098626229</v>
@@ -27215,7 +27215,7 @@
     </row>
     <row r="3358" spans="1:2">
       <c r="A3358">
-        <v>-0.05142811534059591</v>
+        <v>-0.0514281153405959</v>
       </c>
       <c r="B3358">
         <v>0.02279404158711973</v>
@@ -27263,7 +27263,7 @@
     </row>
     <row r="3364" spans="1:2">
       <c r="A3364">
-        <v>-0.05590182706684263</v>
+        <v>-0.05590182706684264</v>
       </c>
       <c r="B3364">
         <v>-0.002072225565926455</v>
@@ -27391,7 +27391,7 @@
     </row>
     <row r="3380" spans="1:2">
       <c r="A3380">
-        <v>-0.05741959075088703</v>
+        <v>-0.05741959075088702</v>
       </c>
       <c r="B3380">
         <v>0.02381417875726521</v>
@@ -27423,7 +27423,7 @@
     </row>
     <row r="3384" spans="1:2">
       <c r="A3384">
-        <v>-0.05578862915873299</v>
+        <v>-0.055788629158733</v>
       </c>
       <c r="B3384">
         <v>0.03264066813526334</v>
@@ -27447,7 +27447,7 @@
     </row>
     <row r="3387" spans="1:2">
       <c r="A3387">
-        <v>-0.05431548985965111</v>
+        <v>-0.05431548985965112</v>
       </c>
       <c r="B3387">
         <v>0.02001967815305239</v>
@@ -27471,7 +27471,7 @@
     </row>
     <row r="3390" spans="1:2">
       <c r="A3390">
-        <v>-0.05376874090420596</v>
+        <v>-0.05376874090420595</v>
       </c>
       <c r="B3390">
         <v>0.07160589735344303</v>
@@ -27495,7 +27495,7 @@
     </row>
     <row r="3393" spans="1:2">
       <c r="A3393">
-        <v>-0.05571731665840864</v>
+        <v>-0.05571731665840863</v>
       </c>
       <c r="B3393">
         <v>0.05227730654022533</v>
@@ -27503,7 +27503,7 @@
     </row>
     <row r="3394" spans="1:2">
       <c r="A3394">
-        <v>-0.05558644278224939</v>
+        <v>-0.05558644278224938</v>
       </c>
       <c r="B3394">
         <v>0.06587196896716208</v>
@@ -27655,7 +27655,7 @@
     </row>
     <row r="3413" spans="1:2">
       <c r="A3413">
-        <v>-0.06044700904388281</v>
+        <v>-0.06044700904388282</v>
       </c>
       <c r="B3413">
         <v>0.03319039342174657</v>
@@ -27695,7 +27695,7 @@
     </row>
     <row r="3418" spans="1:2">
       <c r="A3418">
-        <v>-0.05731062894663636</v>
+        <v>-0.05731062894663635</v>
       </c>
       <c r="B3418">
         <v>0.04744410527746057</v>
@@ -27703,7 +27703,7 @@
     </row>
     <row r="3419" spans="1:2">
       <c r="A3419">
-        <v>-0.05629631360677258</v>
+        <v>-0.05629631360677259</v>
       </c>
       <c r="B3419">
         <v>0.01277488721325781</v>
@@ -27751,7 +27751,7 @@
     </row>
     <row r="3425" spans="1:2">
       <c r="A3425">
-        <v>-0.05079114843785889</v>
+        <v>-0.05079114843785888</v>
       </c>
       <c r="B3425">
         <v>0.0415059878039008</v>
@@ -27767,7 +27767,7 @@
     </row>
     <row r="3427" spans="1:2">
       <c r="A3427">
-        <v>-0.04782685396543578</v>
+        <v>-0.04782685396543577</v>
       </c>
       <c r="B3427">
         <v>0.02053596523828816</v>
@@ -27783,7 +27783,7 @@
     </row>
     <row r="3429" spans="1:2">
       <c r="A3429">
-        <v>-0.04663352231424787</v>
+        <v>-0.04663352231424788</v>
       </c>
       <c r="B3429">
         <v>0.04211829268529588</v>
@@ -27855,7 +27855,7 @@
     </row>
     <row r="3438" spans="1:2">
       <c r="A3438">
-        <v>-0.03798446692231882</v>
+        <v>-0.03798446692231883</v>
       </c>
       <c r="B3438">
         <v>0.04429829278308794</v>
@@ -28103,7 +28103,7 @@
     </row>
     <row r="3469" spans="1:2">
       <c r="A3469">
-        <v>-0.02606537748873719</v>
+        <v>-0.02606537748873718</v>
       </c>
       <c r="B3469">
         <v>0.007867639496993206</v>
@@ -28135,7 +28135,7 @@
     </row>
     <row r="3473" spans="1:2">
       <c r="A3473">
-        <v>-0.02532220516145673</v>
+        <v>-0.02532220516145674</v>
       </c>
       <c r="B3473">
         <v>0.005610063560587797</v>
@@ -28263,7 +28263,7 @@
     </row>
     <row r="3489" spans="1:2">
       <c r="A3489">
-        <v>-0.0179039989480141</v>
+        <v>-0.01790399894801409</v>
       </c>
       <c r="B3489">
         <v>0.007935943775750687</v>
@@ -28271,7 +28271,7 @@
     </row>
     <row r="3490" spans="1:2">
       <c r="A3490">
-        <v>-0.01893089593744843</v>
+        <v>-0.01893089593744844</v>
       </c>
       <c r="B3490">
         <v>0.009879085337852089</v>
@@ -28335,7 +28335,7 @@
     </row>
     <row r="3498" spans="1:2">
       <c r="A3498">
-        <v>-0.02087928559984612</v>
+        <v>-0.02087928559984613</v>
       </c>
       <c r="B3498">
         <v>0.003719751324564591</v>
@@ -28359,7 +28359,7 @@
     </row>
     <row r="3501" spans="1:2">
       <c r="A3501">
-        <v>-0.02024336302012227</v>
+        <v>-0.02024336302012228</v>
       </c>
       <c r="B3501">
         <v>0.002319198625501784</v>
@@ -28695,7 +28695,7 @@
     </row>
     <row r="3543" spans="1:2">
       <c r="A3543">
-        <v>-0.00964713542878565</v>
+        <v>-0.009647135428785652</v>
       </c>
       <c r="B3543">
         <v>0.01448452443653281</v>
@@ -28727,7 +28727,7 @@
     </row>
     <row r="3547" spans="1:2">
       <c r="A3547">
-        <v>-0.006850015921741757</v>
+        <v>-0.006850015921741756</v>
       </c>
       <c r="B3547">
         <v>0.01800821358055327</v>
@@ -28759,7 +28759,7 @@
     </row>
     <row r="3551" spans="1:2">
       <c r="A3551">
-        <v>-0.006569059864507093</v>
+        <v>-0.006569059864507092</v>
       </c>
       <c r="B3551">
         <v>0.01357778898853201</v>
@@ -28775,7 +28775,7 @@
     </row>
     <row r="3553" spans="1:2">
       <c r="A3553">
-        <v>-0.00707983788730341</v>
+        <v>-0.007079837887303411</v>
       </c>
       <c r="B3553">
         <v>0.009178341725495365</v>
@@ -28783,7 +28783,7 @@
     </row>
     <row r="3554" spans="1:2">
       <c r="A3554">
-        <v>-0.00741375526091239</v>
+        <v>-0.007413755260912389</v>
       </c>
       <c r="B3554">
         <v>0.007309878318091378</v>
@@ -28919,7 +28919,7 @@
     </row>
     <row r="3571" spans="1:2">
       <c r="A3571">
-        <v>0.0008804739113371328</v>
+        <v>0.0008804739113371329</v>
       </c>
       <c r="B3571">
         <v>0.01243445364298701</v>
@@ -29039,7 +29039,7 @@
     </row>
     <row r="3586" spans="1:2">
       <c r="A3586">
-        <v>-0.0009105373294103615</v>
+        <v>-0.0009105373294103616</v>
       </c>
       <c r="B3586">
         <v>-0.003004262892297049</v>
@@ -29087,7 +29087,7 @@
     </row>
     <row r="3592" spans="1:2">
       <c r="A3592">
-        <v>0.003505007403224457</v>
+        <v>0.003505007403224458</v>
       </c>
       <c r="B3592">
         <v>0.007300006411854909</v>
@@ -29303,7 +29303,7 @@
     </row>
     <row r="3619" spans="1:2">
       <c r="A3619">
-        <v>0.002836547984575178</v>
+        <v>0.002836547984575179</v>
       </c>
       <c r="B3619">
         <v>0.009448808843329104</v>
@@ -29431,7 +29431,7 @@
     </row>
     <row r="3635" spans="1:2">
       <c r="A3635">
-        <v>-0.004599791511614607</v>
+        <v>-0.004599791511614608</v>
       </c>
       <c r="B3635">
         <v>-0.008760884698006066</v>
@@ -29591,7 +29591,7 @@
     </row>
     <row r="3655" spans="1:2">
       <c r="A3655">
-        <v>-0.004469983118622206</v>
+        <v>-0.004469983118622205</v>
       </c>
       <c r="B3655">
         <v>-0.004431216054664233</v>
@@ -29671,7 +29671,7 @@
     </row>
     <row r="3665" spans="1:2">
       <c r="A3665">
-        <v>-0.005393559713397151</v>
+        <v>-0.00539355971339715</v>
       </c>
       <c r="B3665">
         <v>-0.002051712810055228</v>
@@ -29679,7 +29679,7 @@
     </row>
     <row r="3666" spans="1:2">
       <c r="A3666">
-        <v>-0.004878160298102209</v>
+        <v>-0.00487816029810221</v>
       </c>
       <c r="B3666">
         <v>5.065577137841615E-05</v>
@@ -30039,7 +30039,7 @@
     </row>
     <row r="3711" spans="1:2">
       <c r="A3711">
-        <v>-0.005854723530681831</v>
+        <v>-0.005854723530681832</v>
       </c>
       <c r="B3711">
         <v>-0.00657171829653258</v>
@@ -30047,7 +30047,7 @@
     </row>
     <row r="3712" spans="1:2">
       <c r="A3712">
-        <v>-0.005821194479493681</v>
+        <v>-0.00582119447949368</v>
       </c>
       <c r="B3712">
         <v>-0.006326349958371225</v>
@@ -30111,7 +30111,7 @@
     </row>
     <row r="3720" spans="1:2">
       <c r="A3720">
-        <v>-0.0007465971792776319</v>
+        <v>-0.0007465971792776318</v>
       </c>
       <c r="B3720">
         <v>0.007325721550962783</v>
@@ -30263,7 +30263,7 @@
     </row>
     <row r="3739" spans="1:2">
       <c r="A3739">
-        <v>-0.003542661465969693</v>
+        <v>-0.003542661465969694</v>
       </c>
       <c r="B3739">
         <v>-0.01095886061571072</v>
@@ -30391,7 +30391,7 @@
     </row>
     <row r="3755" spans="1:2">
       <c r="A3755">
-        <v>0.002517152440236046</v>
+        <v>0.002517152440236047</v>
       </c>
       <c r="B3755">
         <v>0.008645504724365871</v>
@@ -30431,7 +30431,7 @@
     </row>
     <row r="3760" spans="1:2">
       <c r="A3760">
-        <v>-0.0005936012460573761</v>
+        <v>-0.000593601246057376</v>
       </c>
       <c r="B3760">
         <v>-0.0009249971387328415</v>
@@ -30591,7 +30591,7 @@
     </row>
     <row r="3780" spans="1:2">
       <c r="A3780">
-        <v>0.003700555852648366</v>
+        <v>0.003700555852648367</v>
       </c>
       <c r="B3780">
         <v>0.01254331669073139</v>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="3786" spans="1:2">
       <c r="A3786">
-        <v>0.001099292477010877</v>
+        <v>0.001099292477010878</v>
       </c>
       <c r="B3786">
         <v>0.00176545248325688</v>
@@ -30823,7 +30823,7 @@
     </row>
     <row r="3809" spans="1:2">
       <c r="A3809">
-        <v>0.001268229536313172</v>
+        <v>0.001268229536313173</v>
       </c>
       <c r="B3809">
         <v>0.008245476163284415</v>
@@ -30831,7 +30831,7 @@
     </row>
     <row r="3810" spans="1:2">
       <c r="A3810">
-        <v>0.0008974038567659002</v>
+        <v>0.0008974038567659</v>
       </c>
       <c r="B3810">
         <v>0.006935073292415161</v>
@@ -30903,7 +30903,7 @@
     </row>
     <row r="3819" spans="1:2">
       <c r="A3819">
-        <v>-0.005220783388226628</v>
+        <v>-0.005220783388226627</v>
       </c>
       <c r="B3819">
         <v>-0.008547933187150747</v>
@@ -30951,7 +30951,7 @@
     </row>
     <row r="3825" spans="1:2">
       <c r="A3825">
-        <v>-0.003487570687251097</v>
+        <v>-0.003487570687251096</v>
       </c>
       <c r="B3825">
         <v>-0.00106663450327904</v>
@@ -31143,7 +31143,7 @@
     </row>
     <row r="3849" spans="1:2">
       <c r="A3849">
-        <v>-0.005588299539527676</v>
+        <v>-0.005588299539527675</v>
       </c>
       <c r="B3849">
         <v>-0.01062895995686297</v>
@@ -31175,7 +31175,7 @@
     </row>
     <row r="3853" spans="1:2">
       <c r="A3853">
-        <v>-0.004128349139572683</v>
+        <v>-0.004128349139572684</v>
       </c>
       <c r="B3853">
         <v>-0.004224667131439652</v>
@@ -31215,7 +31215,7 @@
     </row>
     <row r="3858" spans="1:2">
       <c r="A3858">
-        <v>-0.0003316589742235612</v>
+        <v>-0.0003316589742235611</v>
       </c>
       <c r="B3858">
         <v>0.008033932943802391</v>
@@ -31239,7 +31239,7 @@
     </row>
     <row r="3861" spans="1:2">
       <c r="A3861">
-        <v>0.0003955044053494888</v>
+        <v>0.0003955044053494887</v>
       </c>
       <c r="B3861">
         <v>0.01008817615359359</v>
@@ -31287,7 +31287,7 @@
     </row>
     <row r="3867" spans="1:2">
       <c r="A3867">
-        <v>-0.002285992660364063</v>
+        <v>-0.002285992660364064</v>
       </c>
       <c r="B3867">
         <v>0.001625512227697357</v>
@@ -31375,7 +31375,7 @@
     </row>
     <row r="3878" spans="1:2">
       <c r="A3878">
-        <v>-0.004586804116950758</v>
+        <v>-0.004586804116950757</v>
       </c>
       <c r="B3878">
         <v>-0.002413304719782516</v>
@@ -31423,7 +31423,7 @@
     </row>
     <row r="3884" spans="1:2">
       <c r="A3884">
-        <v>0.0007002818289219505</v>
+        <v>0.0007002818289219504</v>
       </c>
       <c r="B3884">
         <v>0.01200302508691919</v>
@@ -31551,7 +31551,7 @@
     </row>
     <row r="3900" spans="1:2">
       <c r="A3900">
-        <v>-0.004120235347544835</v>
+        <v>-0.004120235347544834</v>
       </c>
       <c r="B3900">
         <v>-0.01048341007906117</v>
@@ -31559,7 +31559,7 @@
     </row>
     <row r="3901" spans="1:2">
       <c r="A3901">
-        <v>-0.004169776934090961</v>
+        <v>-0.004169776934090962</v>
       </c>
       <c r="B3901">
         <v>-0.01048552047599838</v>
@@ -31575,7 +31575,7 @@
     </row>
     <row r="3903" spans="1:2">
       <c r="A3903">
-        <v>-0.003939294598297836</v>
+        <v>-0.003939294598297835</v>
       </c>
       <c r="B3903">
         <v>-0.009439967343542577</v>
@@ -31591,7 +31591,7 @@
     </row>
     <row r="3905" spans="1:2">
       <c r="A3905">
-        <v>-0.003203942204506797</v>
+        <v>-0.003203942204506798</v>
       </c>
       <c r="B3905">
         <v>-0.006776780702922203</v>
@@ -31639,7 +31639,7 @@
     </row>
     <row r="3911" spans="1:2">
       <c r="A3911">
-        <v>0.001356271745081014</v>
+        <v>0.001356271745081015</v>
       </c>
       <c r="B3911">
         <v>0.007077883599544421</v>
@@ -31791,7 +31791,7 @@
     </row>
     <row r="3930" spans="1:2">
       <c r="A3930">
-        <v>-0.004368546835032508</v>
+        <v>-0.004368546835032507</v>
       </c>
       <c r="B3930">
         <v>-0.01211808005760595</v>
@@ -31967,7 +31967,7 @@
     </row>
     <row r="3952" spans="1:2">
       <c r="A3952">
-        <v>-0.003579252036215811</v>
+        <v>-0.003579252036215812</v>
       </c>
       <c r="B3952">
         <v>-0.005459638621711171</v>
@@ -32031,7 +32031,7 @@
     </row>
     <row r="3960" spans="1:2">
       <c r="A3960">
-        <v>-0.002916026531359624</v>
+        <v>-0.002916026531359625</v>
       </c>
       <c r="B3960">
         <v>-0.001925667751461191</v>
@@ -32047,7 +32047,7 @@
     </row>
     <row r="3962" spans="1:2">
       <c r="A3962">
-        <v>-0.001441719327348189</v>
+        <v>-0.001441719327348188</v>
       </c>
       <c r="B3962">
         <v>0.002472990257969876</v>
@@ -32063,7 +32063,7 @@
     </row>
     <row r="3964" spans="1:2">
       <c r="A3964">
-        <v>0.000369072454787081</v>
+        <v>0.0003690724547870809</v>
       </c>
       <c r="B3964">
         <v>0.007249594085151578</v>
@@ -32159,7 +32159,7 @@
     </row>
     <row r="3976" spans="1:2">
       <c r="A3976">
-        <v>-0.003960822065391296</v>
+        <v>-0.003960822065391297</v>
       </c>
       <c r="B3976">
         <v>-0.006996351969042358</v>
@@ -32167,7 +32167,7 @@
     </row>
     <row r="3977" spans="1:2">
       <c r="A3977">
-        <v>-0.004442798722191563</v>
+        <v>-0.004442798722191564</v>
       </c>
       <c r="B3977">
         <v>-0.00815057653536666</v>
@@ -32199,7 +32199,7 @@
     </row>
     <row r="3981" spans="1:2">
       <c r="A3981">
-        <v>-0.004700369789339666</v>
+        <v>-0.004700369789339667</v>
       </c>
       <c r="B3981">
         <v>-0.007666286207995476</v>
@@ -32335,7 +32335,7 @@
     </row>
     <row r="3998" spans="1:2">
       <c r="A3998">
-        <v>0.002367625088776065</v>
+        <v>0.002367625088776064</v>
       </c>
       <c r="B3998">
         <v>0.00752799686886263</v>
@@ -32415,7 +32415,7 @@
     </row>
     <row r="4008" spans="1:2">
       <c r="A4008">
-        <v>-0.002777287200206348</v>
+        <v>-0.002777287200206347</v>
       </c>
       <c r="B4008">
         <v>-0.009982086270829527</v>
@@ -32519,7 +32519,7 @@
     </row>
     <row r="4021" spans="1:2">
       <c r="A4021">
-        <v>0.003193653725777502</v>
+        <v>0.003193653725777501</v>
       </c>
       <c r="B4021">
         <v>0.007284416387087767</v>
@@ -32679,7 +32679,7 @@
     </row>
     <row r="4041" spans="1:2">
       <c r="A4041">
-        <v>0.0001961901182838737</v>
+        <v>0.0001961901182838738</v>
       </c>
       <c r="B4041">
         <v>0.004758661728681446</v>
@@ -32711,7 +32711,7 @@
     </row>
     <row r="4045" spans="1:2">
       <c r="A4045">
-        <v>0.003099978130918107</v>
+        <v>0.003099978130918106</v>
       </c>
       <c r="B4045">
         <v>0.0122938995459716</v>
@@ -32727,7 +32727,7 @@
     </row>
     <row r="4047" spans="1:2">
       <c r="A4047">
-        <v>0.003281574878294153</v>
+        <v>0.003281574878294154</v>
       </c>
       <c r="B4047">
         <v>0.01203063152550232</v>
@@ -32735,7 +32735,7 @@
     </row>
     <row r="4048" spans="1:2">
       <c r="A4048">
-        <v>0.003075202395541569</v>
+        <v>0.00307520239554157</v>
       </c>
       <c r="B4048">
         <v>0.01095015282165868</v>
@@ -32879,7 +32879,7 @@
     </row>
     <row r="4066" spans="1:2">
       <c r="A4066">
-        <v>-0.001935230975357341</v>
+        <v>-0.001935230975357342</v>
       </c>
       <c r="B4066">
         <v>-0.003200092137291222</v>
@@ -32967,7 +32967,7 @@
     </row>
     <row r="4077" spans="1:2">
       <c r="A4077">
-        <v>0.003167100270308671</v>
+        <v>0.003167100270307234</v>
       </c>
       <c r="B4077">
         <v>0.009313744811504598</v>
@@ -33007,7 +33007,7 @@
     </row>
     <row r="4082" spans="1:2">
       <c r="A4082">
-        <v>0.0002062263335327198</v>
+        <v>0.0002062263335327199</v>
       </c>
       <c r="B4082">
         <v>-0.001314393154961735</v>
@@ -33047,7 +33047,7 @@
     </row>
     <row r="4087" spans="1:2">
       <c r="A4087">
-        <v>-0.003512079566468792</v>
+        <v>-0.003512079566468791</v>
       </c>
       <c r="B4087">
         <v>-0.01146646844656996</v>
@@ -33111,7 +33111,7 @@
     </row>
     <row r="4095" spans="1:2">
       <c r="A4095">
-        <v>-0.001123705366791575</v>
+        <v>-0.001123705366791576</v>
       </c>
       <c r="B4095">
         <v>-0.001236553386720018</v>
@@ -33319,7 +33319,7 @@
     </row>
     <row r="4121" spans="1:2">
       <c r="A4121">
-        <v>-0.002252980445600562</v>
+        <v>-0.002252980445600563</v>
       </c>
       <c r="B4121">
         <v>-0.005608797516352126</v>
@@ -33335,7 +33335,7 @@
     </row>
     <row r="4123" spans="1:2">
       <c r="A4123">
-        <v>-0.0009571676179083223</v>
+        <v>-0.0009571676179083224</v>
       </c>
       <c r="B4123">
         <v>-0.001138607529929558</v>
@@ -33343,7 +33343,7 @@
     </row>
     <row r="4124" spans="1:2">
       <c r="A4124">
-        <v>-9.319906783120715E-05</v>
+        <v>-9.319906783120714E-05</v>
       </c>
       <c r="B4124">
         <v>0.001531648067397917</v>
@@ -33463,7 +33463,7 @@
     </row>
     <row r="4139" spans="1:2">
       <c r="A4139">
-        <v>-9.903736128449742E-05</v>
+        <v>-9.903736128449743E-05</v>
       </c>
       <c r="B4139">
         <v>-0.003572647457271927</v>
@@ -33551,7 +33551,7 @@
     </row>
     <row r="4150" spans="1:2">
       <c r="A4150">
-        <v>-0.0009667554445633149</v>
+        <v>-0.0009667554445633148</v>
       </c>
       <c r="B4150">
         <v>-0.002983647284023228</v>
@@ -33615,7 +33615,7 @@
     </row>
     <row r="4158" spans="1:2">
       <c r="A4158">
-        <v>0.004677008436129143</v>
+        <v>0.004677008436129144</v>
       </c>
       <c r="B4158">
         <v>0.01207162418153729</v>
@@ -33703,7 +33703,7 @@
     </row>
     <row r="4169" spans="1:2">
       <c r="A4169">
-        <v>-0.0008205584843326804</v>
+        <v>-0.0008205584843326803</v>
       </c>
       <c r="B4169">
         <v>-0.008503517702689756</v>
@@ -34111,7 +34111,7 @@
     </row>
     <row r="4220" spans="1:2">
       <c r="A4220">
-        <v>-0.004184034616842108</v>
+        <v>-0.004184034616842109</v>
       </c>
       <c r="B4220">
         <v>-0.008953081808581231</v>
@@ -34119,7 +34119,7 @@
     </row>
     <row r="4221" spans="1:2">
       <c r="A4221">
-        <v>-0.004209660497705476</v>
+        <v>-0.004209660497705477</v>
       </c>
       <c r="B4221">
         <v>-0.008659676655985216</v>
@@ -34127,7 +34127,7 @@
     </row>
     <row r="4222" spans="1:2">
       <c r="A4222">
-        <v>-0.003943014082672086</v>
+        <v>-0.003943014082672085</v>
       </c>
       <c r="B4222">
         <v>-0.007571945950981984</v>
@@ -34143,7 +34143,7 @@
     </row>
     <row r="4224" spans="1:2">
       <c r="A4224">
-        <v>-0.003148740749069018</v>
+        <v>-0.003148740749069019</v>
       </c>
       <c r="B4224">
         <v>-0.00456614959091528</v>
@@ -34175,7 +34175,7 @@
     </row>
     <row r="4228" spans="1:2">
       <c r="A4228">
-        <v>-0.0001999732103735438</v>
+        <v>-0.0001999732103735437</v>
       </c>
       <c r="B4228">
         <v>0.00445779533288615</v>
@@ -34183,7 +34183,7 @@
     </row>
     <row r="4229" spans="1:2">
       <c r="A4229">
-        <v>0.0006601067391883457</v>
+        <v>0.0006601067391883456</v>
       </c>
       <c r="B4229">
         <v>0.00672910082978273</v>
@@ -34239,7 +34239,7 @@
     </row>
     <row r="4236" spans="1:2">
       <c r="A4236">
-        <v>0.0004798614549953677</v>
+        <v>0.0004798614549953678</v>
       </c>
       <c r="B4236">
         <v>0.0045664203073148</v>
@@ -34295,7 +34295,7 @@
     </row>
     <row r="4243" spans="1:2">
       <c r="A4243">
-        <v>-0.003937223655794143</v>
+        <v>-0.003937223655794144</v>
       </c>
       <c r="B4243">
         <v>-0.008184902987944831</v>
@@ -34367,7 +34367,7 @@
     </row>
     <row r="4252" spans="1:2">
       <c r="A4252">
-        <v>0.0007036761043038931</v>
+        <v>0.0007036761043038932</v>
       </c>
       <c r="B4252">
         <v>0.005409059797869098</v>
@@ -34463,7 +34463,7 @@
     </row>
     <row r="4264" spans="1:2">
       <c r="A4264">
-        <v>-0.0004311644133484859</v>
+        <v>-0.000431164413348486</v>
       </c>
       <c r="B4264">
         <v>-0.003002494896856334</v>
@@ -34527,7 +34527,7 @@
     </row>
     <row r="4272" spans="1:2">
       <c r="A4272">
-        <v>-0.004145670532855524</v>
+        <v>-0.004145670532855525</v>
       </c>
       <c r="B4272">
         <v>-0.01128129796778854</v>
@@ -34551,7 +34551,7 @@
     </row>
     <row r="4275" spans="1:2">
       <c r="A4275">
-        <v>-0.003081929710590298</v>
+        <v>-0.003081929710590299</v>
       </c>
       <c r="B4275">
         <v>-0.006371329232241152</v>
@@ -34559,7 +34559,7 @@
     </row>
     <row r="4276" spans="1:2">
       <c r="A4276">
-        <v>-0.002417560656692272</v>
+        <v>-0.002417560656692271</v>
       </c>
       <c r="B4276">
         <v>-0.004045570774106722</v>
@@ -34591,7 +34591,7 @@
     </row>
     <row r="4280" spans="1:2">
       <c r="A4280">
-        <v>0.0009279623404383167</v>
+        <v>0.0009279623404383166</v>
       </c>
       <c r="B4280">
         <v>0.006531569480375587</v>
@@ -34783,7 +34783,7 @@
     </row>
     <row r="4304" spans="1:2">
       <c r="A4304">
-        <v>-0.0009046047734458092</v>
+        <v>-0.0009046047734458093</v>
       </c>
       <c r="B4304">
         <v>-0.002034928626832411</v>
@@ -34799,7 +34799,7 @@
     </row>
     <row r="4306" spans="1:2">
       <c r="A4306">
-        <v>0.0008173460494117967</v>
+        <v>0.0008173460494117966</v>
       </c>
       <c r="B4306">
         <v>0.002964301176152873</v>
@@ -35031,7 +35031,7 @@
     </row>
     <row r="4335" spans="1:2">
       <c r="A4335">
-        <v>0.003816230020761906</v>
+        <v>0.003816230020761907</v>
       </c>
       <c r="B4335">
         <v>0.009661814275850666</v>
@@ -35127,7 +35127,7 @@
     </row>
     <row r="4347" spans="1:2">
       <c r="A4347">
-        <v>-0.002866617038904478</v>
+        <v>-0.002866617038904477</v>
       </c>
       <c r="B4347">
         <v>-0.01228417007397642</v>
@@ -35135,7 +35135,7 @@
     </row>
     <row r="4348" spans="1:2">
       <c r="A4348">
-        <v>-0.002920144203293503</v>
+        <v>-0.002920144203293504</v>
       </c>
       <c r="B4348">
         <v>-0.01201160607002194</v>
@@ -35199,7 +35199,7 @@
     </row>
     <row r="4356" spans="1:2">
       <c r="A4356">
-        <v>0.0008946088816207498</v>
+        <v>0.0008946088816207499</v>
       </c>
       <c r="B4356">
         <v>0.00180461422052236</v>
@@ -35319,7 +35319,7 @@
     </row>
     <row r="4371" spans="1:2">
       <c r="A4371">
-        <v>0.002537571728085495</v>
+        <v>0.002537571728085496</v>
       </c>
       <c r="B4371">
         <v>-0.001772904354712779</v>
@@ -35423,7 +35423,7 @@
     </row>
     <row r="4384" spans="1:2">
       <c r="A4384">
-        <v>-0.0003711135039086821</v>
+        <v>-0.000371113503908682</v>
       </c>
       <c r="B4384">
         <v>-0.005928066354346839</v>
@@ -35631,7 +35631,7 @@
     </row>
     <row r="4410" spans="1:2">
       <c r="A4410">
-        <v>-0.0004745692115798095</v>
+        <v>-0.0004745692115798096</v>
       </c>
       <c r="B4410">
         <v>-0.005981201299351646</v>
@@ -35775,7 +35775,7 @@
     </row>
     <row r="4428" spans="1:2">
       <c r="A4428">
-        <v>-0.0008059883104142172</v>
+        <v>-0.0008059883104142171</v>
       </c>
       <c r="B4428">
         <v>-0.008958200458567767</v>
@@ -35807,7 +35807,7 @@
     </row>
     <row r="4432" spans="1:2">
       <c r="A4432">
-        <v>-0.002865333039296724</v>
+        <v>-0.002865333039296725</v>
       </c>
       <c r="B4432">
         <v>-0.01321072649894095</v>
@@ -35911,7 +35911,7 @@
     </row>
     <row r="4445" spans="1:2">
       <c r="A4445">
-        <v>0.005196663358233503</v>
+        <v>0.005196663358233502</v>
       </c>
       <c r="B4445">
         <v>0.01406993003531554</v>
@@ -36023,7 +36023,7 @@
     </row>
     <row r="4459" spans="1:2">
       <c r="A4459">
-        <v>0.005265572217685258</v>
+        <v>0.005265572217685259</v>
       </c>
       <c r="B4459">
         <v>0.007399994811512656</v>
@@ -36127,7 +36127,7 @@
     </row>
     <row r="4472" spans="1:2">
       <c r="A4472">
-        <v>0.006637972233827073</v>
+        <v>0.006637972233827074</v>
       </c>
       <c r="B4472">
         <v>-0.005569809349829313</v>
@@ -36367,7 +36367,7 @@
     </row>
     <row r="4502" spans="1:2">
       <c r="A4502">
-        <v>0.03346091021112866</v>
+        <v>0.03346091021112867</v>
       </c>
       <c r="B4502">
         <v>-0.0251133942057109</v>
@@ -36383,7 +36383,7 @@
     </row>
     <row r="4504" spans="1:2">
       <c r="A4504">
-        <v>0.03662156916059383</v>
+        <v>0.03662156916059384</v>
       </c>
       <c r="B4504">
         <v>-0.008218469068931533</v>
@@ -36399,7 +36399,7 @@
     </row>
     <row r="4506" spans="1:2">
       <c r="A4506">
-        <v>0.03861286050835002</v>
+        <v>0.03861286050835003</v>
       </c>
       <c r="B4506">
         <v>0.01160587884223041</v>
@@ -36415,7 +36415,7 @@
     </row>
     <row r="4508" spans="1:2">
       <c r="A4508">
-        <v>0.04223960483460154</v>
+        <v>0.04223960483460155</v>
       </c>
       <c r="B4508">
         <v>-0.008213931000445207</v>
@@ -36431,7 +36431,7 @@
     </row>
     <row r="4510" spans="1:2">
       <c r="A4510">
-        <v>0.04454593644024883</v>
+        <v>0.04454593644024884</v>
       </c>
       <c r="B4510">
         <v>0.01240445926305167</v>
@@ -36479,7 +36479,7 @@
     </row>
     <row r="4516" spans="1:2">
       <c r="A4516">
-        <v>0.04862601414691363</v>
+        <v>0.04862601414691364</v>
       </c>
       <c r="B4516">
         <v>-0.02137656355741768</v>
@@ -36519,7 +36519,7 @@
     </row>
     <row r="4521" spans="1:2">
       <c r="A4521">
-        <v>0.05113288183145667</v>
+        <v>0.05113288183145668</v>
       </c>
       <c r="B4521">
         <v>0.005097238354244915</v>
@@ -36559,7 +36559,7 @@
     </row>
     <row r="4526" spans="1:2">
       <c r="A4526">
-        <v>0.05227795338602477</v>
+        <v>0.05227795338602478</v>
       </c>
       <c r="B4526">
         <v>-0.02021814138073452</v>
@@ -36591,7 +36591,7 @@
     </row>
     <row r="4530" spans="1:2">
       <c r="A4530">
-        <v>0.05234549189720774</v>
+        <v>0.05234549189720775</v>
       </c>
       <c r="B4530">
         <v>-0.02843576614396204</v>
@@ -36615,7 +36615,7 @@
     </row>
     <row r="4533" spans="1:2">
       <c r="A4533">
-        <v>0.0541631689997571</v>
+        <v>0.05416316899975709</v>
       </c>
       <c r="B4533">
         <v>-0.0134955779264252</v>
@@ -36623,7 +36623,7 @@
     </row>
     <row r="4534" spans="1:2">
       <c r="A4534">
-        <v>0.05506312198191282</v>
+        <v>0.05506312198191283</v>
       </c>
       <c r="B4534">
         <v>-0.02827659896844503</v>
@@ -36663,7 +36663,7 @@
     </row>
     <row r="4539" spans="1:2">
       <c r="A4539">
-        <v>0.06019676985021262</v>
+        <v>0.06019676985021263</v>
       </c>
       <c r="B4539">
         <v>-0.03753968748920711</v>
@@ -36671,7 +36671,7 @@
     </row>
     <row r="4540" spans="1:2">
       <c r="A4540">
-        <v>0.06085563912410306</v>
+        <v>0.06085563912410307</v>
       </c>
       <c r="B4540">
         <v>0.01196160691110615</v>
@@ -36695,7 +36695,7 @@
     </row>
     <row r="4543" spans="1:2">
       <c r="A4543">
-        <v>0.06166590273015932</v>
+        <v>0.06166590273015933</v>
       </c>
       <c r="B4543">
         <v>-0.04157721045565355</v>
@@ -36759,7 +36759,7 @@
     </row>
     <row r="4551" spans="1:2">
       <c r="A4551">
-        <v>0.06151790504750619</v>
+        <v>0.0615179050475062</v>
       </c>
       <c r="B4551">
         <v>-0.05644502297128717</v>
@@ -36815,7 +36815,7 @@
     </row>
     <row r="4558" spans="1:2">
       <c r="A4558">
-        <v>0.06227859280907316</v>
+        <v>0.06227859280907317</v>
       </c>
       <c r="B4558">
         <v>-0.04785545270099201</v>
@@ -36847,7 +36847,7 @@
     </row>
     <row r="4562" spans="1:2">
       <c r="A4562">
-        <v>0.06112481282037914</v>
+        <v>0.06112481282037913</v>
       </c>
       <c r="B4562">
         <v>-0.05485810563425764</v>
@@ -36855,7 +36855,7 @@
     </row>
     <row r="4563" spans="1:2">
       <c r="A4563">
-        <v>0.05977749201303792</v>
+        <v>0.05977749201303791</v>
       </c>
       <c r="B4563">
         <v>-0.07293649617339204</v>
@@ -36903,7 +36903,7 @@
     </row>
     <row r="4569" spans="1:2">
       <c r="A4569">
-        <v>0.06093064853113576</v>
+        <v>0.06093064853113577</v>
       </c>
       <c r="B4569">
         <v>-0.04274106423515756</v>
@@ -37047,7 +37047,7 @@
     </row>
     <row r="4587" spans="1:2">
       <c r="A4587">
-        <v>0.05974889508900415</v>
+        <v>0.05974889508900414</v>
       </c>
       <c r="B4587">
         <v>-0.05932229903259545</v>
@@ -37095,7 +37095,7 @@
     </row>
     <row r="4593" spans="1:2">
       <c r="A4593">
-        <v>0.05455225008650988</v>
+        <v>0.05455225008650987</v>
       </c>
       <c r="B4593">
         <v>-0.0413973577040192</v>
@@ -37111,7 +37111,7 @@
     </row>
     <row r="4595" spans="1:2">
       <c r="A4595">
-        <v>0.05160038057618541</v>
+        <v>0.0516003805761854</v>
       </c>
       <c r="B4595">
         <v>-0.06415567285959467</v>
@@ -37207,7 +37207,7 @@
     </row>
     <row r="4607" spans="1:2">
       <c r="A4607">
-        <v>0.03716138095092546</v>
+        <v>0.03716138095092552</v>
       </c>
       <c r="B4607">
         <v>-0.05984406624134309</v>
@@ -37375,7 +37375,7 @@
     </row>
     <row r="4628" spans="1:2">
       <c r="A4628">
-        <v>0.01993280398163125</v>
+        <v>0.01993280398163126</v>
       </c>
       <c r="B4628">
         <v>-0.01092823976798485</v>
@@ -37391,7 +37391,7 @@
     </row>
     <row r="4630" spans="1:2">
       <c r="A4630">
-        <v>0.01785093712055828</v>
+        <v>0.01785093712055826</v>
       </c>
       <c r="B4630">
         <v>-0.02515283513455557</v>
@@ -37431,7 +37431,7 @@
     </row>
     <row r="4635" spans="1:2">
       <c r="A4635">
-        <v>0.01406464693756642</v>
+        <v>0.01406464693756643</v>
       </c>
       <c r="B4635">
         <v>-0.02927098073981327</v>
@@ -37519,7 +37519,7 @@
     </row>
     <row r="4646" spans="1:2">
       <c r="A4646">
-        <v>0.01066814982233042</v>
+        <v>0.01066814982233039</v>
       </c>
       <c r="B4646">
         <v>-0.01599871958309906</v>
@@ -37943,7 +37943,7 @@
     </row>
     <row r="4699" spans="1:2">
       <c r="A4699">
-        <v>0.001041333805857597</v>
+        <v>0.001041333805857551</v>
       </c>
       <c r="B4699">
         <v>-0.003294101866369914</v>
@@ -38143,7 +38143,7 @@
     </row>
     <row r="4724" spans="1:2">
       <c r="A4724">
-        <v>-0.0003510640153590352</v>
+        <v>-0.0003510640153590601</v>
       </c>
       <c r="B4724">
         <v>0.006287286977554096</v>
@@ -38167,7 +38167,7 @@
     </row>
     <row r="4727" spans="1:2">
       <c r="A4727">
-        <v>-1.653379995872467E-05</v>
+        <v>-1.653379995873721E-05</v>
       </c>
       <c r="B4727">
         <v>0.007037031045929787</v>
@@ -39095,7 +39095,7 @@
     </row>
     <row r="4843" spans="1:2">
       <c r="A4843">
-        <v>-0.002737926764277128</v>
+        <v>-0.002737926764277129</v>
       </c>
       <c r="B4843">
         <v>-0.006483401453442283</v>
@@ -40935,7 +40935,7 @@
     </row>
     <row r="5073" spans="1:2">
       <c r="A5073">
-        <v>0.07012683222126903</v>
+        <v>0.07012683222126902</v>
       </c>
       <c r="B5073">
         <v>-0.04574172035816737</v>
@@ -40943,7 +40943,7 @@
     </row>
     <row r="5074" spans="1:2">
       <c r="A5074">
-        <v>0.07050247679837518</v>
+        <v>0.07050247679837517</v>
       </c>
       <c r="B5074">
         <v>-0.0378057697671097</v>
@@ -41095,7 +41095,7 @@
     </row>
     <row r="5093" spans="1:2">
       <c r="A5093">
-        <v>0.08365666043376435</v>
+        <v>0.08365666043376395</v>
       </c>
       <c r="B5093">
         <v>-0.06434349150182239</v>
@@ -41135,7 +41135,7 @@
     </row>
     <row r="5098" spans="1:2">
       <c r="A5098">
-        <v>0.08690249142005954</v>
+        <v>0.08690249142005953</v>
       </c>
       <c r="B5098">
         <v>-0.06880545081817591</v>
@@ -41167,7 +41167,7 @@
     </row>
     <row r="5102" spans="1:2">
       <c r="A5102">
-        <v>0.09071753110795577</v>
+        <v>0.09071753110795576</v>
       </c>
       <c r="B5102">
         <v>-0.06066121381724221</v>
@@ -41175,7 +41175,7 @@
     </row>
     <row r="5103" spans="1:2">
       <c r="A5103">
-        <v>0.09096393022030877</v>
+        <v>0.09096393022030876</v>
       </c>
       <c r="B5103">
         <v>-0.07172531908277158</v>
@@ -41247,7 +41247,7 @@
     </row>
     <row r="5112" spans="1:2">
       <c r="A5112">
-        <v>0.09913651487667183</v>
+        <v>0.09913651487667184</v>
       </c>
       <c r="B5112">
         <v>-0.06668655230016762</v>
@@ -41327,7 +41327,7 @@
     </row>
     <row r="5122" spans="1:2">
       <c r="A5122">
-        <v>0.1032838996469899</v>
+        <v>0.10328389964699</v>
       </c>
       <c r="B5122">
         <v>-0.07893101670690905</v>
@@ -41535,7 +41535,7 @@
     </row>
     <row r="5148" spans="1:2">
       <c r="A5148">
-        <v>0.08908417886614248</v>
+        <v>0.08908417886614246</v>
       </c>
       <c r="B5148">
         <v>-0.09536559156265767</v>
@@ -41551,7 +41551,7 @@
     </row>
     <row r="5150" spans="1:2">
       <c r="A5150">
-        <v>0.08658158121118981</v>
+        <v>0.08658158121118978</v>
       </c>
       <c r="B5150">
         <v>-0.09153314797279544</v>
@@ -41567,7 +41567,7 @@
     </row>
     <row r="5152" spans="1:2">
       <c r="A5152">
-        <v>0.08456910594576905</v>
+        <v>0.08456910594576904</v>
       </c>
       <c r="B5152">
         <v>-0.08551512197217637</v>
@@ -41631,7 +41631,7 @@
     </row>
     <row r="5160" spans="1:2">
       <c r="A5160">
-        <v>0.07734279231243951</v>
+        <v>0.0773427923124395</v>
       </c>
       <c r="B5160">
         <v>-0.07199875710330916</v>
@@ -41687,7 +41687,7 @@
     </row>
     <row r="5167" spans="1:2">
       <c r="A5167">
-        <v>0.06891556452785483</v>
+        <v>0.06891556452785484</v>
       </c>
       <c r="B5167">
         <v>-0.06061078974150291</v>
@@ -41775,7 +41775,7 @@
     </row>
     <row r="5178" spans="1:2">
       <c r="A5178">
-        <v>0.0579990938516302</v>
+        <v>0.05799909385163021</v>
       </c>
       <c r="B5178">
         <v>-0.05137514371289997</v>
@@ -41903,7 +41903,7 @@
     </row>
     <row r="5194" spans="1:2">
       <c r="A5194">
-        <v>0.04500416212040887</v>
+        <v>0.04500416212040888</v>
       </c>
       <c r="B5194">
         <v>-0.04466080958033913</v>
@@ -41967,7 +41967,7 @@
     </row>
     <row r="5202" spans="1:2">
       <c r="A5202">
-        <v>0.03754668017226079</v>
+        <v>0.03754668017226078</v>
       </c>
       <c r="B5202">
         <v>-0.03903799617978132</v>
@@ -41983,7 +41983,7 @@
     </row>
     <row r="5204" spans="1:2">
       <c r="A5204">
-        <v>0.0354257459619312</v>
+        <v>0.03542574596193119</v>
       </c>
       <c r="B5204">
         <v>-0.04386147739098778</v>
@@ -42055,7 +42055,7 @@
     </row>
     <row r="5213" spans="1:2">
       <c r="A5213">
-        <v>0.02549749713483188</v>
+        <v>0.02549749713483187</v>
       </c>
       <c r="B5213">
         <v>-0.03876238335950521</v>
@@ -42103,7 +42103,7 @@
     </row>
     <row r="5219" spans="1:2">
       <c r="A5219">
-        <v>0.02410424519177448</v>
+        <v>0.02410424519177449</v>
       </c>
       <c r="B5219">
         <v>-0.02507574943954705</v>
@@ -42119,7 +42119,7 @@
     </row>
     <row r="5221" spans="1:2">
       <c r="A5221">
-        <v>0.02319350421666248</v>
+        <v>0.02319350421666247</v>
       </c>
       <c r="B5221">
         <v>-0.0206172411260126</v>
@@ -42215,7 +42215,7 @@
     </row>
     <row r="5233" spans="1:2">
       <c r="A5233">
-        <v>0.02195981783045359</v>
+        <v>0.0219598178304536</v>
       </c>
       <c r="B5233">
         <v>-0.007267180982525545</v>
@@ -42279,7 +42279,7 @@
     </row>
     <row r="5241" spans="1:2">
       <c r="A5241">
-        <v>0.02907374836695178</v>
+        <v>0.02907374836695179</v>
       </c>
       <c r="B5241">
         <v>-0.0196658823037259</v>
@@ -42335,7 +42335,7 @@
     </row>
     <row r="5248" spans="1:2">
       <c r="A5248">
-        <v>0.0395439688682617</v>
+        <v>0.03954396886826171</v>
       </c>
       <c r="B5248">
         <v>-0.0123651951733672</v>
@@ -42343,7 +42343,7 @@
     </row>
     <row r="5249" spans="1:2">
       <c r="A5249">
-        <v>0.04068169502947385</v>
+        <v>0.04068169502947386</v>
       </c>
       <c r="B5249">
         <v>-0.0208276478717333</v>
@@ -42431,7 +42431,7 @@
     </row>
     <row r="5260" spans="1:2">
       <c r="A5260">
-        <v>0.05077890962391389</v>
+        <v>0.05077890962391388</v>
       </c>
       <c r="B5260">
         <v>-0.04547812792942763</v>
@@ -42439,7 +42439,7 @@
     </row>
     <row r="5261" spans="1:2">
       <c r="A5261">
-        <v>0.05152902719726154</v>
+        <v>0.05152902719726153</v>
       </c>
       <c r="B5261">
         <v>-0.02938786680214234</v>
@@ -42511,7 +42511,7 @@
     </row>
     <row r="5270" spans="1:2">
       <c r="A5270">
-        <v>0.06162339134442436</v>
+        <v>0.06162339134442437</v>
       </c>
       <c r="B5270">
         <v>-0.03952546381770583</v>
@@ -42535,7 +42535,7 @@
     </row>
     <row r="5273" spans="1:2">
       <c r="A5273">
-        <v>0.06459399497759062</v>
+        <v>0.06459399497759064</v>
       </c>
       <c r="B5273">
         <v>-0.04182870558711516</v>
@@ -42551,7 +42551,7 @@
     </row>
     <row r="5275" spans="1:2">
       <c r="A5275">
-        <v>0.06743555699865993</v>
+        <v>0.06743555699865991</v>
       </c>
       <c r="B5275">
         <v>-0.06312451366740301</v>
@@ -42591,7 +42591,7 @@
     </row>
     <row r="5280" spans="1:2">
       <c r="A5280">
-        <v>0.07486765052985464</v>
+        <v>0.07486765052985463</v>
       </c>
       <c r="B5280">
         <v>-0.04997659233306662</v>
@@ -42663,7 +42663,7 @@
     </row>
     <row r="5289" spans="1:2">
       <c r="A5289">
-        <v>0.0817158336259028</v>
+        <v>0.08171583362590282</v>
       </c>
       <c r="B5289">
         <v>-0.05975980635345168</v>
@@ -42695,7 +42695,7 @@
     </row>
     <row r="5293" spans="1:2">
       <c r="A5293">
-        <v>0.08211132065704271</v>
+        <v>0.0821113206570427</v>
       </c>
       <c r="B5293">
         <v>-0.08167504802684311</v>
@@ -42727,7 +42727,7 @@
     </row>
     <row r="5297" spans="1:2">
       <c r="A5297">
-        <v>0.08321033976908791</v>
+        <v>0.0832103397690879</v>
       </c>
       <c r="B5297">
         <v>-0.05447651654703867</v>
@@ -42767,7 +42767,7 @@
     </row>
     <row r="5302" spans="1:2">
       <c r="A5302">
-        <v>0.09018377611376031</v>
+        <v>0.0901837761137603</v>
       </c>
       <c r="B5302">
         <v>-0.07630495131817838</v>
@@ -42815,7 +42815,7 @@
     </row>
     <row r="5308" spans="1:2">
       <c r="A5308">
-        <v>0.09812195313535713</v>
+        <v>0.09812195313535714</v>
       </c>
       <c r="B5308">
         <v>-0.06530494723305535</v>
@@ -42831,7 +42831,7 @@
     </row>
     <row r="5310" spans="1:2">
       <c r="A5310">
-        <v>0.09938377913362281</v>
+        <v>0.09938377913362283</v>
       </c>
       <c r="B5310">
         <v>-0.04920428097756568</v>
@@ -43007,7 +43007,7 @@
     </row>
     <row r="5332" spans="1:2">
       <c r="A5332">
-        <v>0.09813072329498801</v>
+        <v>0.098130723294988</v>
       </c>
       <c r="B5332">
         <v>-0.1094582501393182</v>
@@ -43071,7 +43071,7 @@
     </row>
     <row r="5340" spans="1:2">
       <c r="A5340">
-        <v>0.08998552150635566</v>
+        <v>0.08998552150635565</v>
       </c>
       <c r="B5340">
         <v>-0.09038239129089432</v>
@@ -43127,7 +43127,7 @@
     </row>
     <row r="5347" spans="1:2">
       <c r="A5347">
-        <v>0.07921355196204785</v>
+        <v>0.07921355196204784</v>
       </c>
       <c r="B5347">
         <v>-0.09306620978119806</v>
@@ -43335,7 +43335,7 @@
     </row>
     <row r="5373" spans="1:2">
       <c r="A5373">
-        <v>0.04504057767435797</v>
+        <v>0.04504057767435798</v>
       </c>
       <c r="B5373">
         <v>-0.05357485064235146</v>
@@ -43431,7 +43431,7 @@
     </row>
     <row r="5385" spans="1:2">
       <c r="A5385">
-        <v>0.04057777803691227</v>
+        <v>0.04057777803691228</v>
       </c>
       <c r="B5385">
         <v>-0.0373199789218992</v>
@@ -43487,7 +43487,7 @@
     </row>
     <row r="5392" spans="1:2">
       <c r="A5392">
-        <v>0.03400716104546224</v>
+        <v>0.03400716104546223</v>
       </c>
       <c r="B5392">
         <v>-0.03982255101873822</v>
@@ -43495,7 +43495,7 @@
     </row>
     <row r="5393" spans="1:2">
       <c r="A5393">
-        <v>0.03272268394490527</v>
+        <v>0.03272268394490358</v>
       </c>
       <c r="B5393">
         <v>-0.04651720092703115</v>
@@ -43503,7 +43503,7 @@
     </row>
     <row r="5394" spans="1:2">
       <c r="A5394">
-        <v>0.03215152632126682</v>
+        <v>0.03215152632126683</v>
       </c>
       <c r="B5394">
         <v>-0.03163852418675983</v>
@@ -45327,7 +45327,7 @@
     </row>
     <row r="5622" spans="1:2">
       <c r="A5622">
-        <v>-0.03540875026531759</v>
+        <v>-0.03540875026531758</v>
       </c>
       <c r="B5622">
         <v>0.05361215468866742</v>
@@ -45335,7 +45335,7 @@
     </row>
     <row r="5623" spans="1:2">
       <c r="A5623">
-        <v>-0.03544848582456213</v>
+        <v>-0.03544848582456212</v>
       </c>
       <c r="B5623">
         <v>0.04059048899420326</v>
@@ -45487,7 +45487,7 @@
     </row>
     <row r="5642" spans="1:2">
       <c r="A5642">
-        <v>-0.04032045166609767</v>
+        <v>-0.04032045166609768</v>
       </c>
       <c r="B5642">
         <v>0.02730996242981032</v>
@@ -45519,7 +45519,7 @@
     </row>
     <row r="5646" spans="1:2">
       <c r="A5646">
-        <v>-0.03958229167477284</v>
+        <v>-0.03958229167477283</v>
       </c>
       <c r="B5646">
         <v>0.03756978621111351</v>
@@ -45751,7 +45751,7 @@
     </row>
     <row r="5675" spans="1:2">
       <c r="A5675">
-        <v>-0.04015879573077109</v>
+        <v>-0.04015879573077237</v>
       </c>
       <c r="B5675">
         <v>0.0492095516902995</v>
@@ -45775,7 +45775,7 @@
     </row>
     <row r="5678" spans="1:2">
       <c r="A5678">
-        <v>-0.04022962271631915</v>
+        <v>-0.04022962271631914</v>
       </c>
       <c r="B5678">
         <v>0.0455123670330515</v>
@@ -45783,7 +45783,7 @@
     </row>
     <row r="5679" spans="1:2">
       <c r="A5679">
-        <v>-0.04000445070782563</v>
+        <v>-0.04000445070782562</v>
       </c>
       <c r="B5679">
         <v>0.05290936199557272</v>
@@ -45791,7 +45791,7 @@
     </row>
     <row r="5680" spans="1:2">
       <c r="A5680">
-        <v>-0.04041856365961151</v>
+        <v>-0.04041856365961152</v>
       </c>
       <c r="B5680">
         <v>0.03179728103400592</v>
@@ -45823,7 +45823,7 @@
     </row>
     <row r="5684" spans="1:2">
       <c r="A5684">
-        <v>-0.0421422918741453</v>
+        <v>-0.04214229187414529</v>
       </c>
       <c r="B5684">
         <v>0.03064037118332807</v>
@@ -45943,7 +45943,7 @@
     </row>
     <row r="5699" spans="1:2">
       <c r="A5699">
-        <v>-0.04121459009377561</v>
+        <v>-0.0412145900937756</v>
       </c>
       <c r="B5699">
         <v>0.03589925794855642</v>
@@ -45975,7 +45975,7 @@
     </row>
     <row r="5703" spans="1:2">
       <c r="A5703">
-        <v>-0.03995593220019647</v>
+        <v>-0.03995593220019648</v>
       </c>
       <c r="B5703">
         <v>0.04096366905094317</v>
@@ -46015,7 +46015,7 @@
     </row>
     <row r="5708" spans="1:2">
       <c r="A5708">
-        <v>-0.03739455968904462</v>
+        <v>-0.03739455968904463</v>
       </c>
       <c r="B5708">
         <v>0.02363209609049655</v>
@@ -46135,7 +46135,7 @@
     </row>
     <row r="5723" spans="1:2">
       <c r="A5723">
-        <v>-0.03691125709267615</v>
+        <v>-0.03691125709267614</v>
       </c>
       <c r="B5723">
         <v>0.01540218093101675</v>
@@ -46159,7 +46159,7 @@
     </row>
     <row r="5726" spans="1:2">
       <c r="A5726">
-        <v>-0.03722868908927053</v>
+        <v>-0.03722868908927052</v>
       </c>
       <c r="B5726">
         <v>0.004723059314727607</v>
@@ -46175,7 +46175,7 @@
     </row>
     <row r="5728" spans="1:2">
       <c r="A5728">
-        <v>-0.03822216288159352</v>
+        <v>-0.03822216288159353</v>
       </c>
       <c r="B5728">
         <v>0.02411705915196549</v>
@@ -46199,7 +46199,7 @@
     </row>
     <row r="5731" spans="1:2">
       <c r="A5731">
-        <v>-0.03979892593734298</v>
+        <v>-0.03979892593734299</v>
       </c>
       <c r="B5731">
         <v>0.01286071025504576</v>
@@ -46223,7 +46223,7 @@
     </row>
     <row r="5734" spans="1:2">
       <c r="A5734">
-        <v>-0.04175371326215156</v>
+        <v>-0.04175371326215155</v>
       </c>
       <c r="B5734">
         <v>0.0003059359947021889</v>
@@ -46303,7 +46303,7 @@
     </row>
     <row r="5744" spans="1:2">
       <c r="A5744">
-        <v>-0.04149045614468628</v>
+        <v>-0.04149045614468627</v>
       </c>
       <c r="B5744">
         <v>0.03616619542203825</v>
@@ -46319,7 +46319,7 @@
     </row>
     <row r="5746" spans="1:2">
       <c r="A5746">
-        <v>-0.04171930792732955</v>
+        <v>-0.04171930792732956</v>
       </c>
       <c r="B5746">
         <v>0.017714553899006</v>
@@ -46519,7 +46519,7 @@
     </row>
     <row r="5771" spans="1:2">
       <c r="A5771">
-        <v>-0.04290686826714784</v>
+        <v>-0.04290686826714785</v>
       </c>
       <c r="B5771">
         <v>0.04166285405365633</v>
@@ -46543,7 +46543,7 @@
     </row>
     <row r="5774" spans="1:2">
       <c r="A5774">
-        <v>-0.04371576174230591</v>
+        <v>-0.04371576174230592</v>
       </c>
       <c r="B5774">
         <v>0.02773427452364441</v>
@@ -46647,7 +46647,7 @@
     </row>
     <row r="5787" spans="1:2">
       <c r="A5787">
-        <v>-0.04305864138051165</v>
+        <v>-0.04305864138051166</v>
       </c>
       <c r="B5787">
         <v>0.04034878746783388</v>
@@ -47743,7 +47743,7 @@
     </row>
     <row r="5924" spans="1:2">
       <c r="A5924">
-        <v>-0.01054641266687342</v>
+        <v>-0.01054641266687341</v>
       </c>
       <c r="B5924">
         <v>0.006482710757550247</v>
@@ -48903,7 +48903,7 @@
     </row>
     <row r="6069" spans="1:2">
       <c r="A6069">
-        <v>0.03777768133109675</v>
+        <v>0.03777768133109676</v>
       </c>
       <c r="B6069">
         <v>0.02211955245668085</v>
@@ -48967,7 +48967,7 @@
     </row>
     <row r="6077" spans="1:2">
       <c r="A6077">
-        <v>0.03984844898071536</v>
+        <v>0.03984844898071537</v>
       </c>
       <c r="B6077">
         <v>-0.04456676639444535</v>
@@ -49319,7 +49319,7 @@
     </row>
     <row r="6121" spans="1:2">
       <c r="A6121">
-        <v>0.03698299060215885</v>
+        <v>0.03698299060215884</v>
       </c>
       <c r="B6121">
         <v>-0.02218054474832165</v>
@@ -49455,7 +49455,7 @@
     </row>
     <row r="6138" spans="1:2">
       <c r="A6138">
-        <v>0.0257438980623818</v>
+        <v>0.02574389806238181</v>
       </c>
       <c r="B6138">
         <v>-0.01126016878053537</v>
@@ -49559,7 +49559,7 @@
     </row>
     <row r="6151" spans="1:2">
       <c r="A6151">
-        <v>0.01915158967301667</v>
+        <v>0.01915158967301666</v>
       </c>
       <c r="B6151">
         <v>-0.006527397767523979</v>
@@ -49599,7 +49599,7 @@
     </row>
     <row r="6156" spans="1:2">
       <c r="A6156">
-        <v>0.01820263914106309</v>
+        <v>0.01820263914106308</v>
       </c>
       <c r="B6156">
         <v>-0.008845109001048623</v>
@@ -49663,7 +49663,7 @@
     </row>
     <row r="6164" spans="1:2">
       <c r="A6164">
-        <v>0.01704827153961565</v>
+        <v>0.01704827153961564</v>
       </c>
       <c r="B6164">
         <v>-0.001284579887834703</v>
@@ -49775,7 +49775,7 @@
     </row>
     <row r="6178" spans="1:2">
       <c r="A6178">
-        <v>0.01207575095030133</v>
+        <v>0.01207575095030134</v>
       </c>
       <c r="B6178">
         <v>-0.01632445802920035</v>
@@ -49799,7 +49799,7 @@
     </row>
     <row r="6181" spans="1:2">
       <c r="A6181">
-        <v>0.009713748291455718</v>
+        <v>0.00971374829145572</v>
       </c>
       <c r="B6181">
         <v>-0.01344231532161899</v>
@@ -49879,7 +49879,7 @@
     </row>
     <row r="6191" spans="1:2">
       <c r="A6191">
-        <v>0.007922824046672761</v>
+        <v>0.007922824046672763</v>
       </c>
       <c r="B6191">
         <v>-0.01689378009358</v>
@@ -49983,7 +49983,7 @@
     </row>
     <row r="6204" spans="1:2">
       <c r="A6204">
-        <v>0.01137487283752451</v>
+        <v>0.0113748728375245</v>
       </c>
       <c r="B6204">
         <v>0.005210674349732436</v>
@@ -50055,7 +50055,7 @@
     </row>
     <row r="6213" spans="1:2">
       <c r="A6213">
-        <v>0.01222084432403789</v>
+        <v>0.0122208443240379</v>
       </c>
       <c r="B6213">
         <v>-0.003619592777466707</v>
@@ -50143,7 +50143,7 @@
     </row>
     <row r="6224" spans="1:2">
       <c r="A6224">
-        <v>0.009520135736589108</v>
+        <v>0.00952013573658911</v>
       </c>
       <c r="B6224">
         <v>-0.01352041874504684</v>
@@ -50175,7 +50175,7 @@
     </row>
     <row r="6228" spans="1:2">
       <c r="A6228">
-        <v>0.007798863316403604</v>
+        <v>0.007798863316403605</v>
       </c>
       <c r="B6228">
         <v>-0.0167034816467857</v>
@@ -50191,7 +50191,7 @@
     </row>
     <row r="6230" spans="1:2">
       <c r="A6230">
-        <v>0.007675702147694936</v>
+        <v>0.007675702147694937</v>
       </c>
       <c r="B6230">
         <v>-0.01541921280801306</v>
@@ -50239,7 +50239,7 @@
     </row>
     <row r="6236" spans="1:2">
       <c r="A6236">
-        <v>0.009588128232931712</v>
+        <v>0.00958812823293171</v>
       </c>
       <c r="B6236">
         <v>-0.006777517201776107</v>
@@ -50279,7 +50279,7 @@
     </row>
     <row r="6241" spans="1:2">
       <c r="A6241">
-        <v>0.007126786903023215</v>
+        <v>0.007126786903023216</v>
       </c>
       <c r="B6241">
         <v>-0.01194542287560907</v>
@@ -50311,7 +50311,7 @@
     </row>
     <row r="6245" spans="1:2">
       <c r="A6245">
-        <v>0.004928255037785995</v>
+        <v>0.004928255037785994</v>
       </c>
       <c r="B6245">
         <v>-0.01346268953666074</v>
@@ -50351,7 +50351,7 @@
     </row>
     <row r="6250" spans="1:2">
       <c r="A6250">
-        <v>0.001254576263074654</v>
+        <v>0.001254576263074653</v>
       </c>
       <c r="B6250">
         <v>-0.01259662901094138</v>
@@ -50415,7 +50415,7 @@
     </row>
     <row r="6258" spans="1:2">
       <c r="A6258">
-        <v>-0.009175872433042803</v>
+        <v>-0.009175872433042805</v>
       </c>
       <c r="B6258">
         <v>-0.02501009263104637</v>
@@ -50455,7 +50455,7 @@
     </row>
     <row r="6263" spans="1:2">
       <c r="A6263">
-        <v>-0.01288402278874539</v>
+        <v>-0.0128840227887454</v>
       </c>
       <c r="B6263">
         <v>-0.009042938895261976</v>
@@ -50527,7 +50527,7 @@
     </row>
     <row r="6272" spans="1:2">
       <c r="A6272">
-        <v>-0.02210479772772079</v>
+        <v>-0.02210479772772078</v>
       </c>
       <c r="B6272">
         <v>0.004166835652938072</v>
@@ -50727,7 +50727,7 @@
     </row>
     <row r="6297" spans="1:2">
       <c r="A6297">
-        <v>-0.03881111156984969</v>
+        <v>-0.0388111115698497</v>
       </c>
       <c r="B6297">
         <v>0.02500484904102507</v>
@@ -50735,7 +50735,7 @@
     </row>
     <row r="6298" spans="1:2">
       <c r="A6298">
-        <v>-0.03911778717306662</v>
+        <v>-0.03911778717306661</v>
       </c>
       <c r="B6298">
         <v>0.02946777120335886</v>
@@ -50775,7 +50775,7 @@
     </row>
     <row r="6303" spans="1:2">
       <c r="A6303">
-        <v>-0.04071176002021397</v>
+        <v>-0.04071176002021398</v>
       </c>
       <c r="B6303">
         <v>0.0235672244352374</v>
@@ -50815,7 +50815,7 @@
     </row>
     <row r="6308" spans="1:2">
       <c r="A6308">
-        <v>-0.04133227496041919</v>
+        <v>-0.04133227496041918</v>
       </c>
       <c r="B6308">
         <v>0.02967653664451131</v>
@@ -50831,7 +50831,7 @@
     </row>
     <row r="6310" spans="1:2">
       <c r="A6310">
-        <v>-0.04136259788862263</v>
+        <v>-0.04136259788862264</v>
       </c>
       <c r="B6310">
         <v>0.02609019740564111</v>
@@ -50871,7 +50871,7 @@
     </row>
     <row r="6315" spans="1:2">
       <c r="A6315">
-        <v>-0.04082038880183829</v>
+        <v>-0.04082038880183828</v>
       </c>
       <c r="B6315">
         <v>0.02272377897450717</v>
@@ -50879,7 +50879,7 @@
     </row>
     <row r="6316" spans="1:2">
       <c r="A6316">
-        <v>-0.04043518587476851</v>
+        <v>-0.0404351858747685</v>
       </c>
       <c r="B6316">
         <v>0.02666990034849359</v>
@@ -50887,7 +50887,7 @@
     </row>
     <row r="6317" spans="1:2">
       <c r="A6317">
-        <v>-0.03977526199156113</v>
+        <v>-0.03977526199156114</v>
       </c>
       <c r="B6317">
         <v>0.03066579953878446</v>
@@ -50943,7 +50943,7 @@
     </row>
     <row r="6324" spans="1:2">
       <c r="A6324">
-        <v>-0.03632644580691009</v>
+        <v>-0.03632644580691008</v>
       </c>
       <c r="B6324">
         <v>0.02865509716152248</v>
@@ -51079,7 +51079,7 @@
     </row>
     <row r="6341" spans="1:2">
       <c r="A6341">
-        <v>-0.02628199468203861</v>
+        <v>-0.0262819946820386</v>
       </c>
       <c r="B6341">
         <v>0.02591487881295018</v>
@@ -51303,7 +51303,7 @@
     </row>
     <row r="6369" spans="1:2">
       <c r="A6369">
-        <v>-0.01039818138136703</v>
+        <v>-0.01039818138136702</v>
       </c>
       <c r="B6369">
         <v>0.01021254042593744</v>
@@ -51327,7 +51327,7 @@
     </row>
     <row r="6372" spans="1:2">
       <c r="A6372">
-        <v>-0.006985581936039104</v>
+        <v>-0.006985581936039105</v>
       </c>
       <c r="B6372">
         <v>0.01527745326981078</v>
@@ -51335,7 +51335,7 @@
     </row>
     <row r="6373" spans="1:2">
       <c r="A6373">
-        <v>-0.00557716993721215</v>
+        <v>-0.005577169937212151</v>
       </c>
       <c r="B6373">
         <v>0.01759831760480468</v>
@@ -51415,7 +51415,7 @@
     </row>
     <row r="6383" spans="1:2">
       <c r="A6383">
-        <v>-2.619441263790198E-05</v>
+        <v>-2.619441263790199E-05</v>
       </c>
       <c r="B6383">
         <v>0.01214657166006461</v>
@@ -51463,7 +51463,7 @@
     </row>
     <row r="6389" spans="1:2">
       <c r="A6389">
-        <v>-6.176848174519129E-05</v>
+        <v>-6.176848174519127E-05</v>
       </c>
       <c r="B6389">
         <v>-0.0006007873646911577</v>
@@ -51487,7 +51487,7 @@
     </row>
     <row r="6392" spans="1:2">
       <c r="A6392">
-        <v>-0.0007068601921398567</v>
+        <v>-0.0007068601921398566</v>
       </c>
       <c r="B6392">
         <v>-0.007080490572267006</v>
@@ -51495,7 +51495,7 @@
     </row>
     <row r="6393" spans="1:2">
       <c r="A6393">
-        <v>-0.0005243977777801378</v>
+        <v>-0.0005243977777801379</v>
       </c>
       <c r="B6393">
         <v>-0.007693985478568255</v>
@@ -51511,7 +51511,7 @@
     </row>
     <row r="6395" spans="1:2">
       <c r="A6395">
-        <v>0.0002952495255635837</v>
+        <v>0.0002952495255635836</v>
       </c>
       <c r="B6395">
         <v>-0.008360088649832509</v>
@@ -51559,7 +51559,7 @@
     </row>
     <row r="6401" spans="1:2">
       <c r="A6401">
-        <v>0.00515752455651045</v>
+        <v>0.005157524556510451</v>
       </c>
       <c r="B6401">
         <v>-0.0009940458625985471</v>
@@ -51639,7 +51639,7 @@
     </row>
     <row r="6411" spans="1:2">
       <c r="A6411">
-        <v>0.001305168918361283</v>
+        <v>0.001305168918361282</v>
       </c>
       <c r="B6411">
         <v>-0.01230710276436398</v>
@@ -51663,7 +51663,7 @@
     </row>
     <row r="6414" spans="1:2">
       <c r="A6414">
-        <v>-0.001177110139875979</v>
+        <v>-0.001177110139875978</v>
       </c>
       <c r="B6414">
         <v>-0.01464181538584386</v>
@@ -51735,7 +51735,7 @@
     </row>
     <row r="6423" spans="1:2">
       <c r="A6423">
-        <v>-0.008101529665566116</v>
+        <v>-0.008101529665566114</v>
       </c>
       <c r="B6423">
         <v>-0.01369259584622329</v>
@@ -51879,7 +51879,7 @@
     </row>
     <row r="6441" spans="1:2">
       <c r="A6441">
-        <v>-0.0258367181723078</v>
+        <v>-0.02583671817230781</v>
       </c>
       <c r="B6441">
         <v>0.008174040874679989</v>
@@ -51975,7 +51975,7 @@
     </row>
     <row r="6453" spans="1:2">
       <c r="A6453">
-        <v>-0.03550452178791142</v>
+        <v>-0.03550452178791143</v>
       </c>
       <c r="B6453">
         <v>0.02923413931285435</v>
@@ -51983,7 +51983,7 @@
     </row>
     <row r="6454" spans="1:2">
       <c r="A6454">
-        <v>-0.03669023357547432</v>
+        <v>-0.03669023357547433</v>
       </c>
       <c r="B6454">
         <v>0.02309428602411767</v>
@@ -52023,7 +52023,7 @@
     </row>
     <row r="6459" spans="1:2">
       <c r="A6459">
-        <v>-0.0419868453003041</v>
+        <v>-0.04198684530030411</v>
       </c>
       <c r="B6459">
         <v>0.02230983483622273</v>
@@ -52039,7 +52039,7 @@
     </row>
     <row r="6461" spans="1:2">
       <c r="A6461">
-        <v>-0.04284353727738603</v>
+        <v>-0.04284353727738604</v>
       </c>
       <c r="B6461">
         <v>0.02223557090854644</v>
@@ -52071,7 +52071,7 @@
     </row>
     <row r="6465" spans="1:2">
       <c r="A6465">
-        <v>-0.04746946725414223</v>
+        <v>-0.04746946725414222</v>
       </c>
       <c r="B6465">
         <v>0.02798227133129672</v>
@@ -52111,7 +52111,7 @@
     </row>
     <row r="6470" spans="1:2">
       <c r="A6470">
-        <v>-0.05108256298604772</v>
+        <v>-0.05108256298604771</v>
       </c>
       <c r="B6470">
         <v>0.03184221151432576</v>
@@ -52135,7 +52135,7 @@
     </row>
     <row r="6473" spans="1:2">
       <c r="A6473">
-        <v>-0.05205728430750679</v>
+        <v>-0.0520572843075068</v>
       </c>
       <c r="B6473">
         <v>0.03949137149083137</v>
@@ -52175,7 +52175,7 @@
     </row>
     <row r="6478" spans="1:2">
       <c r="A6478">
-        <v>-0.05269931956807923</v>
+        <v>-0.05269931956807922</v>
       </c>
       <c r="B6478">
         <v>0.04972196270037044</v>
@@ -52223,7 +52223,7 @@
     </row>
     <row r="6484" spans="1:2">
       <c r="A6484">
-        <v>-0.05544931270448668</v>
+        <v>-0.05544931270448667</v>
       </c>
       <c r="B6484">
         <v>0.04435393131490306</v>
@@ -52255,7 +52255,7 @@
     </row>
     <row r="6488" spans="1:2">
       <c r="A6488">
-        <v>-0.06143756838920661</v>
+        <v>-0.0614375683892066</v>
       </c>
       <c r="B6488">
         <v>0.0457324843850313</v>
@@ -52311,7 +52311,7 @@
     </row>
     <row r="6495" spans="1:2">
       <c r="A6495">
-        <v>-0.06918774000333536</v>
+        <v>-0.06918774000333537</v>
       </c>
       <c r="B6495">
         <v>0.04027550525650359</v>
@@ -52367,7 +52367,7 @@
     </row>
     <row r="6502" spans="1:2">
       <c r="A6502">
-        <v>-0.07312295470474489</v>
+        <v>-0.07312295470474488</v>
       </c>
       <c r="B6502">
         <v>0.04766400557258832</v>
@@ -52375,7 +52375,7 @@
     </row>
     <row r="6503" spans="1:2">
       <c r="A6503">
-        <v>-0.07334815869335276</v>
+        <v>-0.07334815869335277</v>
       </c>
       <c r="B6503">
         <v>0.05520377439110202</v>
@@ -52391,7 +52391,7 @@
     </row>
     <row r="6505" spans="1:2">
       <c r="A6505">
-        <v>-0.07364884988056114</v>
+        <v>-0.07364884988056115</v>
       </c>
       <c r="B6505">
         <v>0.05640318516473197</v>
@@ -52471,7 +52471,7 @@
     </row>
     <row r="6515" spans="1:2">
       <c r="A6515">
-        <v>-0.07516976293340932</v>
+        <v>-0.07516976293340931</v>
       </c>
       <c r="B6515">
         <v>0.06185211924702694</v>
@@ -52511,7 +52511,7 @@
     </row>
     <row r="6520" spans="1:2">
       <c r="A6520">
-        <v>-0.07448128357739073</v>
+        <v>-0.07448128357739074</v>
       </c>
       <c r="B6520">
         <v>0.06137756695667163</v>
@@ -52535,7 +52535,7 @@
     </row>
     <row r="6523" spans="1:2">
       <c r="A6523">
-        <v>-0.07460750261446228</v>
+        <v>-0.07460750261446229</v>
       </c>
       <c r="B6523">
         <v>0.06064097128309509</v>
@@ -52559,7 +52559,7 @@
     </row>
     <row r="6526" spans="1:2">
       <c r="A6526">
-        <v>-0.0747663533095537</v>
+        <v>-0.07476635330955371</v>
       </c>
       <c r="B6526">
         <v>0.0590021263936924</v>
@@ -52599,7 +52599,7 @@
     </row>
     <row r="6531" spans="1:2">
       <c r="A6531">
-        <v>-0.07192027719698363</v>
+        <v>-0.07192027719698361</v>
       </c>
       <c r="B6531">
         <v>0.05957884014656711</v>
@@ -52639,7 +52639,7 @@
     </row>
     <row r="6536" spans="1:2">
       <c r="A6536">
-        <v>-0.0705877392163593</v>
+        <v>-0.07058773921635929</v>
       </c>
       <c r="B6536">
         <v>0.05542759124352825</v>
@@ -52663,7 +52663,7 @@
     </row>
     <row r="6539" spans="1:2">
       <c r="A6539">
-        <v>-0.06748853734496393</v>
+        <v>-0.06748853734496392</v>
       </c>
       <c r="B6539">
         <v>0.0497825300628647</v>
@@ -52679,7 +52679,7 @@
     </row>
     <row r="6541" spans="1:2">
       <c r="A6541">
-        <v>-0.06571892539818455</v>
+        <v>-0.06571892539818454</v>
       </c>
       <c r="B6541">
         <v>0.0589601803941453</v>
@@ -52703,7 +52703,7 @@
     </row>
     <row r="6544" spans="1:2">
       <c r="A6544">
-        <v>-0.06383602245933506</v>
+        <v>-0.06383602245933505</v>
       </c>
       <c r="B6544">
         <v>0.04963555849581835</v>
@@ -52743,7 +52743,7 @@
     </row>
     <row r="6549" spans="1:2">
       <c r="A6549">
-        <v>-0.05737494610140056</v>
+        <v>-0.05737494610140057</v>
       </c>
       <c r="B6549">
         <v>0.05453825497841303</v>
@@ -52815,7 +52815,7 @@
     </row>
     <row r="6558" spans="1:2">
       <c r="A6558">
-        <v>-0.04599940106849941</v>
+        <v>-0.0459994010684994</v>
       </c>
       <c r="B6558">
         <v>0.06013756755484945</v>
@@ -52871,7 +52871,7 @@
     </row>
     <row r="6565" spans="1:2">
       <c r="A6565">
-        <v>-0.0383246910612869</v>
+        <v>-0.03832469106128689</v>
       </c>
       <c r="B6565">
         <v>0.05055357703119201</v>
@@ -53023,7 +53023,7 @@
     </row>
     <row r="6584" spans="1:2">
       <c r="A6584">
-        <v>-0.03222995260078268</v>
+        <v>-0.03222995260078269</v>
       </c>
       <c r="B6584">
         <v>0.0183676519378686</v>
@@ -53095,7 +53095,7 @@
     </row>
     <row r="6593" spans="1:2">
       <c r="A6593">
-        <v>-0.02855217944893824</v>
+        <v>-0.02855217944893825</v>
       </c>
       <c r="B6593">
         <v>0.025503174377008</v>
@@ -53231,7 +53231,7 @@
     </row>
     <row r="6610" spans="1:2">
       <c r="A6610">
-        <v>-0.02029364837972718</v>
+        <v>-0.02029364837972719</v>
       </c>
       <c r="B6610">
         <v>0.0230204341434348</v>
@@ -53439,7 +53439,7 @@
     </row>
     <row r="6636" spans="1:2">
       <c r="A6636">
-        <v>-0.008605909623236176</v>
+        <v>-0.008605909623236178</v>
       </c>
       <c r="B6636">
         <v>0.01812371072085828</v>
@@ -53551,7 +53551,7 @@
     </row>
     <row r="6650" spans="1:2">
       <c r="A6650">
-        <v>-0.007068752797048284</v>
+        <v>-0.007068752797048283</v>
       </c>
       <c r="B6650">
         <v>0.001943579645784066</v>
@@ -53559,7 +53559,7 @@
     </row>
     <row r="6651" spans="1:2">
       <c r="A6651">
-        <v>-0.005943432961258828</v>
+        <v>-0.005943432961258827</v>
       </c>
       <c r="B6651">
         <v>0.003575605245477842</v>
@@ -53623,7 +53623,7 @@
     </row>
     <row r="6659" spans="1:2">
       <c r="A6659">
-        <v>0.004596464869882716</v>
+        <v>0.004596464869882715</v>
       </c>
       <c r="B6659">
         <v>0.01970818423947351</v>
@@ -53631,7 +53631,7 @@
     </row>
     <row r="6660" spans="1:2">
       <c r="A6660">
-        <v>0.005368113076406823</v>
+        <v>0.005368113076406822</v>
       </c>
       <c r="B6660">
         <v>0.01862389876602899</v>
@@ -53663,7 +53663,7 @@
     </row>
     <row r="6664" spans="1:2">
       <c r="A6664">
-        <v>0.007919923178311784</v>
+        <v>0.007919923178311783</v>
       </c>
       <c r="B6664">
         <v>0.01595779745435388</v>
@@ -53783,7 +53783,7 @@
     </row>
     <row r="6679" spans="1:2">
       <c r="A6679">
-        <v>0.01407394625703324</v>
+        <v>0.01407394625703323</v>
       </c>
       <c r="B6679">
         <v>-0.007410705360836989</v>
@@ -53807,7 +53807,7 @@
     </row>
     <row r="6682" spans="1:2">
       <c r="A6682">
-        <v>0.0146169709917853</v>
+        <v>0.01461697099178529</v>
       </c>
       <c r="B6682">
         <v>-0.0122797685947118</v>
@@ -53967,7 +53967,7 @@
     </row>
     <row r="6702" spans="1:2">
       <c r="A6702">
-        <v>0.01500334706822138</v>
+        <v>0.01500334706822137</v>
       </c>
       <c r="B6702">
         <v>-0.0180449478450071</v>
@@ -54079,7 +54079,7 @@
     </row>
     <row r="6716" spans="1:2">
       <c r="A6716">
-        <v>0.02421919217582814</v>
+        <v>0.02421919217583343</v>
       </c>
       <c r="B6716">
         <v>-0.009741705857591931</v>
@@ -54111,7 +54111,7 @@
     </row>
     <row r="6720" spans="1:2">
       <c r="A6720">
-        <v>0.02715900163942647</v>
+        <v>0.02715900163942646</v>
       </c>
       <c r="B6720">
         <v>-0.007901700943065304</v>
@@ -54119,7 +54119,7 @@
     </row>
     <row r="6721" spans="1:2">
       <c r="A6721">
-        <v>0.02740013933268973</v>
+        <v>0.02740013933268972</v>
       </c>
       <c r="B6721">
         <v>-0.01258328232810957</v>
@@ -54535,7 +54535,7 @@
     </row>
     <row r="6773" spans="1:2">
       <c r="A6773">
-        <v>0.05499915452110232</v>
+        <v>0.05499915452110233</v>
       </c>
       <c r="B6773">
         <v>-0.04226214556508756</v>
@@ -54559,7 +54559,7 @@
     </row>
     <row r="6776" spans="1:2">
       <c r="A6776">
-        <v>0.05415651896617762</v>
+        <v>0.05415651896617763</v>
       </c>
       <c r="B6776">
         <v>-0.05128669689282495</v>
@@ -54615,7 +54615,7 @@
     </row>
     <row r="6783" spans="1:2">
       <c r="A6783">
-        <v>0.05301407312473784</v>
+        <v>0.05301407312473783</v>
       </c>
       <c r="B6783">
         <v>-0.05591383754092449</v>
@@ -54623,7 +54623,7 @@
     </row>
     <row r="6784" spans="1:2">
       <c r="A6784">
-        <v>0.05297791619015598</v>
+        <v>0.05297791619015599</v>
       </c>
       <c r="B6784">
         <v>-0.06293601180426434</v>
@@ -54847,7 +54847,7 @@
     </row>
     <row r="6812" spans="1:2">
       <c r="A6812">
-        <v>0.02422579308911845</v>
+        <v>0.02422579308911846</v>
       </c>
       <c r="B6812">
         <v>-0.08569658617026699</v>
@@ -54919,7 +54919,7 @@
     </row>
     <row r="6821" spans="1:2">
       <c r="A6821">
-        <v>0.005485109301483624</v>
+        <v>0.005485109301483625</v>
       </c>
       <c r="B6821">
         <v>-0.04869207360949135</v>
@@ -54927,7 +54927,7 @@
     </row>
     <row r="6822" spans="1:2">
       <c r="A6822">
-        <v>0.003178689774643595</v>
+        <v>0.003178689774643596</v>
       </c>
       <c r="B6822">
         <v>-0.03463345836105525</v>
@@ -55055,7 +55055,7 @@
     </row>
     <row r="6838" spans="1:2">
       <c r="A6838">
-        <v>-0.05260517716213392</v>
+        <v>-0.05260517716213391</v>
       </c>
       <c r="B6838">
         <v>0.00442202233599609</v>
@@ -55063,7 +55063,7 @@
     </row>
     <row r="6839" spans="1:2">
       <c r="A6839">
-        <v>-0.05556536831100412</v>
+        <v>-0.05556536831100411</v>
       </c>
       <c r="B6839">
         <v>-0.02486885069153111</v>
@@ -55095,7 +55095,7 @@
     </row>
     <row r="6843" spans="1:2">
       <c r="A6843">
-        <v>-0.07035985208938492</v>
+        <v>-0.0703598520893849</v>
       </c>
       <c r="B6843">
         <v>-0.005750574349149495</v>
@@ -55135,7 +55135,7 @@
     </row>
     <row r="6848" spans="1:2">
       <c r="A6848">
-        <v>-0.0824141143639322</v>
+        <v>-0.08241411436393219</v>
       </c>
       <c r="B6848">
         <v>0.04387100207307881</v>
@@ -55143,7 +55143,7 @@
     </row>
     <row r="6849" spans="1:2">
       <c r="A6849">
-        <v>-0.08478390464081534</v>
+        <v>-0.08478390464081532</v>
       </c>
       <c r="B6849">
         <v>0.0142955900477153</v>
@@ -55151,7 +55151,7 @@
     </row>
     <row r="6850" spans="1:2">
       <c r="A6850">
-        <v>-0.08698336274155147</v>
+        <v>-0.08698336274155148</v>
       </c>
       <c r="B6850">
         <v>0.03558583491804246</v>
@@ -55167,7 +55167,7 @@
     </row>
     <row r="6852" spans="1:2">
       <c r="A6852">
-        <v>-0.08911951779319918</v>
+        <v>-0.0891195177931992</v>
       </c>
       <c r="B6852">
         <v>0.02915263104562849</v>
@@ -55295,7 +55295,7 @@
     </row>
     <row r="6868" spans="1:2">
       <c r="A6868">
-        <v>-0.08601864306159018</v>
+        <v>-0.0860186430615902</v>
       </c>
       <c r="B6868">
         <v>0.139814614658746</v>
@@ -55431,7 +55431,7 @@
     </row>
     <row r="6885" spans="1:2">
       <c r="A6885">
-        <v>-0.06463078547216167</v>
+        <v>-0.06463078547216165</v>
       </c>
       <c r="B6885">
         <v>0.08756300557245122</v>
@@ -55679,7 +55679,7 @@
     </row>
     <row r="6916" spans="1:2">
       <c r="A6916">
-        <v>0.006541928265072421</v>
+        <v>0.00654192826507242</v>
       </c>
       <c r="B6916">
         <v>0.03393460309989882</v>
@@ -55799,7 +55799,7 @@
     </row>
     <row r="6931" spans="1:2">
       <c r="A6931">
-        <v>0.0343827670248302</v>
+        <v>0.03438276702483021</v>
       </c>
       <c r="B6931">
         <v>-0.004115659694948537</v>
@@ -55895,7 +55895,7 @@
     </row>
     <row r="6943" spans="1:2">
       <c r="A6943">
-        <v>0.05306768107672598</v>
+        <v>0.05306768107672597</v>
       </c>
       <c r="B6943">
         <v>-0.004758227419652705</v>
@@ -56087,7 +56087,7 @@
     </row>
     <row r="6967" spans="1:2">
       <c r="A6967">
-        <v>0.08057400981832617</v>
+        <v>0.08057400981832616</v>
       </c>
       <c r="B6967">
         <v>-0.03635500332115749</v>
@@ -56167,7 +56167,7 @@
     </row>
     <row r="6977" spans="1:2">
       <c r="A6977">
-        <v>0.08433917477826611</v>
+        <v>0.08433917477826609</v>
       </c>
       <c r="B6977">
         <v>-0.09192969246713512</v>
@@ -56175,7 +56175,7 @@
     </row>
     <row r="6978" spans="1:2">
       <c r="A6978">
-        <v>0.08495525978939693</v>
+        <v>0.08495525978939694</v>
       </c>
       <c r="B6978">
         <v>-0.05936985264337302</v>
@@ -56199,7 +56199,7 @@
     </row>
     <row r="6981" spans="1:2">
       <c r="A6981">
-        <v>0.08436172085825022</v>
+        <v>0.08436172085825024</v>
       </c>
       <c r="B6981">
         <v>-0.05463528864061962</v>
@@ -56247,7 +56247,7 @@
     </row>
     <row r="6987" spans="1:2">
       <c r="A6987">
-        <v>0.07999015668142295</v>
+        <v>0.07999015668142294</v>
       </c>
       <c r="B6987">
         <v>-0.09168017916643079</v>
@@ -56255,7 +56255,7 @@
     </row>
     <row r="6988" spans="1:2">
       <c r="A6988">
-        <v>0.07873329238089709</v>
+        <v>0.07873329238089707</v>
       </c>
       <c r="B6988">
         <v>-0.06216582901413181</v>
@@ -56263,7 +56263,7 @@
     </row>
     <row r="6989" spans="1:2">
       <c r="A6989">
-        <v>0.07869346640799793</v>
+        <v>0.07869346640799792</v>
       </c>
       <c r="B6989">
         <v>-0.07343771549569755</v>
@@ -56271,7 +56271,7 @@
     </row>
     <row r="6990" spans="1:2">
       <c r="A6990">
-        <v>0.07765598349291179</v>
+        <v>0.07765598349291181</v>
       </c>
       <c r="B6990">
         <v>-0.08519952386854479</v>
@@ -56287,7 +56287,7 @@
     </row>
     <row r="6992" spans="1:2">
       <c r="A6992">
-        <v>0.07468680965406317</v>
+        <v>0.07468680965406319</v>
       </c>
       <c r="B6992">
         <v>-0.06908052168505296</v>
@@ -56335,7 +56335,7 @@
     </row>
     <row r="6998" spans="1:2">
       <c r="A6998">
-        <v>0.06676456102032037</v>
+        <v>0.06676456102032036</v>
       </c>
       <c r="B6998">
         <v>-0.09307157977061209</v>
@@ -56391,7 +56391,7 @@
     </row>
     <row r="7005" spans="1:2">
       <c r="A7005">
-        <v>0.05801873933847819</v>
+        <v>0.0580187393384782</v>
       </c>
       <c r="B7005">
         <v>-0.08182317795948668</v>
@@ -56567,7 +56567,7 @@
     </row>
     <row r="7027" spans="1:2">
       <c r="A7027">
-        <v>0.03523573819847551</v>
+        <v>0.03523573819847552</v>
       </c>
       <c r="B7027">
         <v>-0.0491896815957209</v>
@@ -56631,7 +56631,7 @@
     </row>
     <row r="7035" spans="1:2">
       <c r="A7035">
-        <v>0.03499830507853919</v>
+        <v>0.03499830507853918</v>
       </c>
       <c r="B7035">
         <v>-0.03167458517329669</v>
@@ -56655,7 +56655,7 @@
     </row>
     <row r="7038" spans="1:2">
       <c r="A7038">
-        <v>0.03352780319090147</v>
+        <v>0.03352780319090148</v>
       </c>
       <c r="B7038">
         <v>-0.02726335671223135</v>
@@ -56679,7 +56679,7 @@
     </row>
     <row r="7041" spans="1:2">
       <c r="A7041">
-        <v>0.03147703857870222</v>
+        <v>0.03147703857870223</v>
       </c>
       <c r="B7041">
         <v>-0.02531716692023434</v>
@@ -56727,7 +56727,7 @@
     </row>
     <row r="7047" spans="1:2">
       <c r="A7047">
-        <v>0.02670593396852944</v>
+        <v>0.02670593396852943</v>
       </c>
       <c r="B7047">
         <v>-0.02406030944961346</v>
@@ -56839,7 +56839,7 @@
     </row>
     <row r="7061" spans="1:2">
       <c r="A7061">
-        <v>0.02148238253448631</v>
+        <v>0.02148238253448632</v>
       </c>
       <c r="B7061">
         <v>-0.01843394024188694</v>
@@ -56895,7 +56895,7 @@
     </row>
     <row r="7068" spans="1:2">
       <c r="A7068">
-        <v>0.0211237650829509</v>
+        <v>0.02112376508295089</v>
       </c>
       <c r="B7068">
         <v>-0.01104861259333045</v>
@@ -56919,7 +56919,7 @@
     </row>
     <row r="7071" spans="1:2">
       <c r="A7071">
-        <v>0.01990150274630683</v>
+        <v>0.01990150274630684</v>
       </c>
       <c r="B7071">
         <v>-0.009842554089826372</v>
@@ -57055,7 +57055,7 @@
     </row>
     <row r="7088" spans="1:2">
       <c r="A7088">
-        <v>0.01882582214727721</v>
+        <v>0.0188258221472772</v>
       </c>
       <c r="B7088">
         <v>0.001836515387668047</v>
@@ -57071,7 +57071,7 @@
     </row>
     <row r="7090" spans="1:2">
       <c r="A7090">
-        <v>0.02066907986289635</v>
+        <v>0.02066907986289636</v>
       </c>
       <c r="B7090">
         <v>-0.002239831531421377</v>
@@ -57167,7 +57167,7 @@
     </row>
     <row r="7102" spans="1:2">
       <c r="A7102">
-        <v>0.02479051853432088</v>
+        <v>0.02479051853432089</v>
       </c>
       <c r="B7102">
         <v>-0.003425394889243538</v>
@@ -57175,7 +57175,7 @@
     </row>
     <row r="7103" spans="1:2">
       <c r="A7103">
-        <v>0.02509917655231989</v>
+        <v>0.0250991765523199</v>
       </c>
       <c r="B7103">
         <v>-0.009800463637580581</v>
@@ -57183,7 +57183,7 @@
     </row>
     <row r="7104" spans="1:2">
       <c r="A7104">
-        <v>0.02545406082467302</v>
+        <v>0.02545406082467301</v>
       </c>
       <c r="B7104">
         <v>0.002320879339424042</v>
@@ -57295,7 +57295,7 @@
     </row>
     <row r="7118" spans="1:2">
       <c r="A7118">
-        <v>0.03058387840047595</v>
+        <v>0.03058387840047594</v>
       </c>
       <c r="B7118">
         <v>-0.01940013481625069</v>
@@ -57327,7 +57327,7 @@
     </row>
     <row r="7122" spans="1:2">
       <c r="A7122">
-        <v>0.03333009685357313</v>
+        <v>0.03333009685357314</v>
       </c>
       <c r="B7122">
         <v>-0.02631983692354467</v>
@@ -57399,7 +57399,7 @@
     </row>
     <row r="7131" spans="1:2">
       <c r="A7131">
-        <v>0.04221080333794708</v>
+        <v>0.04221080333794707</v>
       </c>
       <c r="B7131">
         <v>-0.02255552259139071</v>
@@ -57455,7 +57455,7 @@
     </row>
     <row r="7138" spans="1:2">
       <c r="A7138">
-        <v>0.04930394579085622</v>
+        <v>0.04930394579085621</v>
       </c>
       <c r="B7138">
         <v>-0.03163296784786196</v>
@@ -57463,7 +57463,7 @@
     </row>
     <row r="7139" spans="1:2">
       <c r="A7139">
-        <v>0.05074260530558923</v>
+        <v>0.05074260530558924</v>
       </c>
       <c r="B7139">
         <v>-0.009994856259349483</v>
@@ -57519,7 +57519,7 @@
     </row>
     <row r="7146" spans="1:2">
       <c r="A7146">
-        <v>0.0560055544778882</v>
+        <v>0.05600555447788819</v>
       </c>
       <c r="B7146">
         <v>-0.0258557540903368</v>
@@ -57567,7 +57567,7 @@
     </row>
     <row r="7152" spans="1:2">
       <c r="A7152">
-        <v>0.05599978747158536</v>
+        <v>0.05599978747158537</v>
       </c>
       <c r="B7152">
         <v>-0.03451770200963455</v>
@@ -57575,7 +57575,7 @@
     </row>
     <row r="7153" spans="1:2">
       <c r="A7153">
-        <v>0.05669824414250975</v>
+        <v>0.05669824414250976</v>
       </c>
       <c r="B7153">
         <v>-0.04700335374914033</v>
@@ -57599,7 +57599,7 @@
     </row>
     <row r="7156" spans="1:2">
       <c r="A7156">
-        <v>0.0589910015485086</v>
+        <v>0.05899100154850861</v>
       </c>
       <c r="B7156">
         <v>-0.04289183129346164</v>
@@ -57615,7 +57615,7 @@
     </row>
     <row r="7158" spans="1:2">
       <c r="A7158">
-        <v>0.06074268251752084</v>
+        <v>0.06074268251752083</v>
       </c>
       <c r="B7158">
         <v>-0.06277845313106845</v>
@@ -57791,7 +57791,7 @@
     </row>
     <row r="7180" spans="1:2">
       <c r="A7180">
-        <v>0.07517771275520174</v>
+        <v>0.07517771275520176</v>
       </c>
       <c r="B7180">
         <v>-0.04569060963994254</v>
@@ -59127,7 +59127,7 @@
     </row>
     <row r="7347" spans="1:2">
       <c r="A7347">
-        <v>-0.0852972601475345</v>
+        <v>-0.08529726014753451</v>
       </c>
       <c r="B7347">
         <v>0.05638345903688524</v>
@@ -59247,7 +59247,7 @@
     </row>
     <row r="7362" spans="1:2">
       <c r="A7362">
-        <v>-0.0956033465697429</v>
+        <v>-0.09560334656974288</v>
       </c>
       <c r="B7362">
         <v>0.04676407529327165</v>
@@ -59271,7 +59271,7 @@
     </row>
     <row r="7365" spans="1:2">
       <c r="A7365">
-        <v>-0.09183264825337173</v>
+        <v>-0.09183264825337172</v>
       </c>
       <c r="B7365">
         <v>0.1071237632339743</v>
@@ -59279,7 +59279,7 @@
     </row>
     <row r="7366" spans="1:2">
       <c r="A7366">
-        <v>-0.09142235577730073</v>
+        <v>-0.09142235577730072</v>
       </c>
       <c r="B7366">
         <v>0.07626214883581506</v>
@@ -59295,7 +59295,7 @@
     </row>
     <row r="7368" spans="1:2">
       <c r="A7368">
-        <v>-0.08889529760788528</v>
+        <v>-0.08889529760788527</v>
       </c>
       <c r="B7368">
         <v>0.1121482411896233</v>
@@ -59303,7 +59303,7 @@
     </row>
     <row r="7369" spans="1:2">
       <c r="A7369">
-        <v>-0.08870795877532647</v>
+        <v>-0.08870795877532649</v>
       </c>
       <c r="B7369">
         <v>0.07914091315363114</v>
@@ -59343,7 +59343,7 @@
     </row>
     <row r="7374" spans="1:2">
       <c r="A7374">
-        <v>-0.08752041452045245</v>
+        <v>-0.08752041452045246</v>
       </c>
       <c r="B7374">
         <v>0.10142033352767</v>
@@ -59359,7 +59359,7 @@
     </row>
     <row r="7376" spans="1:2">
       <c r="A7376">
-        <v>-0.08683065285990438</v>
+        <v>-0.08683065285990439</v>
       </c>
       <c r="B7376">
         <v>0.08099217359338473</v>
@@ -59463,7 +59463,7 @@
     </row>
     <row r="7389" spans="1:2">
       <c r="A7389">
-        <v>-0.07622431156511361</v>
+        <v>-0.07622431156511363</v>
       </c>
       <c r="B7389">
         <v>0.09583544231758001</v>
@@ -59471,7 +59471,7 @@
     </row>
     <row r="7390" spans="1:2">
       <c r="A7390">
-        <v>-0.07501987854448852</v>
+        <v>-0.07501987854448851</v>
       </c>
       <c r="B7390">
         <v>0.0719406286439277</v>
@@ -59511,7 +59511,7 @@
     </row>
     <row r="7395" spans="1:2">
       <c r="A7395">
-        <v>-0.06847269318448998</v>
+        <v>-0.06847269318448997</v>
       </c>
       <c r="B7395">
         <v>0.08146405259674028</v>
@@ -59567,7 +59567,7 @@
     </row>
     <row r="7402" spans="1:2">
       <c r="A7402">
-        <v>-0.05566678206009792</v>
+        <v>-0.05566678206009793</v>
       </c>
       <c r="B7402">
         <v>0.07885855967190292</v>
@@ -59591,7 +59591,7 @@
     </row>
     <row r="7405" spans="1:2">
       <c r="A7405">
-        <v>-0.05146103934562907</v>
+        <v>-0.05146103934562906</v>
       </c>
       <c r="B7405">
         <v>0.07007392024305847</v>
@@ -59607,7 +59607,7 @@
     </row>
     <row r="7407" spans="1:2">
       <c r="A7407">
-        <v>-0.04859401552892523</v>
+        <v>-0.04859401552892522</v>
       </c>
       <c r="B7407">
         <v>0.07802137766870842</v>
@@ -59639,7 +59639,7 @@
     </row>
     <row r="7411" spans="1:2">
       <c r="A7411">
-        <v>-0.04320784311080342</v>
+        <v>-0.04320784311080343</v>
       </c>
       <c r="B7411">
         <v>0.05337533483154644</v>
@@ -59719,7 +59719,7 @@
     </row>
     <row r="7421" spans="1:2">
       <c r="A7421">
-        <v>-0.03053859541148903</v>
+        <v>-0.03053859541148904</v>
       </c>
       <c r="B7421">
         <v>0.05046308495263929</v>
@@ -59799,7 +59799,7 @@
     </row>
     <row r="7431" spans="1:2">
       <c r="A7431">
-        <v>-0.02048702407724805</v>
+        <v>-0.02048702407724804</v>
       </c>
       <c r="B7431">
         <v>0.03531629932196134</v>
@@ -59895,7 +59895,7 @@
     </row>
     <row r="7443" spans="1:2">
       <c r="A7443">
-        <v>-0.01389008798187052</v>
+        <v>-0.01389008798187053</v>
       </c>
       <c r="B7443">
         <v>0.01602650737440969</v>
@@ -59983,7 +59983,7 @@
     </row>
     <row r="7454" spans="1:2">
       <c r="A7454">
-        <v>-0.005632410221123947</v>
+        <v>-0.005632410221123946</v>
       </c>
       <c r="B7454">
         <v>0.01686070458224798</v>
@@ -60071,7 +60071,7 @@
     </row>
     <row r="7465" spans="1:2">
       <c r="A7465">
-        <v>0.006109334523677214</v>
+        <v>0.006109334523677213</v>
       </c>
       <c r="B7465">
         <v>0.02673481008810974</v>
@@ -60087,7 +60087,7 @@
     </row>
     <row r="7467" spans="1:2">
       <c r="A7467">
-        <v>0.007045373503809951</v>
+        <v>0.00704537350380995</v>
       </c>
       <c r="B7467">
         <v>0.01140331822635066</v>
@@ -60343,7 +60343,7 @@
     </row>
     <row r="7499" spans="1:2">
       <c r="A7499">
-        <v>0.01782412857876846</v>
+        <v>0.01782412857876845</v>
       </c>
       <c r="B7499">
         <v>-0.008529852275942496</v>
@@ -60407,7 +60407,7 @@
     </row>
     <row r="7507" spans="1:2">
       <c r="A7507">
-        <v>0.02336057667746123</v>
+        <v>0.02336057667746124</v>
       </c>
       <c r="B7507">
         <v>0.004895321031375577</v>
@@ -60479,7 +60479,7 @@
     </row>
     <row r="7516" spans="1:2">
       <c r="A7516">
-        <v>0.02482143908322122</v>
+        <v>0.02482143908322123</v>
       </c>
       <c r="B7516">
         <v>-0.004286573370999136</v>
@@ -60567,7 +60567,7 @@
     </row>
     <row r="7527" spans="1:2">
       <c r="A7527">
-        <v>0.02685042578721675</v>
+        <v>0.02685042578721674</v>
       </c>
       <c r="B7527">
         <v>0.02041230631090674</v>
@@ -60719,7 +60719,7 @@
     </row>
     <row r="7546" spans="1:2">
       <c r="A7546">
-        <v>0.03288309433021781</v>
+        <v>0.03288309433021782</v>
       </c>
       <c r="B7546">
         <v>-0.01273587855353142</v>
@@ -61071,7 +61071,7 @@
     </row>
     <row r="7590" spans="1:2">
       <c r="A7590">
-        <v>0.02894970771677571</v>
+        <v>0.0289497077167757</v>
       </c>
       <c r="B7590">
         <v>-0.03521186882723892</v>
@@ -61183,7 +61183,7 @@
     </row>
     <row r="7604" spans="1:2">
       <c r="A7604">
-        <v>0.02214735565270341</v>
+        <v>0.02214735565270342</v>
       </c>
       <c r="B7604">
         <v>-0.03190704414100676</v>
@@ -61239,7 +61239,7 @@
     </row>
     <row r="7611" spans="1:2">
       <c r="A7611">
-        <v>0.01952635997090919</v>
+        <v>0.0195263599709092</v>
       </c>
       <c r="B7611">
         <v>-0.004482822970155453</v>
@@ -61471,7 +61471,7 @@
     </row>
     <row r="7640" spans="1:2">
       <c r="A7640">
-        <v>0.01181310562274058</v>
+        <v>0.01181310562274057</v>
       </c>
       <c r="B7640">
         <v>-0.004097770213967067</v>
@@ -61711,7 +61711,7 @@
     </row>
     <row r="7670" spans="1:2">
       <c r="A7670">
-        <v>0.009680879893220282</v>
+        <v>0.009680879893220284</v>
       </c>
       <c r="B7670">
         <v>-0.01567137682470054</v>
@@ -61719,7 +61719,7 @@
     </row>
     <row r="7671" spans="1:2">
       <c r="A7671">
-        <v>0.008805967919831419</v>
+        <v>0.008805967919831421</v>
       </c>
       <c r="B7671">
         <v>-0.00617757414127329</v>
@@ -61735,7 +61735,7 @@
     </row>
     <row r="7673" spans="1:2">
       <c r="A7673">
-        <v>0.008528564866223776</v>
+        <v>0.008528564866223774</v>
       </c>
       <c r="B7673">
         <v>-0.01431340118304547</v>
@@ -61743,7 +61743,7 @@
     </row>
     <row r="7674" spans="1:2">
       <c r="A7674">
-        <v>0.008492055334281627</v>
+        <v>0.008492055334281625</v>
       </c>
       <c r="B7674">
         <v>-0.01722910717306636</v>
@@ -61791,7 +61791,7 @@
     </row>
     <row r="7680" spans="1:2">
       <c r="A7680">
-        <v>0.009789522069747045</v>
+        <v>0.009789522069747043</v>
       </c>
       <c r="B7680">
         <v>-0.006035915644002188</v>
@@ -61967,7 +61967,7 @@
     </row>
     <row r="7702" spans="1:2">
       <c r="A7702">
-        <v>0.008468669273992828</v>
+        <v>0.008468669273992827</v>
       </c>
       <c r="B7702">
         <v>-0.01165562945540444</v>
@@ -62023,7 +62023,7 @@
     </row>
     <row r="7709" spans="1:2">
       <c r="A7709">
-        <v>0.006698555211568693</v>
+        <v>0.006698555211568694</v>
       </c>
       <c r="B7709">
         <v>-0.01098549633259616</v>
@@ -62071,7 +62071,7 @@
     </row>
     <row r="7715" spans="1:2">
       <c r="A7715">
-        <v>0.008181153800702629</v>
+        <v>0.008181153800702631</v>
       </c>
       <c r="B7715">
         <v>-0.002272807613951322</v>
@@ -62079,7 +62079,7 @@
     </row>
     <row r="7716" spans="1:2">
       <c r="A7716">
-        <v>0.008017412978232795</v>
+        <v>0.008017412978232793</v>
       </c>
       <c r="B7716">
         <v>-0.001857206246078213</v>
@@ -62087,7 +62087,7 @@
     </row>
     <row r="7717" spans="1:2">
       <c r="A7717">
-        <v>0.007525011207706127</v>
+        <v>0.007525011207706126</v>
       </c>
       <c r="B7717">
         <v>-0.002724265705166928</v>
@@ -62143,7 +62143,7 @@
     </row>
     <row r="7724" spans="1:2">
       <c r="A7724">
-        <v>0.002383188413967075</v>
+        <v>0.002383188413967076</v>
       </c>
       <c r="B7724">
         <v>-0.009660760990009898</v>
@@ -62223,7 +62223,7 @@
     </row>
     <row r="7734" spans="1:2">
       <c r="A7734">
-        <v>0.003824282832073393</v>
+        <v>0.003824282832073394</v>
       </c>
       <c r="B7734">
         <v>0.003348750051697991</v>
@@ -62295,7 +62295,7 @@
     </row>
     <row r="7743" spans="1:2">
       <c r="A7743">
-        <v>-0.0009732266514103787</v>
+        <v>-0.0009732266514103788</v>
       </c>
       <c r="B7743">
         <v>-0.005740135947091218</v>
@@ -62391,7 +62391,7 @@
     </row>
     <row r="7755" spans="1:2">
       <c r="A7755">
-        <v>-0.0006466481786841254</v>
+        <v>-0.0006466481786841253</v>
       </c>
       <c r="B7755">
         <v>0.003673580742182381</v>
@@ -62399,7 +62399,7 @@
     </row>
     <row r="7756" spans="1:2">
       <c r="A7756">
-        <v>-1.729392673492623E-05</v>
+        <v>-1.729392673492624E-05</v>
       </c>
       <c r="B7756">
         <v>0.005528956600929114</v>
@@ -62439,7 +62439,7 @@
     </row>
     <row r="7761" spans="1:2">
       <c r="A7761">
-        <v>0.000809999652226251</v>
+        <v>0.0008099996522262509</v>
       </c>
       <c r="B7761">
         <v>0.007974714723805398</v>
@@ -62447,7 +62447,7 @@
     </row>
     <row r="7762" spans="1:2">
       <c r="A7762">
-        <v>0.0005476008768143729</v>
+        <v>0.0005476008768143728</v>
       </c>
       <c r="B7762">
         <v>0.006536147631284628</v>
@@ -62495,7 +62495,7 @@
     </row>
     <row r="7768" spans="1:2">
       <c r="A7768">
-        <v>-0.0005597241541588744</v>
+        <v>-0.0005597241541588743</v>
       </c>
       <c r="B7768">
         <v>0.0007174266344041058</v>
@@ -62511,7 +62511,7 @@
     </row>
     <row r="7770" spans="1:2">
       <c r="A7770">
-        <v>-0.0004576797096478653</v>
+        <v>-0.0004576797096478654</v>
       </c>
       <c r="B7770">
         <v>0.0008685906589551706</v>
@@ -62623,7 +62623,7 @@
     </row>
     <row r="7784" spans="1:2">
       <c r="A7784">
-        <v>0.00867955117640996</v>
+        <v>0.008679551176409962</v>
       </c>
       <c r="B7784">
         <v>0.002776232943624279</v>
@@ -62695,7 +62695,7 @@
     </row>
     <row r="7793" spans="1:2">
       <c r="A7793">
-        <v>0.01781493228954113</v>
+        <v>0.01781493228954112</v>
       </c>
       <c r="B7793">
         <v>-0.006241582570841508</v>
@@ -62727,7 +62727,7 @@
     </row>
     <row r="7797" spans="1:2">
       <c r="A7797">
-        <v>0.01926577531512542</v>
+        <v>0.01926577531512543</v>
       </c>
       <c r="B7797">
         <v>-0.004433337954578676</v>
@@ -62783,7 +62783,7 @@
     </row>
     <row r="7804" spans="1:2">
       <c r="A7804">
-        <v>0.02391734789322806</v>
+        <v>0.02391734789322807</v>
       </c>
       <c r="B7804">
         <v>-0.02087918642930031</v>
@@ -62815,7 +62815,7 @@
     </row>
     <row r="7808" spans="1:2">
       <c r="A7808">
-        <v>0.02769495887281599</v>
+        <v>0.027694958872816</v>
       </c>
       <c r="B7808">
         <v>-0.02780022618363098</v>
@@ -62911,7 +62911,7 @@
     </row>
     <row r="7820" spans="1:2">
       <c r="A7820">
-        <v>0.0368762263143857</v>
+        <v>0.03687622631438571</v>
       </c>
       <c r="B7820">
         <v>-0.02224614937273506</v>
@@ -62959,7 +62959,7 @@
     </row>
     <row r="7826" spans="1:2">
       <c r="A7826">
-        <v>0.03696363803767727</v>
+        <v>0.03696363803767728</v>
       </c>
       <c r="B7826">
         <v>-0.02341637794447715</v>
@@ -62975,7 +62975,7 @@
     </row>
     <row r="7828" spans="1:2">
       <c r="A7828">
-        <v>0.03823715301975815</v>
+        <v>0.03823715301975814</v>
       </c>
       <c r="B7828">
         <v>-0.04264004821710854</v>
@@ -63063,7 +63063,7 @@
     </row>
     <row r="7839" spans="1:2">
       <c r="A7839">
-        <v>0.04267665874232069</v>
+        <v>0.04267665874232068</v>
       </c>
       <c r="B7839">
         <v>-0.04905199425332274</v>
@@ -63071,7 +63071,7 @@
     </row>
     <row r="7840" spans="1:2">
       <c r="A7840">
-        <v>0.04387799629847592</v>
+        <v>0.04387799629847591</v>
       </c>
       <c r="B7840">
         <v>-0.02190715139355337</v>
@@ -63087,7 +63087,7 @@
     </row>
     <row r="7842" spans="1:2">
       <c r="A7842">
-        <v>0.04563826141995793</v>
+        <v>0.04563826141995794</v>
       </c>
       <c r="B7842">
         <v>-0.04140058449013129</v>
@@ -63095,7 +63095,7 @@
     </row>
     <row r="7843" spans="1:2">
       <c r="A7843">
-        <v>0.04674590697499838</v>
+        <v>0.04674590697499839</v>
       </c>
       <c r="B7843">
         <v>-0.01184924207642624</v>
@@ -63111,7 +63111,7 @@
     </row>
     <row r="7845" spans="1:2">
       <c r="A7845">
-        <v>0.04915701334812389</v>
+        <v>0.04915701334812388</v>
       </c>
       <c r="B7845">
         <v>-0.03266309368941034</v>
@@ -63127,7 +63127,7 @@
     </row>
     <row r="7847" spans="1:2">
       <c r="A7847">
-        <v>0.05236034462304046</v>
+        <v>0.05236034462304047</v>
       </c>
       <c r="B7847">
         <v>-0.01093027912241729</v>
@@ -63151,7 +63151,7 @@
     </row>
     <row r="7850" spans="1:2">
       <c r="A7850">
-        <v>0.05624295905277808</v>
+        <v>0.05624295905277809</v>
       </c>
       <c r="B7850">
         <v>-0.0007317714849532919</v>
@@ -63175,7 +63175,7 @@
     </row>
     <row r="7853" spans="1:2">
       <c r="A7853">
-        <v>0.05821037535967404</v>
+        <v>0.05821037535967405</v>
       </c>
       <c r="B7853">
         <v>0.004560107438852601</v>
@@ -63215,7 +63215,7 @@
     </row>
     <row r="7858" spans="1:2">
       <c r="A7858">
-        <v>0.0615600271974804</v>
+        <v>0.06156002719748041</v>
       </c>
       <c r="B7858">
         <v>-0.02324846812134451</v>
@@ -63247,7 +63247,7 @@
     </row>
     <row r="7862" spans="1:2">
       <c r="A7862">
-        <v>0.06129345371222096</v>
+        <v>0.06129345371222097</v>
       </c>
       <c r="B7862">
         <v>-0.04095872051474458</v>
@@ -63255,7 +63255,7 @@
     </row>
     <row r="7863" spans="1:2">
       <c r="A7863">
-        <v>0.06096547596278472</v>
+        <v>0.06096547596278471</v>
       </c>
       <c r="B7863">
         <v>-0.05644766652823652</v>
@@ -63303,7 +63303,7 @@
     </row>
     <row r="7869" spans="1:2">
       <c r="A7869">
-        <v>0.06483566492060919</v>
+        <v>0.0648356649206092</v>
       </c>
       <c r="B7869">
         <v>-0.04470493125603658</v>
@@ -63351,7 +63351,7 @@
     </row>
     <row r="7875" spans="1:2">
       <c r="A7875">
-        <v>0.06665896086864029</v>
+        <v>0.0666589608686403</v>
       </c>
       <c r="B7875">
         <v>-0.02819980479675399</v>
@@ -63359,7 +63359,7 @@
     </row>
     <row r="7876" spans="1:2">
       <c r="A7876">
-        <v>0.06752456295785375</v>
+        <v>0.06752456295785374</v>
       </c>
       <c r="B7876">
         <v>-0.04445925731606737</v>
@@ -63471,7 +63471,7 @@
     </row>
     <row r="7890" spans="1:2">
       <c r="A7890">
-        <v>0.07529396566454327</v>
+        <v>0.07529396566454326</v>
       </c>
       <c r="B7890">
         <v>-0.03225295490836855</v>
@@ -63487,7 +63487,7 @@
     </row>
     <row r="7892" spans="1:2">
       <c r="A7892">
-        <v>0.07561104439744745</v>
+        <v>0.07561104439744744</v>
       </c>
       <c r="B7892">
         <v>-0.06686949572079737</v>
@@ -63527,7 +63527,7 @@
     </row>
     <row r="7897" spans="1:2">
       <c r="A7897">
-        <v>0.07537804466630499</v>
+        <v>0.07537804466630497</v>
       </c>
       <c r="B7897">
         <v>-0.0372617947603473</v>
@@ -64815,7 +64815,7 @@
     </row>
     <row r="8058" spans="1:2">
       <c r="A8058">
-        <v>-0.05271657236831594</v>
+        <v>-0.05271657236831593</v>
       </c>
       <c r="B8058">
         <v>-0.01026645233048074</v>
@@ -64823,7 +64823,7 @@
     </row>
     <row r="8059" spans="1:2">
       <c r="A8059">
-        <v>-0.05388292514704263</v>
+        <v>-0.05388292514704262</v>
       </c>
       <c r="B8059">
         <v>0.008507348629406053</v>
@@ -64831,7 +64831,7 @@
     </row>
     <row r="8060" spans="1:2">
       <c r="A8060">
-        <v>-0.05416906598024382</v>
+        <v>-0.05416906598024381</v>
       </c>
       <c r="B8060">
         <v>0.0271877376793026</v>
@@ -64871,7 +64871,7 @@
     </row>
     <row r="8065" spans="1:2">
       <c r="A8065">
-        <v>-0.05651887758070187</v>
+        <v>-0.05651887758070188</v>
       </c>
       <c r="B8065">
         <v>0.04914317597309603</v>
@@ -64927,7 +64927,7 @@
     </row>
     <row r="8072" spans="1:2">
       <c r="A8072">
-        <v>-0.06471863062455005</v>
+        <v>-0.06471863062455006</v>
       </c>
       <c r="B8072">
         <v>0.02979952122601182</v>
@@ -64935,7 +64935,7 @@
     </row>
     <row r="8073" spans="1:2">
       <c r="A8073">
-        <v>-0.06481280395556518</v>
+        <v>-0.06481280395556517</v>
       </c>
       <c r="B8073">
         <v>0.04719608016953103</v>
@@ -64959,7 +64959,7 @@
     </row>
     <row r="8076" spans="1:2">
       <c r="A8076">
-        <v>-0.06965506294048704</v>
+        <v>-0.06965506294048705</v>
       </c>
       <c r="B8076">
         <v>0.02804796099348339</v>
@@ -64991,7 +64991,7 @@
     </row>
     <row r="8080" spans="1:2">
       <c r="A8080">
-        <v>-0.07013923008582648</v>
+        <v>-0.0701392300858265</v>
       </c>
       <c r="B8080">
         <v>0.03780876972608427</v>
@@ -65135,7 +65135,7 @@
     </row>
     <row r="8098" spans="1:2">
       <c r="A8098">
-        <v>-0.06533936796871039</v>
+        <v>-0.0653393679687104</v>
       </c>
       <c r="B8098">
         <v>0.0373461889618758</v>
@@ -65175,7 +65175,7 @@
     </row>
     <row r="8103" spans="1:2">
       <c r="A8103">
-        <v>-0.06103001332235769</v>
+        <v>-0.06103001332235768</v>
       </c>
       <c r="B8103">
         <v>0.05370097617982061</v>
@@ -65207,7 +65207,7 @@
     </row>
     <row r="8107" spans="1:2">
       <c r="A8107">
-        <v>-0.05611299884320665</v>
+        <v>-0.05611299884320666</v>
       </c>
       <c r="B8107">
         <v>0.05483298179530394</v>
@@ -65223,7 +65223,7 @@
     </row>
     <row r="8109" spans="1:2">
       <c r="A8109">
-        <v>-0.0533118684201764</v>
+        <v>-0.05331186842017641</v>
       </c>
       <c r="B8109">
         <v>0.07762739854992606</v>
@@ -65247,7 +65247,7 @@
     </row>
     <row r="8112" spans="1:2">
       <c r="A8112">
-        <v>-0.05222349622287082</v>
+        <v>-0.05222349622287081</v>
       </c>
       <c r="B8112">
         <v>0.05902143512271429</v>
@@ -65279,7 +65279,7 @@
     </row>
     <row r="8116" spans="1:2">
       <c r="A8116">
-        <v>-0.05096814677780391</v>
+        <v>-0.0509681467778039</v>
       </c>
       <c r="B8116">
         <v>0.0478931694312541</v>
@@ -65311,7 +65311,7 @@
     </row>
     <row r="8120" spans="1:2">
       <c r="A8120">
-        <v>-0.05017277392818139</v>
+        <v>-0.05017277392818138</v>
       </c>
       <c r="B8120">
         <v>0.03701225531656593</v>
@@ -65367,7 +65367,7 @@
     </row>
     <row r="8127" spans="1:2">
       <c r="A8127">
-        <v>-0.03986327089040057</v>
+        <v>-0.03986327089040058</v>
       </c>
       <c r="B8127">
         <v>0.0316769514568902</v>
@@ -65431,7 +65431,7 @@
     </row>
     <row r="8135" spans="1:2">
       <c r="A8135">
-        <v>-0.03122195348564516</v>
+        <v>-0.03122195348564515</v>
       </c>
       <c r="B8135">
         <v>0.02688058950336458</v>
@@ -65591,7 +65591,7 @@
     </row>
     <row r="8155" spans="1:2">
       <c r="A8155">
-        <v>-0.0261150360069084</v>
+        <v>-0.02611503600690839</v>
       </c>
       <c r="B8155">
         <v>-0.0002245851145232791</v>
@@ -65615,7 +65615,7 @@
     </row>
     <row r="8158" spans="1:2">
       <c r="A8158">
-        <v>-0.02504539484892678</v>
+        <v>-0.02504539484892679</v>
       </c>
       <c r="B8158">
         <v>0.022111263906889</v>
@@ -65623,7 +65623,7 @@
     </row>
     <row r="8159" spans="1:2">
       <c r="A8159">
-        <v>-0.02432752621468321</v>
+        <v>-0.02432752621468322</v>
       </c>
       <c r="B8159">
         <v>0.001132977051875095</v>
@@ -65631,7 +65631,7 @@
     </row>
     <row r="8160" spans="1:2">
       <c r="A8160">
-        <v>-0.02405126874342361</v>
+        <v>-0.02405126874342362</v>
       </c>
       <c r="B8160">
         <v>0.009072458310710019</v>
@@ -65655,7 +65655,7 @@
     </row>
     <row r="8163" spans="1:2">
       <c r="A8163">
-        <v>-0.02212540162248586</v>
+        <v>-0.02212540162248587</v>
       </c>
       <c r="B8163">
         <v>0.003754949376358674</v>
@@ -65703,7 +65703,7 @@
     </row>
     <row r="8169" spans="1:2">
       <c r="A8169">
-        <v>-0.01805012301618485</v>
+        <v>-0.01805012301618486</v>
       </c>
       <c r="B8169">
         <v>0.02244533126443216</v>
@@ -65887,7 +65887,7 @@
     </row>
     <row r="8192" spans="1:2">
       <c r="A8192">
-        <v>-0.01490418185106028</v>
+        <v>-0.01490418185106029</v>
       </c>
       <c r="B8192">
         <v>0.00930234124627205</v>
@@ -66047,7 +66047,7 @@
     </row>
     <row r="8212" spans="1:2">
       <c r="A8212">
-        <v>-0.01501385970862775</v>
+        <v>-0.01501385970862776</v>
       </c>
       <c r="B8212">
         <v>0.0140265425096473</v>
@@ -66215,7 +66215,7 @@
     </row>
     <row r="8233" spans="1:2">
       <c r="A8233">
-        <v>-0.009149022595293533</v>
+        <v>-0.009149022595293531</v>
       </c>
       <c r="B8233">
         <v>0.01694648519690567</v>
@@ -66231,7 +66231,7 @@
     </row>
     <row r="8235" spans="1:2">
       <c r="A8235">
-        <v>-0.007762995408308177</v>
+        <v>-0.007762995408308176</v>
       </c>
       <c r="B8235">
         <v>0.01729841670610988</v>
@@ -66279,7 +66279,7 @@
     </row>
     <row r="8241" spans="1:2">
       <c r="A8241">
-        <v>-0.007000597567345272</v>
+        <v>-0.007000597567345271</v>
       </c>
       <c r="B8241">
         <v>0.01176197697603598</v>
@@ -66351,7 +66351,7 @@
     </row>
     <row r="8250" spans="1:2">
       <c r="A8250">
-        <v>-0.006101407314078962</v>
+        <v>-0.006101407314078961</v>
       </c>
       <c r="B8250">
         <v>0.005950149858452214</v>
@@ -66559,7 +66559,7 @@
     </row>
     <row r="8276" spans="1:2">
       <c r="A8276">
-        <v>0.002045076222371423</v>
+        <v>0.002045076222371424</v>
       </c>
       <c r="B8276">
         <v>0.006772865250170845</v>
@@ -66615,7 +66615,7 @@
     </row>
     <row r="8283" spans="1:2">
       <c r="A8283">
-        <v>-0.0007156939158873793</v>
+        <v>-0.0007156939158873792</v>
       </c>
       <c r="B8283">
         <v>-0.002999301584976521</v>
@@ -66743,7 +66743,7 @@
     </row>
     <row r="8299" spans="1:2">
       <c r="A8299">
-        <v>0.002556390585523843</v>
+        <v>0.002556390585523844</v>
       </c>
       <c r="B8299">
         <v>0.007446989581439745</v>
@@ -66951,7 +66951,7 @@
     </row>
     <row r="8325" spans="1:2">
       <c r="A8325">
-        <v>0.0007123031096770056</v>
+        <v>0.0007123031096770057</v>
       </c>
       <c r="B8325">
         <v>0.00300791581976334</v>
@@ -66967,7 +66967,7 @@
     </row>
     <row r="8327" spans="1:2">
       <c r="A8327">
-        <v>-0.0008593945067049743</v>
+        <v>-0.0008593945067049742</v>
       </c>
       <c r="B8327">
         <v>-0.001483728260429196</v>
@@ -66999,7 +66999,7 @@
     </row>
     <row r="8331" spans="1:2">
       <c r="A8331">
-        <v>-0.004513462755252882</v>
+        <v>-0.004513462755252883</v>
       </c>
       <c r="B8331">
         <v>-0.009992951706430553</v>
@@ -67055,7 +67055,7 @@
     </row>
     <row r="8338" spans="1:2">
       <c r="A8338">
-        <v>-0.004933472440027037</v>
+        <v>-0.004933472440027036</v>
       </c>
       <c r="B8338">
         <v>-0.005736450135647608</v>
@@ -67159,7 +67159,7 @@
     </row>
     <row r="8351" spans="1:2">
       <c r="A8351">
-        <v>0.001358023373549699</v>
+        <v>0.0013580233735497</v>
       </c>
       <c r="B8351">
         <v>0.0131911964618352</v>
@@ -67255,7 +67255,7 @@
     </row>
     <row r="8363" spans="1:2">
       <c r="A8363">
-        <v>-0.006171533704670469</v>
+        <v>-0.00617153370467047</v>
       </c>
       <c r="B8363">
         <v>-0.01118845713057404</v>
@@ -67287,7 +67287,7 @@
     </row>
     <row r="8367" spans="1:2">
       <c r="A8367">
-        <v>-0.005717362112535982</v>
+        <v>-0.005717362112535983</v>
       </c>
       <c r="B8367">
         <v>-0.007964417750900843</v>
@@ -67359,7 +67359,7 @@
     </row>
     <row r="8376" spans="1:2">
       <c r="A8376">
-        <v>0.0007614147111103347</v>
+        <v>0.0007614147111103348</v>
       </c>
       <c r="B8376">
         <v>0.01313772510052136</v>
@@ -67367,7 +67367,7 @@
     </row>
     <row r="8377" spans="1:2">
       <c r="A8377">
-        <v>0.001307319752640051</v>
+        <v>0.001307319752640052</v>
       </c>
       <c r="B8377">
         <v>0.01414447647794859</v>
@@ -67479,7 +67479,7 @@
     </row>
     <row r="8391" spans="1:2">
       <c r="A8391">
-        <v>-0.004598730236474646</v>
+        <v>-0.004598730236474647</v>
       </c>
       <c r="B8391">
         <v>-0.009203987698818139</v>
@@ -67495,7 +67495,7 @@
     </row>
     <row r="8393" spans="1:2">
       <c r="A8393">
-        <v>-0.005166533368393003</v>
+        <v>-0.005166533368393004</v>
       </c>
       <c r="B8393">
         <v>-0.01055854747150775</v>
@@ -67783,7 +67783,7 @@
     </row>
     <row r="8429" spans="1:2">
       <c r="A8429">
-        <v>-0.0008423613996319053</v>
+        <v>-0.0008423613996319052</v>
       </c>
       <c r="B8429">
         <v>0.008519440866016303</v>
@@ -67807,7 +67807,7 @@
     </row>
     <row r="8432" spans="1:2">
       <c r="A8432">
-        <v>0.0009514490590071757</v>
+        <v>0.0009514490590071756</v>
       </c>
       <c r="B8432">
         <v>0.01252123128789151</v>
@@ -67887,7 +67887,7 @@
     </row>
     <row r="8442" spans="1:2">
       <c r="A8442">
-        <v>-0.003583691793267913</v>
+        <v>-0.003583691793267914</v>
       </c>
       <c r="B8442">
         <v>-0.00426767562895769</v>
@@ -67919,7 +67919,7 @@
     </row>
     <row r="8446" spans="1:2">
       <c r="A8446">
-        <v>-0.004285635117925707</v>
+        <v>-0.004285635117925708</v>
       </c>
       <c r="B8446">
         <v>-0.006293265030400619</v>
@@ -67983,7 +67983,7 @@
     </row>
     <row r="8454" spans="1:2">
       <c r="A8454">
-        <v>0.0008332062772230368</v>
+        <v>0.0008332062772230367</v>
       </c>
       <c r="B8454">
         <v>0.007625427552762076</v>
@@ -68031,7 +68031,7 @@
     </row>
     <row r="8460" spans="1:2">
       <c r="A8460">
-        <v>0.0009964654892777535</v>
+        <v>0.0009964654892777537</v>
       </c>
       <c r="B8460">
         <v>0.005969766791588782</v>
@@ -68319,7 +68319,7 @@
     </row>
     <row r="8496" spans="1:2">
       <c r="A8496">
-        <v>-0.004059163127554999</v>
+        <v>-0.004059163127555</v>
       </c>
       <c r="B8496">
         <v>-0.006579142042928865</v>
@@ -68335,7 +68335,7 @@
     </row>
     <row r="8498" spans="1:2">
       <c r="A8498">
-        <v>-0.003458221405760056</v>
+        <v>-0.003458221405760055</v>
       </c>
       <c r="B8498">
         <v>-0.00470071251835158</v>
@@ -68479,7 +68479,7 @@
     </row>
     <row r="8516" spans="1:2">
       <c r="A8516">
-        <v>-0.003611897622479071</v>
+        <v>-0.003611897622479072</v>
       </c>
       <c r="B8516">
         <v>-0.007447158500488271</v>
@@ -68623,7 +68623,7 @@
     </row>
     <row r="8534" spans="1:2">
       <c r="A8534">
-        <v>0.002160545316729407</v>
+        <v>0.002160545316729408</v>
       </c>
       <c r="B8534">
         <v>0.01199918804059141</v>
@@ -68663,7 +68663,7 @@
     </row>
     <row r="8539" spans="1:2">
       <c r="A8539">
-        <v>2.905719727955001E-05</v>
+        <v>2.905719727955E-05</v>
       </c>
       <c r="B8539">
         <v>0.003576461432499123</v>
@@ -68815,7 +68815,7 @@
     </row>
     <row r="8558" spans="1:2">
       <c r="A8558">
-        <v>-0.0008827909607200843</v>
+        <v>-0.0008827909607200844</v>
       </c>
       <c r="B8558">
         <v>0.007757742905435627</v>
@@ -69151,7 +69151,7 @@
     </row>
     <row r="8600" spans="1:2">
       <c r="A8600">
-        <v>-0.003502179950210045</v>
+        <v>-0.003502179950210046</v>
       </c>
       <c r="B8600">
         <v>-0.0100808703441686</v>
@@ -69191,7 +69191,7 @@
     </row>
     <row r="8605" spans="1:2">
       <c r="A8605">
-        <v>-0.004022202680981864</v>
+        <v>-0.004022202680981865</v>
       </c>
       <c r="B8605">
         <v>-0.008637455059733234</v>
@@ -69215,7 +69215,7 @@
     </row>
     <row r="8608" spans="1:2">
       <c r="A8608">
-        <v>-0.002689169961269869</v>
+        <v>-0.00268916996126987</v>
       </c>
       <c r="B8608">
         <v>-0.002953625312302144</v>
@@ -69455,7 +69455,7 @@
     </row>
     <row r="8638" spans="1:2">
       <c r="A8638">
-        <v>0.002616892602244503</v>
+        <v>0.002616892602244502</v>
       </c>
       <c r="B8638">
         <v>0.009215271452278628</v>
@@ -69471,7 +69471,7 @@
     </row>
     <row r="8640" spans="1:2">
       <c r="A8640">
-        <v>0.00312628627199255</v>
+        <v>0.003126286271992549</v>
       </c>
       <c r="B8640">
         <v>0.009734825242400547</v>
@@ -69559,7 +69559,7 @@
     </row>
     <row r="8651" spans="1:2">
       <c r="A8651">
-        <v>-0.002187139186850444</v>
+        <v>-0.002187139186850445</v>
       </c>
       <c r="B8651">
         <v>-0.008241807789711508</v>
@@ -69647,7 +69647,7 @@
     </row>
     <row r="8662" spans="1:2">
       <c r="A8662">
-        <v>0.003325494986318913</v>
+        <v>0.003325494986318912</v>
       </c>
       <c r="B8662">
         <v>0.007868794227491982</v>
@@ -69655,7 +69655,7 @@
     </row>
     <row r="8663" spans="1:2">
       <c r="A8663">
-        <v>0.003685324034289452</v>
+        <v>0.003685324034289451</v>
       </c>
       <c r="B8663">
         <v>0.008682777667470276</v>
@@ -69711,7 +69711,7 @@
     </row>
     <row r="8670" spans="1:2">
       <c r="A8670">
-        <v>0.001183446437945223</v>
+        <v>0.001183446437945222</v>
       </c>
       <c r="B8670">
         <v>-5.495446596803788E-05</v>
@@ -69791,7 +69791,7 @@
     </row>
     <row r="8680" spans="1:2">
       <c r="A8680">
-        <v>-0.001550050052417819</v>
+        <v>-0.001550050052417818</v>
       </c>
       <c r="B8680">
         <v>-0.005027257121510864</v>
@@ -69895,7 +69895,7 @@
     </row>
     <row r="8693" spans="1:2">
       <c r="A8693">
-        <v>0.0005417076389255472</v>
+        <v>0.0005417076389255471</v>
       </c>
       <c r="B8693">
         <v>0.00150394775381546</v>
@@ -69991,7 +69991,7 @@
     </row>
     <row r="8705" spans="1:2">
       <c r="A8705">
-        <v>-0.003252022718232934</v>
+        <v>-0.003252022718232935</v>
       </c>
       <c r="B8705">
         <v>-0.004045420132887223</v>
@@ -70151,7 +70151,7 @@
     </row>
     <row r="8725" spans="1:2">
       <c r="A8725">
-        <v>-0.002993611003157632</v>
+        <v>-0.002993611003157633</v>
       </c>
       <c r="B8725">
         <v>-0.008457617898256053</v>
@@ -70207,7 +70207,7 @@
     </row>
     <row r="8732" spans="1:2">
       <c r="A8732">
-        <v>-0.003040910783182181</v>
+        <v>-0.00304091078318218</v>
       </c>
       <c r="B8732">
         <v>-0.006879001525097905</v>
@@ -70279,7 +70279,7 @@
     </row>
     <row r="8741" spans="1:2">
       <c r="A8741">
-        <v>0.003519570978591368</v>
+        <v>0.003519570978591369</v>
       </c>
       <c r="B8741">
         <v>0.01190004837675307</v>
@@ -70351,7 +70351,7 @@
     </row>
     <row r="8750" spans="1:2">
       <c r="A8750">
-        <v>0.0005067713538549437</v>
+        <v>0.0005067713538549438</v>
       </c>
       <c r="B8750">
         <v>-0.00117320592468495</v>
@@ -70423,7 +70423,7 @@
     </row>
     <row r="8759" spans="1:2">
       <c r="A8759">
-        <v>-0.002900523704126243</v>
+        <v>-0.002900523704126242</v>
       </c>
       <c r="B8759">
         <v>-0.009064683224865533</v>
@@ -70471,7 +70471,7 @@
     </row>
     <row r="8765" spans="1:2">
       <c r="A8765">
-        <v>0.0009443163727449481</v>
+        <v>0.0009443163727449482</v>
       </c>
       <c r="B8765">
         <v>0.003921880264553756</v>
@@ -70527,7 +70527,7 @@
     </row>
     <row r="8772" spans="1:2">
       <c r="A8772">
-        <v>0.00388632764989062</v>
+        <v>0.003886327649890619</v>
       </c>
       <c r="B8772">
         <v>0.01029664702665034</v>
@@ -70679,7 +70679,7 @@
     </row>
     <row r="8791" spans="1:2">
       <c r="A8791">
-        <v>-0.0007059759174038417</v>
+        <v>-0.0007059759174038415</v>
       </c>
       <c r="B8791">
         <v>-0.001304506594899557</v>
@@ -70727,7 +70727,7 @@
     </row>
     <row r="8797" spans="1:2">
       <c r="A8797">
-        <v>0.003877176519927144</v>
+        <v>0.003877176519927145</v>
       </c>
       <c r="B8797">
         <v>0.01150055563504537</v>
@@ -70759,7 +70759,7 @@
     </row>
     <row r="8801" spans="1:2">
       <c r="A8801">
-        <v>0.00365589918845649</v>
+        <v>0.003655899188456489</v>
       </c>
       <c r="B8801">
         <v>0.00918179538709829</v>
@@ -70839,7 +70839,7 @@
     </row>
     <row r="8811" spans="1:2">
       <c r="A8811">
-        <v>-0.003077880694069847</v>
+        <v>-0.003077880694069848</v>
       </c>
       <c r="B8811">
         <v>-0.01150446526067572</v>
@@ -71031,7 +71031,7 @@
     </row>
     <row r="8835" spans="1:2">
       <c r="A8835">
-        <v>0.0001032501517555452</v>
+        <v>0.0001032501517555451</v>
       </c>
       <c r="B8835">
         <v>-0.003612218708975767</v>
@@ -71111,7 +71111,7 @@
     </row>
     <row r="8845" spans="1:2">
       <c r="A8845">
-        <v>-0.001499339437860178</v>
+        <v>-0.001499339437860179</v>
       </c>
       <c r="B8845">
         <v>-0.005352625365593333</v>
@@ -71127,7 +71127,7 @@
     </row>
     <row r="8847" spans="1:2">
       <c r="A8847">
-        <v>-0.0001613098173540322</v>
+        <v>-0.0001613098173540321</v>
       </c>
       <c r="B8847">
         <v>-0.0008617723462434057</v>
@@ -71343,7 +71343,7 @@
     </row>
     <row r="8874" spans="1:2">
       <c r="A8874">
-        <v>0.0006554294530904696</v>
+        <v>0.0006554294530904695</v>
       </c>
       <c r="B8874">
         <v>-0.002539823838755062</v>
@@ -71551,7 +71551,7 @@
     </row>
     <row r="8900" spans="1:2">
       <c r="A8900">
-        <v>0.0006584977838889818</v>
+        <v>0.0006584977838889817</v>
       </c>
       <c r="B8900">
         <v>0.00353608781917103</v>
@@ -71583,7 +71583,7 @@
     </row>
     <row r="8904" spans="1:2">
       <c r="A8904">
-        <v>0.002120203358991046</v>
+        <v>0.002120203358991047</v>
       </c>
       <c r="B8904">
         <v>0.007751877441710242</v>
@@ -71799,7 +71799,7 @@
     </row>
     <row r="8931" spans="1:2">
       <c r="A8931">
-        <v>0.0009558339951097922</v>
+        <v>0.0009558339951097923</v>
       </c>
       <c r="B8931">
         <v>0.006292305818510258</v>
@@ -71855,7 +71855,7 @@
     </row>
     <row r="8938" spans="1:2">
       <c r="A8938">
-        <v>-0.00366753426990312</v>
+        <v>-0.003667534269903119</v>
       </c>
       <c r="B8938">
         <v>-0.007438609072477398</v>
@@ -72023,7 +72023,7 @@
     </row>
     <row r="8959" spans="1:2">
       <c r="A8959">
-        <v>0.0003572775273417146</v>
+        <v>0.0003572775273416693</v>
       </c>
       <c r="B8959">
         <v>-0.0004123762243972706</v>
@@ -72039,7 +72039,7 @@
     </row>
     <row r="8961" spans="1:2">
       <c r="A8961">
-        <v>-0.001285319064256946</v>
+        <v>-0.001285319064256924</v>
       </c>
       <c r="B8961">
         <v>-0.005382338258048236</v>
@@ -72143,7 +72143,7 @@
     </row>
     <row r="8974" spans="1:2">
       <c r="A8974">
-        <v>-0.0009865945457484659</v>
+        <v>-0.0009865945457485112</v>
       </c>
       <c r="B8974">
         <v>0.0009000638058065391</v>
@@ -72175,7 +72175,7 @@
     </row>
     <row r="8978" spans="1:2">
       <c r="A8978">
-        <v>0.002376140423257593</v>
+        <v>0.002376140423257592</v>
       </c>
       <c r="B8978">
         <v>0.0104500844232156</v>
@@ -72191,7 +72191,7 @@
     </row>
     <row r="8980" spans="1:2">
       <c r="A8980">
-        <v>0.002966396927487055</v>
+        <v>0.002966396927487054</v>
       </c>
       <c r="B8980">
         <v>0.01157068260028637</v>
@@ -72215,7 +72215,7 @@
     </row>
     <row r="8983" spans="1:2">
       <c r="A8983">
-        <v>0.002744969517412059</v>
+        <v>0.00274496951741206</v>
       </c>
       <c r="B8983">
         <v>0.009456863308060726</v>
@@ -72303,7 +72303,7 @@
     </row>
     <row r="8994" spans="1:2">
       <c r="A8994">
-        <v>-0.003397786492489742</v>
+        <v>-0.003397786492489559</v>
       </c>
       <c r="B8994">
         <v>-0.01053456755778281</v>
@@ -72375,7 +72375,7 @@
     </row>
     <row r="9003" spans="1:2">
       <c r="A9003">
-        <v>0.001697169956714499</v>
+        <v>0.001697169956714498</v>
       </c>
       <c r="B9003">
         <v>0.005360173177566985</v>
@@ -72407,7 +72407,7 @@
     </row>
     <row r="9007" spans="1:2">
       <c r="A9007">
-        <v>0.002599815490746955</v>
+        <v>0.002599815490746956</v>
       </c>
       <c r="B9007">
         <v>0.007365778349613272</v>
@@ -72415,7 +72415,7 @@
     </row>
     <row r="9008" spans="1:2">
       <c r="A9008">
-        <v>0.002327114053173952</v>
+        <v>0.002327114053173953</v>
       </c>
       <c r="B9008">
         <v>0.006308196482468276</v>
@@ -72455,7 +72455,7 @@
     </row>
     <row r="9013" spans="1:2">
       <c r="A9013">
-        <v>-0.0004107639542049288</v>
+        <v>-0.0004107639542049289</v>
       </c>
       <c r="B9013">
         <v>-0.002264313007993124</v>
@@ -72495,7 +72495,7 @@
     </row>
     <row r="9018" spans="1:2">
       <c r="A9018">
-        <v>-0.002919250686671846</v>
+        <v>-0.002919250686671847</v>
       </c>
       <c r="B9018">
         <v>-0.008525087991978708</v>
@@ -72615,7 +72615,7 @@
     </row>
     <row r="9033" spans="1:2">
       <c r="A9033">
-        <v>0.00359685915754299</v>
+        <v>0.003596859157542989</v>
       </c>
       <c r="B9033">
         <v>0.007609648982653816</v>
@@ -72831,7 +72831,7 @@
     </row>
     <row r="9060" spans="1:2">
       <c r="A9060">
-        <v>0.005688761803917551</v>
+        <v>0.005688761803917552</v>
       </c>
       <c r="B9060">
         <v>0.01172213931052823</v>
@@ -72879,7 +72879,7 @@
     </row>
     <row r="9066" spans="1:2">
       <c r="A9066">
-        <v>0.003443185396318145</v>
+        <v>0.003443185396318146</v>
       </c>
       <c r="B9066">
         <v>0.0006086029015959227</v>
@@ -72887,7 +72887,7 @@
     </row>
     <row r="9067" spans="1:2">
       <c r="A9067">
-        <v>0.002818823653257158</v>
+        <v>0.002818823653257159</v>
       </c>
       <c r="B9067">
         <v>-0.001586875089556017</v>
@@ -72967,7 +72967,7 @@
     </row>
     <row r="9077" spans="1:2">
       <c r="A9077">
-        <v>-0.001524817105160291</v>
+        <v>-0.001524817105160292</v>
       </c>
       <c r="B9077">
         <v>-0.01186363136348856</v>
@@ -72999,7 +72999,7 @@
     </row>
     <row r="9081" spans="1:2">
       <c r="A9081">
-        <v>0.0006085771723303268</v>
+        <v>0.0006085771723303267</v>
       </c>
       <c r="B9081">
         <v>-0.003532316884460762</v>
@@ -73135,7 +73135,7 @@
     </row>
     <row r="9098" spans="1:2">
       <c r="A9098">
-        <v>0.0005141091543429412</v>
+        <v>0.0005141091543429411</v>
       </c>
       <c r="B9098">
         <v>-0.006395568624344428</v>
@@ -73199,7 +73199,7 @@
     </row>
     <row r="9106" spans="1:2">
       <c r="A9106">
-        <v>9.001073433552534E-05</v>
+        <v>9.001073433552533E-05</v>
       </c>
       <c r="B9106">
         <v>-0.006050572034195234</v>
@@ -73207,7 +73207,7 @@
     </row>
     <row r="9107" spans="1:2">
       <c r="A9107">
-        <v>0.0006427869987623226</v>
+        <v>0.0006427869987623225</v>
       </c>
       <c r="B9107">
         <v>-0.004034411267543447</v>
@@ -73487,7 +73487,7 @@
     </row>
     <row r="9142" spans="1:2">
       <c r="A9142">
-        <v>0.006348253937461272</v>
+        <v>0.006348253937461273</v>
       </c>
       <c r="B9142">
         <v>0.01403446309987899</v>
@@ -73623,7 +73623,7 @@
     </row>
     <row r="9159" spans="1:2">
       <c r="A9159">
-        <v>0.00905265164004811</v>
+        <v>0.009052651640048112</v>
       </c>
       <c r="B9159">
         <v>0.000911300277503635</v>
@@ -73639,7 +73639,7 @@
     </row>
     <row r="9161" spans="1:2">
       <c r="A9161">
-        <v>0.009378931205230683</v>
+        <v>0.009378931205230681</v>
       </c>
       <c r="B9161">
         <v>0.001527938599727996</v>
@@ -73951,7 +73951,7 @@
     </row>
     <row r="9200" spans="1:2">
       <c r="A9200">
-        <v>0.03437186702540881</v>
+        <v>0.03437186702540858</v>
       </c>
       <c r="B9200">
         <v>-0.02377657249643494</v>
@@ -74039,7 +74039,7 @@
     </row>
     <row r="9211" spans="1:2">
       <c r="A9211">
-        <v>0.04246413365148257</v>
+        <v>0.04246413365148256</v>
       </c>
       <c r="B9211">
         <v>-0.0305694940394412</v>
@@ -74055,7 +74055,7 @@
     </row>
     <row r="9213" spans="1:2">
       <c r="A9213">
-        <v>0.04414831385041437</v>
+        <v>0.04414831385041438</v>
       </c>
       <c r="B9213">
         <v>-0.01109023295119638</v>
@@ -74071,7 +74071,7 @@
     </row>
     <row r="9215" spans="1:2">
       <c r="A9215">
-        <v>0.04390933150221606</v>
+        <v>0.04390933150221605</v>
       </c>
       <c r="B9215">
         <v>-0.0388425241365189</v>
@@ -74087,7 +74087,7 @@
     </row>
     <row r="9217" spans="1:2">
       <c r="A9217">
-        <v>0.04628874961921485</v>
+        <v>0.04628874961921484</v>
       </c>
       <c r="B9217">
         <v>-0.01688021114178007</v>
@@ -74095,7 +74095,7 @@
     </row>
     <row r="9218" spans="1:2">
       <c r="A9218">
-        <v>0.04631139501250682</v>
+        <v>0.04631139501250681</v>
       </c>
       <c r="B9218">
         <v>-0.03121004470885591</v>
@@ -74279,7 +74279,7 @@
     </row>
     <row r="9241" spans="1:2">
       <c r="A9241">
-        <v>0.06280546489218301</v>
+        <v>0.06280546489218303</v>
       </c>
       <c r="B9241">
         <v>-0.03139215925972705</v>
@@ -74367,7 +74367,7 @@
     </row>
     <row r="9252" spans="1:2">
       <c r="A9252">
-        <v>0.06012021765264496</v>
+        <v>0.06012021765264495</v>
       </c>
       <c r="B9252">
         <v>-0.04196737314700005</v>
@@ -74391,7 +74391,7 @@
     </row>
     <row r="9255" spans="1:2">
       <c r="A9255">
-        <v>0.05832578108595513</v>
+        <v>0.05832578108595512</v>
       </c>
       <c r="B9255">
         <v>-0.03233042472299186</v>
@@ -74423,7 +74423,7 @@
     </row>
     <row r="9259" spans="1:2">
       <c r="A9259">
-        <v>0.05656211268583942</v>
+        <v>0.05656211268583943</v>
       </c>
       <c r="B9259">
         <v>-0.03966219744139821</v>
@@ -74479,7 +74479,7 @@
     </row>
     <row r="9266" spans="1:2">
       <c r="A9266">
-        <v>0.05681642383578593</v>
+        <v>0.05681642383578592</v>
       </c>
       <c r="B9266">
         <v>-0.02141213719969226</v>
@@ -74511,7 +74511,7 @@
     </row>
     <row r="9270" spans="1:2">
       <c r="A9270">
-        <v>0.05753818220879965</v>
+        <v>0.05753818220879964</v>
       </c>
       <c r="B9270">
         <v>-0.01806054824948067</v>
@@ -74567,7 +74567,7 @@
     </row>
     <row r="9277" spans="1:2">
       <c r="A9277">
-        <v>0.05628393483549844</v>
+        <v>0.05628393483549835</v>
       </c>
       <c r="B9277">
         <v>-0.05538498490274968</v>
@@ -74583,7 +74583,7 @@
     </row>
     <row r="9279" spans="1:2">
       <c r="A9279">
-        <v>0.05549695943238678</v>
+        <v>0.05549695943238677</v>
       </c>
       <c r="B9279">
         <v>-0.03060228708796053</v>
@@ -74671,7 +74671,7 @@
     </row>
     <row r="9290" spans="1:2">
       <c r="A9290">
-        <v>0.04653139825313186</v>
+        <v>0.04653139825313187</v>
       </c>
       <c r="B9290">
         <v>-0.02195704104151996</v>
@@ -74679,7 +74679,7 @@
     </row>
     <row r="9291" spans="1:2">
       <c r="A9291">
-        <v>0.0462965508046808</v>
+        <v>0.04629655080468081</v>
       </c>
       <c r="B9291">
         <v>-0.03242304029546972</v>
@@ -74767,7 +74767,7 @@
     </row>
     <row r="9302" spans="1:2">
       <c r="A9302">
-        <v>0.03554406869215697</v>
+        <v>0.03554406869215696</v>
       </c>
       <c r="B9302">
         <v>-0.05468847888557793</v>
@@ -74959,7 +74959,7 @@
     </row>
     <row r="9326" spans="1:2">
       <c r="A9326">
-        <v>0.03033122967372858</v>
+        <v>0.03033122967372859</v>
       </c>
       <c r="B9326">
         <v>-0.02142751263314713</v>
@@ -75767,7 +75767,7 @@
     </row>
     <row r="9427" spans="1:2">
       <c r="A9427">
-        <v>0.002109971114920568</v>
+        <v>0.002109971114920562</v>
       </c>
       <c r="B9427">
         <v>0.009296535742773671</v>
@@ -75807,7 +75807,7 @@
     </row>
     <row r="9432" spans="1:2">
       <c r="A9432">
-        <v>0.0003331612913198758</v>
+        <v>0.0003331612913198788</v>
       </c>
       <c r="B9432">
         <v>0.001050149838953018</v>
